--- a/Data/거래량폭증종목.xlsx
+++ b/Data/거래량폭증종목.xlsx
@@ -425,10 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -19406,6 +19409,5105 @@
         <v>7.36</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004140</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>동방</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>종합 물류</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>기타 운송관련 서비스업</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>육상운송,해상운송,항만화물하역,보관,창고,물류사업</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3166970</v>
+      </c>
+      <c r="K202" t="n">
+        <v>8466110090</v>
+      </c>
+      <c r="L202" t="n">
+        <v>121128.70915</v>
+      </c>
+      <c r="M202" t="n">
+        <v>75</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.02970297029702973</v>
+      </c>
+      <c r="O202" t="n">
+        <v>102.7667984189723</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>2626</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2673</v>
+      </c>
+      <c r="S202" t="n">
+        <v>2530</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1955</v>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X202" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>004140</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>동방</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>쿠팡 관련주</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>기타 운송관련 서비스업</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>육상운송,해상운송,항만화물하역,보관,창고,물류사업</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3166970</v>
+      </c>
+      <c r="K203" t="n">
+        <v>8466110090</v>
+      </c>
+      <c r="L203" t="n">
+        <v>121128.70915</v>
+      </c>
+      <c r="M203" t="n">
+        <v>75</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.02970297029702973</v>
+      </c>
+      <c r="O203" t="n">
+        <v>102.7667984189723</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>2626</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2673</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2530</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1955</v>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X203" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>200880</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>서연이화</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>UAM(도심항공모빌리티)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>자동차 도어 트림 및 시트</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>11190</v>
+      </c>
+      <c r="J204" t="n">
+        <v>4476000</v>
+      </c>
+      <c r="K204" t="n">
+        <v>49533753760</v>
+      </c>
+      <c r="L204" t="n">
+        <v>263256.97638</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.1488706365503081</v>
+      </c>
+      <c r="O204" t="n">
+        <v>133.4525939177102</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>9216</v>
+      </c>
+      <c r="R204" t="n">
+        <v>8863</v>
+      </c>
+      <c r="S204" t="n">
+        <v>8385</v>
+      </c>
+      <c r="T204" t="n">
+        <v>11650</v>
+      </c>
+      <c r="U204" t="n">
+        <v>6160</v>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X204" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>200880</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>서연이화</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>자동차 도어 트림 및 시트</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>11190</v>
+      </c>
+      <c r="J205" t="n">
+        <v>4476000</v>
+      </c>
+      <c r="K205" t="n">
+        <v>49533753760</v>
+      </c>
+      <c r="L205" t="n">
+        <v>263256.97638</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.1488706365503081</v>
+      </c>
+      <c r="O205" t="n">
+        <v>133.4525939177102</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>9216</v>
+      </c>
+      <c r="R205" t="n">
+        <v>8863</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8385</v>
+      </c>
+      <c r="T205" t="n">
+        <v>11650</v>
+      </c>
+      <c r="U205" t="n">
+        <v>6160</v>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X205" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>화천기공</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>공작기계</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>CNC선반,CNC밀링,연마기(금속공작기계),MC공작기계,COPY밀링기계,주방품 제조,도매</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>34000</v>
+      </c>
+      <c r="J206" t="n">
+        <v>23771</v>
+      </c>
+      <c r="K206" t="n">
+        <v>816714300</v>
+      </c>
+      <c r="L206" t="n">
+        <v>71720</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.04294478527607359</v>
+      </c>
+      <c r="O206" t="n">
+        <v>106.7906275519819</v>
+      </c>
+      <c r="P206" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>32185</v>
+      </c>
+      <c r="R206" t="n">
+        <v>32137</v>
+      </c>
+      <c r="S206" t="n">
+        <v>31838</v>
+      </c>
+      <c r="T206" t="n">
+        <v>35900</v>
+      </c>
+      <c r="U206" t="n">
+        <v>28500</v>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X206" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>000540</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>흥국화재</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>3690</v>
+      </c>
+      <c r="J207" t="n">
+        <v>581835</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2155744235</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>250</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.07267441860465107</v>
+      </c>
+      <c r="O207" t="n">
+        <v>113.8888888888889</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>3548</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3364</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3240</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3990</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2780</v>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="X207" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>백신/진단시약/방역(신종플루, AI 등)</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>7190</v>
+      </c>
+      <c r="J208" t="n">
+        <v>146166</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1062497030</v>
+      </c>
+      <c r="L208" t="n">
+        <v>83600</v>
+      </c>
+      <c r="M208" t="n">
+        <v>-410</v>
+      </c>
+      <c r="N208" t="n">
+        <v>-0.05394736842105263</v>
+      </c>
+      <c r="O208" t="n">
+        <v>94.79235332893869</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>7731</v>
+      </c>
+      <c r="R208" t="n">
+        <v>7868</v>
+      </c>
+      <c r="S208" t="n">
+        <v>7585</v>
+      </c>
+      <c r="T208" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U208" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X208" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>메르스 코로나 바이러스</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>7190</v>
+      </c>
+      <c r="J209" t="n">
+        <v>146166</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1062497030</v>
+      </c>
+      <c r="L209" t="n">
+        <v>83600</v>
+      </c>
+      <c r="M209" t="n">
+        <v>-410</v>
+      </c>
+      <c r="N209" t="n">
+        <v>-0.05394736842105263</v>
+      </c>
+      <c r="O209" t="n">
+        <v>94.79235332893869</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>7731</v>
+      </c>
+      <c r="R209" t="n">
+        <v>7868</v>
+      </c>
+      <c r="S209" t="n">
+        <v>7585</v>
+      </c>
+      <c r="T209" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U209" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X209" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>제약업체</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>7190</v>
+      </c>
+      <c r="J210" t="n">
+        <v>146166</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1062497030</v>
+      </c>
+      <c r="L210" t="n">
+        <v>83600</v>
+      </c>
+      <c r="M210" t="n">
+        <v>-410</v>
+      </c>
+      <c r="N210" t="n">
+        <v>-0.05394736842105263</v>
+      </c>
+      <c r="O210" t="n">
+        <v>94.79235332893869</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>7731</v>
+      </c>
+      <c r="R210" t="n">
+        <v>7868</v>
+      </c>
+      <c r="S210" t="n">
+        <v>7585</v>
+      </c>
+      <c r="T210" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U210" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X210" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>치매</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>7190</v>
+      </c>
+      <c r="J211" t="n">
+        <v>146166</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1062497030</v>
+      </c>
+      <c r="L211" t="n">
+        <v>83600</v>
+      </c>
+      <c r="M211" t="n">
+        <v>-410</v>
+      </c>
+      <c r="N211" t="n">
+        <v>-0.05394736842105263</v>
+      </c>
+      <c r="O211" t="n">
+        <v>94.79235332893869</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>7731</v>
+      </c>
+      <c r="R211" t="n">
+        <v>7868</v>
+      </c>
+      <c r="S211" t="n">
+        <v>7585</v>
+      </c>
+      <c r="T211" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U211" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X211" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>시스템반도체</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>6720</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3222209</v>
+      </c>
+      <c r="K212" t="n">
+        <v>21622215900</v>
+      </c>
+      <c r="L212" t="n">
+        <v>51294.6</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1410</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.2655367231638419</v>
+      </c>
+      <c r="O212" t="n">
+        <v>118.3723797780518</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>5586</v>
+      </c>
+      <c r="R212" t="n">
+        <v>5377</v>
+      </c>
+      <c r="S212" t="n">
+        <v>5677</v>
+      </c>
+      <c r="T212" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U212" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X212" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>6720</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3222209</v>
+      </c>
+      <c r="K213" t="n">
+        <v>21622215900</v>
+      </c>
+      <c r="L213" t="n">
+        <v>51294.6</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1410</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.2655367231638419</v>
+      </c>
+      <c r="O213" t="n">
+        <v>118.3723797780518</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>5586</v>
+      </c>
+      <c r="R213" t="n">
+        <v>5377</v>
+      </c>
+      <c r="S213" t="n">
+        <v>5677</v>
+      </c>
+      <c r="T213" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U213" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X213" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>6720</v>
+      </c>
+      <c r="J214" t="n">
+        <v>3222209</v>
+      </c>
+      <c r="K214" t="n">
+        <v>21622215900</v>
+      </c>
+      <c r="L214" t="n">
+        <v>51294.6</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1410</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.2655367231638419</v>
+      </c>
+      <c r="O214" t="n">
+        <v>118.3723797780518</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>5586</v>
+      </c>
+      <c r="R214" t="n">
+        <v>5377</v>
+      </c>
+      <c r="S214" t="n">
+        <v>5677</v>
+      </c>
+      <c r="T214" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U214" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X214" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>보안주(정보)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>6720</v>
+      </c>
+      <c r="J215" t="n">
+        <v>3222209</v>
+      </c>
+      <c r="K215" t="n">
+        <v>21622215900</v>
+      </c>
+      <c r="L215" t="n">
+        <v>51294.6</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1410</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.2655367231638419</v>
+      </c>
+      <c r="O215" t="n">
+        <v>118.3723797780518</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>5586</v>
+      </c>
+      <c r="R215" t="n">
+        <v>5377</v>
+      </c>
+      <c r="S215" t="n">
+        <v>5677</v>
+      </c>
+      <c r="T215" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U215" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X215" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>228850</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>레이언스</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>TFT Detector, CMOS Detector, I/O Sensor</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>12410</v>
+      </c>
+      <c r="J216" t="n">
+        <v>589959</v>
+      </c>
+      <c r="K216" t="n">
+        <v>7577212490</v>
+      </c>
+      <c r="L216" t="n">
+        <v>196769.42604</v>
+      </c>
+      <c r="M216" t="n">
+        <v>550</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.04637436762225966</v>
+      </c>
+      <c r="O216" t="n">
+        <v>115.0139017608897</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>12397</v>
+      </c>
+      <c r="R216" t="n">
+        <v>11648</v>
+      </c>
+      <c r="S216" t="n">
+        <v>10790</v>
+      </c>
+      <c r="T216" t="n">
+        <v>14220</v>
+      </c>
+      <c r="U216" t="n">
+        <v>9190</v>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X216" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>072870</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>메가스터디</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>서적, 잡지 및 기타 인쇄물 출판업</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>온라인강의,교재판매</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>11280</v>
+      </c>
+      <c r="J217" t="n">
+        <v>150719</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1718560310</v>
+      </c>
+      <c r="L217" t="n">
+        <v>127911.89007</v>
+      </c>
+      <c r="M217" t="n">
+        <v>550</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.05125815470643058</v>
+      </c>
+      <c r="O217" t="n">
+        <v>101.2294714170331</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>10883</v>
+      </c>
+      <c r="R217" t="n">
+        <v>11078</v>
+      </c>
+      <c r="S217" t="n">
+        <v>11143</v>
+      </c>
+      <c r="T217" t="n">
+        <v>11800</v>
+      </c>
+      <c r="U217" t="n">
+        <v>10150</v>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X217" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>차량용블랙박스</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>3255</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2902783</v>
+      </c>
+      <c r="K218" t="n">
+        <v>9501431900</v>
+      </c>
+      <c r="L218" t="n">
+        <v>98797.933135</v>
+      </c>
+      <c r="M218" t="n">
+        <v>220</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.07248764415156517</v>
+      </c>
+      <c r="O218" t="n">
+        <v>99.69372128637059</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3047</v>
+      </c>
+      <c r="S218" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T218" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X218" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>4차산업 수혜주</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>3255</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2902783</v>
+      </c>
+      <c r="K219" t="n">
+        <v>9501431900</v>
+      </c>
+      <c r="L219" t="n">
+        <v>98797.933135</v>
+      </c>
+      <c r="M219" t="n">
+        <v>220</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.07248764415156517</v>
+      </c>
+      <c r="O219" t="n">
+        <v>99.69372128637059</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R219" t="n">
+        <v>3047</v>
+      </c>
+      <c r="S219" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T219" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X219" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>3255</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2902783</v>
+      </c>
+      <c r="K220" t="n">
+        <v>9501431900</v>
+      </c>
+      <c r="L220" t="n">
+        <v>98797.933135</v>
+      </c>
+      <c r="M220" t="n">
+        <v>220</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.07248764415156517</v>
+      </c>
+      <c r="O220" t="n">
+        <v>99.69372128637059</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R220" t="n">
+        <v>3047</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T220" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X220" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>스마트카(SMART CAR)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>3255</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2902783</v>
+      </c>
+      <c r="K221" t="n">
+        <v>9501431900</v>
+      </c>
+      <c r="L221" t="n">
+        <v>98797.933135</v>
+      </c>
+      <c r="M221" t="n">
+        <v>220</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.07248764415156517</v>
+      </c>
+      <c r="O221" t="n">
+        <v>99.69372128637059</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3047</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T221" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X221" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2401818</v>
+      </c>
+      <c r="K222" t="n">
+        <v>17729157660</v>
+      </c>
+      <c r="L222" t="n">
+        <v>109879.96673</v>
+      </c>
+      <c r="M222" t="n">
+        <v>400</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.06051437216338873</v>
+      </c>
+      <c r="O222" t="n">
+        <v>114.0393687977875</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>7197</v>
+      </c>
+      <c r="R222" t="n">
+        <v>6546</v>
+      </c>
+      <c r="S222" t="n">
+        <v>6147</v>
+      </c>
+      <c r="T222" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U222" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X222" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>4차산업 수혜주</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2401818</v>
+      </c>
+      <c r="K223" t="n">
+        <v>17729157660</v>
+      </c>
+      <c r="L223" t="n">
+        <v>109879.96673</v>
+      </c>
+      <c r="M223" t="n">
+        <v>400</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.06051437216338873</v>
+      </c>
+      <c r="O223" t="n">
+        <v>114.0393687977875</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>7197</v>
+      </c>
+      <c r="R223" t="n">
+        <v>6546</v>
+      </c>
+      <c r="S223" t="n">
+        <v>6147</v>
+      </c>
+      <c r="T223" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U223" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X223" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2401818</v>
+      </c>
+      <c r="K224" t="n">
+        <v>17729157660</v>
+      </c>
+      <c r="L224" t="n">
+        <v>109879.96673</v>
+      </c>
+      <c r="M224" t="n">
+        <v>400</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.06051437216338873</v>
+      </c>
+      <c r="O224" t="n">
+        <v>114.0393687977875</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>7197</v>
+      </c>
+      <c r="R224" t="n">
+        <v>6546</v>
+      </c>
+      <c r="S224" t="n">
+        <v>6147</v>
+      </c>
+      <c r="T224" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U224" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X224" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>SI(시스템통합)</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2401818</v>
+      </c>
+      <c r="K225" t="n">
+        <v>17729157660</v>
+      </c>
+      <c r="L225" t="n">
+        <v>109879.96673</v>
+      </c>
+      <c r="M225" t="n">
+        <v>400</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.06051437216338873</v>
+      </c>
+      <c r="O225" t="n">
+        <v>114.0393687977875</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>7197</v>
+      </c>
+      <c r="R225" t="n">
+        <v>6546</v>
+      </c>
+      <c r="S225" t="n">
+        <v>6147</v>
+      </c>
+      <c r="T225" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U225" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X225" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>7010</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2401818</v>
+      </c>
+      <c r="K226" t="n">
+        <v>17729157660</v>
+      </c>
+      <c r="L226" t="n">
+        <v>109879.96673</v>
+      </c>
+      <c r="M226" t="n">
+        <v>400</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.06051437216338873</v>
+      </c>
+      <c r="O226" t="n">
+        <v>114.0393687977875</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>7197</v>
+      </c>
+      <c r="R226" t="n">
+        <v>6546</v>
+      </c>
+      <c r="S226" t="n">
+        <v>6147</v>
+      </c>
+      <c r="T226" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U226" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X226" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>053060</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>세동</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>2360</v>
+      </c>
+      <c r="J227" t="n">
+        <v>7385369</v>
+      </c>
+      <c r="K227" t="n">
+        <v>18123848280</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>310</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.1512195121951219</v>
+      </c>
+      <c r="O227" t="n">
+        <v>170.1514059120404</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>1670</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1555</v>
+      </c>
+      <c r="S227" t="n">
+        <v>1387</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2665</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X227" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>032680</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>소프트센</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>전산기기 및 정보통신공사</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J228" t="n">
+        <v>36151525</v>
+      </c>
+      <c r="K228" t="n">
+        <v>80471788010</v>
+      </c>
+      <c r="L228" t="n">
+        <v>72785.378809</v>
+      </c>
+      <c r="M228" t="n">
+        <v>277</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.1455596426694692</v>
+      </c>
+      <c r="O228" t="n">
+        <v>133.6603310852238</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>1979</v>
+      </c>
+      <c r="R228" t="n">
+        <v>1720</v>
+      </c>
+      <c r="S228" t="n">
+        <v>1631</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2440</v>
+      </c>
+      <c r="U228" t="n">
+        <v>1345</v>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X228" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2021 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>4385</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1520798</v>
+      </c>
+      <c r="K229" t="n">
+        <v>6987496060</v>
+      </c>
+      <c r="L229" t="n">
+        <v>120176.82075</v>
+      </c>
+      <c r="M229" t="n">
+        <v>135</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.03176470588235292</v>
+      </c>
+      <c r="O229" t="n">
+        <v>94.95452576873106</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>4346</v>
+      </c>
+      <c r="R229" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T229" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X229" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>마스크</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>4385</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1520798</v>
+      </c>
+      <c r="K230" t="n">
+        <v>6987496060</v>
+      </c>
+      <c r="L230" t="n">
+        <v>120176.82075</v>
+      </c>
+      <c r="M230" t="n">
+        <v>135</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.03176470588235292</v>
+      </c>
+      <c r="O230" t="n">
+        <v>94.95452576873106</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>4346</v>
+      </c>
+      <c r="R230" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S230" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T230" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X230" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>황사/미세먼지</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>4385</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1520798</v>
+      </c>
+      <c r="K231" t="n">
+        <v>6987496060</v>
+      </c>
+      <c r="L231" t="n">
+        <v>120176.82075</v>
+      </c>
+      <c r="M231" t="n">
+        <v>135</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.03176470588235292</v>
+      </c>
+      <c r="O231" t="n">
+        <v>94.95452576873106</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>4346</v>
+      </c>
+      <c r="R231" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T231" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X231" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>공기청정기</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>4385</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1520798</v>
+      </c>
+      <c r="K232" t="n">
+        <v>6987496060</v>
+      </c>
+      <c r="L232" t="n">
+        <v>120176.82075</v>
+      </c>
+      <c r="M232" t="n">
+        <v>135</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.03176470588235292</v>
+      </c>
+      <c r="O232" t="n">
+        <v>94.95452576873106</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>4346</v>
+      </c>
+      <c r="R232" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T232" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U232" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X232" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>169330</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>엠브레인</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>3790</v>
+      </c>
+      <c r="J233" t="n">
+        <v>4528992</v>
+      </c>
+      <c r="K233" t="n">
+        <v>17095308570</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>415</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.1229629629629629</v>
+      </c>
+      <c r="O233" t="n">
+        <v>121.0089399744572</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>3261</v>
+      </c>
+      <c r="R233" t="n">
+        <v>3053</v>
+      </c>
+      <c r="S233" t="n">
+        <v>3132</v>
+      </c>
+      <c r="T233" t="n">
+        <v>3965</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2685</v>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="X233" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>052420</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>오성첨단소재</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>LCD 부품/소재</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>보호, 기능성 필름</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1737</v>
+      </c>
+      <c r="J234" t="n">
+        <v>5219416</v>
+      </c>
+      <c r="K234" t="n">
+        <v>9436433031</v>
+      </c>
+      <c r="L234" t="n">
+        <v>112271.15656</v>
+      </c>
+      <c r="M234" t="n">
+        <v>122</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.07554179566563457</v>
+      </c>
+      <c r="O234" t="n">
+        <v>88.75830352580481</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>1697</v>
+      </c>
+      <c r="R234" t="n">
+        <v>1712</v>
+      </c>
+      <c r="S234" t="n">
+        <v>1957</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2890</v>
+      </c>
+      <c r="U234" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X234" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>052420</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>오성첨단소재</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>마리화나(대마)</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>보호, 기능성 필름</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1737</v>
+      </c>
+      <c r="J235" t="n">
+        <v>5219416</v>
+      </c>
+      <c r="K235" t="n">
+        <v>9436433031</v>
+      </c>
+      <c r="L235" t="n">
+        <v>112271.15656</v>
+      </c>
+      <c r="M235" t="n">
+        <v>122</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.07554179566563457</v>
+      </c>
+      <c r="O235" t="n">
+        <v>88.75830352580481</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>1697</v>
+      </c>
+      <c r="R235" t="n">
+        <v>1712</v>
+      </c>
+      <c r="S235" t="n">
+        <v>1957</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2890</v>
+      </c>
+      <c r="U235" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X235" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>033230</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>인성정보</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>넷트워크 관련 장비 및 솔루션</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2415</v>
+      </c>
+      <c r="J236" t="n">
+        <v>17575791</v>
+      </c>
+      <c r="K236" t="n">
+        <v>45559063860</v>
+      </c>
+      <c r="L236" t="n">
+        <v>87058.1436</v>
+      </c>
+      <c r="M236" t="n">
+        <v>195</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.08783783783783794</v>
+      </c>
+      <c r="O236" t="n">
+        <v>116.1057692307692</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2188</v>
+      </c>
+      <c r="S236" t="n">
+        <v>2080</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2790</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X236" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>033230</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>인성정보</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>NI(네트워크통합)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>넷트워크 관련 장비 및 솔루션</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>2415</v>
+      </c>
+      <c r="J237" t="n">
+        <v>17575791</v>
+      </c>
+      <c r="K237" t="n">
+        <v>45559063860</v>
+      </c>
+      <c r="L237" t="n">
+        <v>87058.1436</v>
+      </c>
+      <c r="M237" t="n">
+        <v>195</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.08783783783783794</v>
+      </c>
+      <c r="O237" t="n">
+        <v>116.1057692307692</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2188</v>
+      </c>
+      <c r="S237" t="n">
+        <v>2080</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2790</v>
+      </c>
+      <c r="U237" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X237" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>033230</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>인성정보</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>넷트워크 관련 장비 및 솔루션</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>2415</v>
+      </c>
+      <c r="J238" t="n">
+        <v>17575791</v>
+      </c>
+      <c r="K238" t="n">
+        <v>45559063860</v>
+      </c>
+      <c r="L238" t="n">
+        <v>87058.1436</v>
+      </c>
+      <c r="M238" t="n">
+        <v>195</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.08783783783783794</v>
+      </c>
+      <c r="O238" t="n">
+        <v>116.1057692307692</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2188</v>
+      </c>
+      <c r="S238" t="n">
+        <v>2080</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2790</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X238" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>322510</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>제이엘케이</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>인공지능 기반 의료영상 진단 플랫폼, 인공지능 기반 산업용 X-ray 판독시스템</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>4925</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1418849</v>
+      </c>
+      <c r="K239" t="n">
+        <v>7378001125</v>
+      </c>
+      <c r="L239" t="n">
+        <v>68842.28741999999</v>
+      </c>
+      <c r="M239" t="n">
+        <v>435</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.0968819599109132</v>
+      </c>
+      <c r="O239" t="n">
+        <v>132.1438154011269</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>4510</v>
+      </c>
+      <c r="R239" t="n">
+        <v>3893</v>
+      </c>
+      <c r="S239" t="n">
+        <v>3727</v>
+      </c>
+      <c r="T239" t="n">
+        <v>5490</v>
+      </c>
+      <c r="U239" t="n">
+        <v>3100</v>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="X239" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>322510</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>제이엘케이</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>인공지능 기반 의료영상 진단 플랫폼, 인공지능 기반 산업용 X-ray 판독시스템</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>4925</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1418849</v>
+      </c>
+      <c r="K240" t="n">
+        <v>7378001125</v>
+      </c>
+      <c r="L240" t="n">
+        <v>68842.28741999999</v>
+      </c>
+      <c r="M240" t="n">
+        <v>435</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.0968819599109132</v>
+      </c>
+      <c r="O240" t="n">
+        <v>132.1438154011269</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>4510</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3893</v>
+      </c>
+      <c r="S240" t="n">
+        <v>3727</v>
+      </c>
+      <c r="T240" t="n">
+        <v>5490</v>
+      </c>
+      <c r="U240" t="n">
+        <v>3100</v>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="X240" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>322510</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>제이엘케이</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>인공지능 기반 의료영상 진단 플랫폼, 인공지능 기반 산업용 X-ray 판독시스템</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>4925</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1418849</v>
+      </c>
+      <c r="K241" t="n">
+        <v>7378001125</v>
+      </c>
+      <c r="L241" t="n">
+        <v>68842.28741999999</v>
+      </c>
+      <c r="M241" t="n">
+        <v>435</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.0968819599109132</v>
+      </c>
+      <c r="O241" t="n">
+        <v>132.1438154011269</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>4510</v>
+      </c>
+      <c r="R241" t="n">
+        <v>3893</v>
+      </c>
+      <c r="S241" t="n">
+        <v>3727</v>
+      </c>
+      <c r="T241" t="n">
+        <v>5490</v>
+      </c>
+      <c r="U241" t="n">
+        <v>3100</v>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="X241" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>024880</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>케이피에프</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>풍력에너지</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>볼트류</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>7240</v>
+      </c>
+      <c r="J242" t="n">
+        <v>11044786</v>
+      </c>
+      <c r="K242" t="n">
+        <v>80461458310</v>
+      </c>
+      <c r="L242" t="n">
+        <v>142476.14095</v>
+      </c>
+      <c r="M242" t="n">
+        <v>90</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.01258741258741258</v>
+      </c>
+      <c r="O242" t="n">
+        <v>111.9010819165379</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>5830</v>
+      </c>
+      <c r="R242" t="n">
+        <v>5679</v>
+      </c>
+      <c r="S242" t="n">
+        <v>6470</v>
+      </c>
+      <c r="T242" t="n">
+        <v>8200</v>
+      </c>
+      <c r="U242" t="n">
+        <v>4770</v>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X242" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>024880</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>케이피에프</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>볼트류</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>7240</v>
+      </c>
+      <c r="J243" t="n">
+        <v>11044786</v>
+      </c>
+      <c r="K243" t="n">
+        <v>80461458310</v>
+      </c>
+      <c r="L243" t="n">
+        <v>142476.14095</v>
+      </c>
+      <c r="M243" t="n">
+        <v>90</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.01258741258741258</v>
+      </c>
+      <c r="O243" t="n">
+        <v>111.9010819165379</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>5830</v>
+      </c>
+      <c r="R243" t="n">
+        <v>5679</v>
+      </c>
+      <c r="S243" t="n">
+        <v>6470</v>
+      </c>
+      <c r="T243" t="n">
+        <v>8200</v>
+      </c>
+      <c r="U243" t="n">
+        <v>4770</v>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X243" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>096240</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>크레버스</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>일반 교습 학원</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>청담어학원</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>19140</v>
+      </c>
+      <c r="J244" t="n">
+        <v>890730</v>
+      </c>
+      <c r="K244" t="n">
+        <v>17479273130</v>
+      </c>
+      <c r="L244" t="n">
+        <v>206633.3756</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1240</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.06927374301675981</v>
+      </c>
+      <c r="O244" t="n">
+        <v>95.93023255813954</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>18366</v>
+      </c>
+      <c r="R244" t="n">
+        <v>18784</v>
+      </c>
+      <c r="S244" t="n">
+        <v>19952</v>
+      </c>
+      <c r="T244" t="n">
+        <v>21250</v>
+      </c>
+      <c r="U244" t="n">
+        <v>16600</v>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X244" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>096240</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>크레버스</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>메타버스(Metaverse)</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>일반 교습 학원</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>청담어학원</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>19140</v>
+      </c>
+      <c r="J245" t="n">
+        <v>890730</v>
+      </c>
+      <c r="K245" t="n">
+        <v>17479273130</v>
+      </c>
+      <c r="L245" t="n">
+        <v>206633.3756</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1240</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.06927374301675981</v>
+      </c>
+      <c r="O245" t="n">
+        <v>95.93023255813954</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>18366</v>
+      </c>
+      <c r="R245" t="n">
+        <v>18784</v>
+      </c>
+      <c r="S245" t="n">
+        <v>19952</v>
+      </c>
+      <c r="T245" t="n">
+        <v>21250</v>
+      </c>
+      <c r="U245" t="n">
+        <v>16600</v>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X245" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>유전자 치료제/분석</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>4800</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1260139</v>
+      </c>
+      <c r="K246" t="n">
+        <v>6301973460</v>
+      </c>
+      <c r="L246" t="n">
+        <v>157338.637575</v>
+      </c>
+      <c r="M246" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N246" t="n">
+        <v>-0.009287925696594423</v>
+      </c>
+      <c r="O246" t="n">
+        <v>109.9908340971586</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>4758</v>
+      </c>
+      <c r="R246" t="n">
+        <v>4584</v>
+      </c>
+      <c r="S246" t="n">
+        <v>4364</v>
+      </c>
+      <c r="T246" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U246" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X246" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>4800</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1260139</v>
+      </c>
+      <c r="K247" t="n">
+        <v>6301973460</v>
+      </c>
+      <c r="L247" t="n">
+        <v>157338.637575</v>
+      </c>
+      <c r="M247" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N247" t="n">
+        <v>-0.009287925696594423</v>
+      </c>
+      <c r="O247" t="n">
+        <v>109.9908340971586</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>4758</v>
+      </c>
+      <c r="R247" t="n">
+        <v>4584</v>
+      </c>
+      <c r="S247" t="n">
+        <v>4364</v>
+      </c>
+      <c r="T247" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U247" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X247" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>제약업체</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>4800</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1260139</v>
+      </c>
+      <c r="K248" t="n">
+        <v>6301973460</v>
+      </c>
+      <c r="L248" t="n">
+        <v>157338.637575</v>
+      </c>
+      <c r="M248" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N248" t="n">
+        <v>-0.009287925696594423</v>
+      </c>
+      <c r="O248" t="n">
+        <v>109.9908340971586</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>4758</v>
+      </c>
+      <c r="R248" t="n">
+        <v>4584</v>
+      </c>
+      <c r="S248" t="n">
+        <v>4364</v>
+      </c>
+      <c r="T248" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U248" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X248" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>4800</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1260139</v>
+      </c>
+      <c r="K249" t="n">
+        <v>6301973460</v>
+      </c>
+      <c r="L249" t="n">
+        <v>157338.637575</v>
+      </c>
+      <c r="M249" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N249" t="n">
+        <v>-0.009287925696594423</v>
+      </c>
+      <c r="O249" t="n">
+        <v>109.9908340971586</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>4758</v>
+      </c>
+      <c r="R249" t="n">
+        <v>4584</v>
+      </c>
+      <c r="S249" t="n">
+        <v>4364</v>
+      </c>
+      <c r="T249" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U249" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X249" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>038950</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>파인디지털</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>차량용블랙박스</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>원격 RF 감시장치, 디지털 광 중계기, 노드분배기</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>6040</v>
+      </c>
+      <c r="J250" t="n">
+        <v>6010584</v>
+      </c>
+      <c r="K250" t="n">
+        <v>38141401010</v>
+      </c>
+      <c r="L250" t="n">
+        <v>56976.0687</v>
+      </c>
+      <c r="M250" t="n">
+        <v>460</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.08243727598566308</v>
+      </c>
+      <c r="O250" t="n">
+        <v>120.7516993202719</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>5598</v>
+      </c>
+      <c r="R250" t="n">
+        <v>5155</v>
+      </c>
+      <c r="S250" t="n">
+        <v>5002</v>
+      </c>
+      <c r="T250" t="n">
+        <v>6730</v>
+      </c>
+      <c r="U250" t="n">
+        <v>4180</v>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X250" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>038950</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>파인디지털</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>원격 RF 감시장치, 디지털 광 중계기, 노드분배기</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>6040</v>
+      </c>
+      <c r="J251" t="n">
+        <v>6010584</v>
+      </c>
+      <c r="K251" t="n">
+        <v>38141401010</v>
+      </c>
+      <c r="L251" t="n">
+        <v>56976.0687</v>
+      </c>
+      <c r="M251" t="n">
+        <v>460</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.08243727598566308</v>
+      </c>
+      <c r="O251" t="n">
+        <v>120.7516993202719</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>5598</v>
+      </c>
+      <c r="R251" t="n">
+        <v>5155</v>
+      </c>
+      <c r="S251" t="n">
+        <v>5002</v>
+      </c>
+      <c r="T251" t="n">
+        <v>6730</v>
+      </c>
+      <c r="U251" t="n">
+        <v>4180</v>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X251" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>038950</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>파인디지털</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>음성인식</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>원격 RF 감시장치, 디지털 광 중계기, 노드분배기</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>6040</v>
+      </c>
+      <c r="J252" t="n">
+        <v>6010584</v>
+      </c>
+      <c r="K252" t="n">
+        <v>38141401010</v>
+      </c>
+      <c r="L252" t="n">
+        <v>56976.0687</v>
+      </c>
+      <c r="M252" t="n">
+        <v>460</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.08243727598566308</v>
+      </c>
+      <c r="O252" t="n">
+        <v>120.7516993202719</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>5598</v>
+      </c>
+      <c r="R252" t="n">
+        <v>5155</v>
+      </c>
+      <c r="S252" t="n">
+        <v>5002</v>
+      </c>
+      <c r="T252" t="n">
+        <v>6730</v>
+      </c>
+      <c r="U252" t="n">
+        <v>4180</v>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X252" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>028080</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>휴맥스홀딩스</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>전기차(충전소/충전기)</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>지주사업, IT서비스사업</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>4615</v>
+      </c>
+      <c r="J253" t="n">
+        <v>4730822</v>
+      </c>
+      <c r="K253" t="n">
+        <v>24198813155</v>
+      </c>
+      <c r="L253" t="n">
+        <v>63893.73048</v>
+      </c>
+      <c r="M253" t="n">
+        <v>-465</v>
+      </c>
+      <c r="N253" t="n">
+        <v>-0.09153543307086609</v>
+      </c>
+      <c r="O253" t="n">
+        <v>136.7407407407407</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>3656</v>
+      </c>
+      <c r="R253" t="n">
+        <v>3504</v>
+      </c>
+      <c r="S253" t="n">
+        <v>3375</v>
+      </c>
+      <c r="T253" t="n">
+        <v>5680</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2750</v>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X253" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>028080</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>휴맥스홀딩스</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>지주사</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>지주사업, IT서비스사업</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>4615</v>
+      </c>
+      <c r="J254" t="n">
+        <v>4730822</v>
+      </c>
+      <c r="K254" t="n">
+        <v>24198813155</v>
+      </c>
+      <c r="L254" t="n">
+        <v>63893.73048</v>
+      </c>
+      <c r="M254" t="n">
+        <v>-465</v>
+      </c>
+      <c r="N254" t="n">
+        <v>-0.09153543307086609</v>
+      </c>
+      <c r="O254" t="n">
+        <v>136.7407407407407</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>3656</v>
+      </c>
+      <c r="R254" t="n">
+        <v>3504</v>
+      </c>
+      <c r="S254" t="n">
+        <v>3375</v>
+      </c>
+      <c r="T254" t="n">
+        <v>5680</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2750</v>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X254" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/거래량폭증종목.xlsx
+++ b/Data/거래량폭증종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y254"/>
+  <dimension ref="A1:Y337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -19415,10 +19415,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>004140</t>
-        </is>
+      <c r="B202" t="n">
+        <v>4140</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -19512,10 +19510,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>004140</t>
-        </is>
+      <c r="B203" t="n">
+        <v>4140</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -19609,10 +19605,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>200880</t>
-        </is>
+      <c r="B204" t="n">
+        <v>200880</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -19706,10 +19700,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>200880</t>
-        </is>
+      <c r="B205" t="n">
+        <v>200880</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -19803,10 +19795,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
+      <c r="B206" t="n">
+        <v>850</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -19900,10 +19890,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>000540</t>
-        </is>
+      <c r="B207" t="n">
+        <v>540</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -19983,10 +19971,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B208" t="n">
+        <v>14570</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -20080,10 +20066,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B209" t="n">
+        <v>14570</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -20177,10 +20161,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B210" t="n">
+        <v>14570</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -20274,10 +20256,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B211" t="n">
+        <v>14570</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -20371,10 +20351,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B212" t="n">
+        <v>317120</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -20468,10 +20446,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B213" t="n">
+        <v>317120</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -20565,10 +20541,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B214" t="n">
+        <v>317120</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -20662,10 +20636,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B215" t="n">
+        <v>317120</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -20759,10 +20731,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>228850</t>
-        </is>
+      <c r="B216" t="n">
+        <v>228850</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -20856,10 +20826,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>072870</t>
-        </is>
+      <c r="B217" t="n">
+        <v>72870</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -20953,10 +20921,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B218" t="n">
+        <v>87260</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -21050,10 +21016,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B219" t="n">
+        <v>87260</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -21147,10 +21111,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B220" t="n">
+        <v>87260</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -21244,10 +21206,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B221" t="n">
+        <v>87260</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -21341,10 +21301,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B222" t="n">
+        <v>32850</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -21438,10 +21396,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B223" t="n">
+        <v>32850</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -21535,10 +21491,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B224" t="n">
+        <v>32850</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -21632,10 +21586,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B225" t="n">
+        <v>32850</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -21729,10 +21681,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B226" t="n">
+        <v>32850</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -21826,10 +21776,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>053060</t>
-        </is>
+      <c r="B227" t="n">
+        <v>53060</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -21909,10 +21857,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>032680</t>
-        </is>
+      <c r="B228" t="n">
+        <v>32680</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -22006,10 +21952,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B229" t="n">
+        <v>352700</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -22103,10 +22047,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B230" t="n">
+        <v>352700</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -22200,10 +22142,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B231" t="n">
+        <v>352700</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -22297,10 +22237,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B232" t="n">
+        <v>352700</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -22394,10 +22332,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>169330</t>
-        </is>
+      <c r="B233" t="n">
+        <v>169330</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -22477,10 +22413,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>052420</t>
-        </is>
+      <c r="B234" t="n">
+        <v>52420</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -22574,10 +22508,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>052420</t>
-        </is>
+      <c r="B235" t="n">
+        <v>52420</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -22671,10 +22603,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>033230</t>
-        </is>
+      <c r="B236" t="n">
+        <v>33230</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -22768,10 +22698,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>033230</t>
-        </is>
+      <c r="B237" t="n">
+        <v>33230</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -22865,10 +22793,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>033230</t>
-        </is>
+      <c r="B238" t="n">
+        <v>33230</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -22962,10 +22888,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>322510</t>
-        </is>
+      <c r="B239" t="n">
+        <v>322510</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -23059,10 +22983,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>322510</t>
-        </is>
+      <c r="B240" t="n">
+        <v>322510</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -23156,10 +23078,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>322510</t>
-        </is>
+      <c r="B241" t="n">
+        <v>322510</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -23253,10 +23173,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>024880</t>
-        </is>
+      <c r="B242" t="n">
+        <v>24880</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -23350,10 +23268,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>024880</t>
-        </is>
+      <c r="B243" t="n">
+        <v>24880</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -23447,10 +23363,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>096240</t>
-        </is>
+      <c r="B244" t="n">
+        <v>96240</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -23544,10 +23458,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>096240</t>
-        </is>
+      <c r="B245" t="n">
+        <v>96240</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -23641,10 +23553,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B246" t="n">
+        <v>66700</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -23738,10 +23648,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B247" t="n">
+        <v>66700</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -23835,10 +23743,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B248" t="n">
+        <v>66700</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -23932,10 +23838,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B249" t="n">
+        <v>66700</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -24029,10 +23933,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>038950</t>
-        </is>
+      <c r="B250" t="n">
+        <v>38950</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -24126,10 +24028,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>038950</t>
-        </is>
+      <c r="B251" t="n">
+        <v>38950</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -24223,10 +24123,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>038950</t>
-        </is>
+      <c r="B252" t="n">
+        <v>38950</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -24320,10 +24218,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>028080</t>
-        </is>
+      <c r="B253" t="n">
+        <v>28080</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -24417,10 +24313,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>028080</t>
-        </is>
+      <c r="B254" t="n">
+        <v>28080</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -24506,6 +24400,7987 @@
       </c>
       <c r="Y254" t="n">
         <v>7.47</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>004140</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>동방</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>쿠팡 관련주</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>기타 운송관련 서비스업</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>육상운송,해상운송,항만화물하역,보관,창고,물류사업</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>2615</v>
+      </c>
+      <c r="J255" t="n">
+        <v>3431951</v>
+      </c>
+      <c r="K255" t="n">
+        <v>9154928840</v>
+      </c>
+      <c r="L255" t="n">
+        <v>125446.16809</v>
+      </c>
+      <c r="M255" t="n">
+        <v>90</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.03564356435643568</v>
+      </c>
+      <c r="O255" t="n">
+        <v>103.3596837944664</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>2627</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2673</v>
+      </c>
+      <c r="S255" t="n">
+        <v>2530</v>
+      </c>
+      <c r="T255" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U255" t="n">
+        <v>1955</v>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X255" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>004140</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>동방</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>종합 물류</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>기타 운송관련 서비스업</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>육상운송,해상운송,항만화물하역,보관,창고,물류사업</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>2615</v>
+      </c>
+      <c r="J256" t="n">
+        <v>3431951</v>
+      </c>
+      <c r="K256" t="n">
+        <v>9154928840</v>
+      </c>
+      <c r="L256" t="n">
+        <v>125446.16809</v>
+      </c>
+      <c r="M256" t="n">
+        <v>90</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.03564356435643568</v>
+      </c>
+      <c r="O256" t="n">
+        <v>103.3596837944664</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>2627</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2673</v>
+      </c>
+      <c r="S256" t="n">
+        <v>2530</v>
+      </c>
+      <c r="T256" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U256" t="n">
+        <v>1955</v>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X256" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>200880</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>서연이화</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>UAM(도심항공모빌리티)</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>자동차 도어 트림 및 시트</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>11200</v>
+      </c>
+      <c r="J257" t="n">
+        <v>5353207</v>
+      </c>
+      <c r="K257" t="n">
+        <v>59250855970</v>
+      </c>
+      <c r="L257" t="n">
+        <v>302718.4944</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.1498973305954825</v>
+      </c>
+      <c r="O257" t="n">
+        <v>133.5718545020871</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>9217</v>
+      </c>
+      <c r="R257" t="n">
+        <v>8863</v>
+      </c>
+      <c r="S257" t="n">
+        <v>8385</v>
+      </c>
+      <c r="T257" t="n">
+        <v>11650</v>
+      </c>
+      <c r="U257" t="n">
+        <v>6160</v>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X257" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>200880</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>서연이화</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>자동차 도어 트림 및 시트</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>11200</v>
+      </c>
+      <c r="J258" t="n">
+        <v>5353207</v>
+      </c>
+      <c r="K258" t="n">
+        <v>59250855970</v>
+      </c>
+      <c r="L258" t="n">
+        <v>302718.4944</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.1498973305954825</v>
+      </c>
+      <c r="O258" t="n">
+        <v>133.5718545020871</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>9217</v>
+      </c>
+      <c r="R258" t="n">
+        <v>8863</v>
+      </c>
+      <c r="S258" t="n">
+        <v>8385</v>
+      </c>
+      <c r="T258" t="n">
+        <v>11650</v>
+      </c>
+      <c r="U258" t="n">
+        <v>6160</v>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X258" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>088260</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>이리츠코크렙</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>5190</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1879098</v>
+      </c>
+      <c r="K259" t="n">
+        <v>9714850880</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>20</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.003868471953578423</v>
+      </c>
+      <c r="O259" t="n">
+        <v>97.02748177229388</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>5297</v>
+      </c>
+      <c r="R259" t="n">
+        <v>5341</v>
+      </c>
+      <c r="S259" t="n">
+        <v>5349</v>
+      </c>
+      <c r="T259" t="n">
+        <v>5630</v>
+      </c>
+      <c r="U259" t="n">
+        <v>4700</v>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="X259" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>088350</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>2810</v>
+      </c>
+      <c r="J260" t="n">
+        <v>17042955</v>
+      </c>
+      <c r="K260" t="n">
+        <v>47175781865</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>340</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.1376518218623481</v>
+      </c>
+      <c r="O260" t="n">
+        <v>116.1637040099215</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>2590</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2624</v>
+      </c>
+      <c r="S260" t="n">
+        <v>2419</v>
+      </c>
+      <c r="T260" t="n">
+        <v>3000</v>
+      </c>
+      <c r="U260" t="n">
+        <v>1895</v>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X260" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>화천기공</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>공작기계</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>CNC선반,CNC밀링,연마기(금속공작기계),MC공작기계,COPY밀링기계,주방품 제조,도매</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>33600</v>
+      </c>
+      <c r="J261" t="n">
+        <v>30530</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1045013000</v>
+      </c>
+      <c r="L261" t="n">
+        <v>73920</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.03067484662576692</v>
+      </c>
+      <c r="O261" t="n">
+        <v>105.5442123449034</v>
+      </c>
+      <c r="P261" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>32165</v>
+      </c>
+      <c r="R261" t="n">
+        <v>32130</v>
+      </c>
+      <c r="S261" t="n">
+        <v>31835</v>
+      </c>
+      <c r="T261" t="n">
+        <v>35900</v>
+      </c>
+      <c r="U261" t="n">
+        <v>28500</v>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X261" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>000540</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>흥국화재</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>3690</v>
+      </c>
+      <c r="J262" t="n">
+        <v>867711</v>
+      </c>
+      <c r="K262" t="n">
+        <v>3220264245</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>250</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.07267441860465107</v>
+      </c>
+      <c r="O262" t="n">
+        <v>113.8888888888889</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>3548</v>
+      </c>
+      <c r="R262" t="n">
+        <v>3364</v>
+      </c>
+      <c r="S262" t="n">
+        <v>3240</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3990</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2780</v>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="X262" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>치매</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>7290</v>
+      </c>
+      <c r="J263" t="n">
+        <v>177187</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1286611750</v>
+      </c>
+      <c r="L263" t="n">
+        <v>80190</v>
+      </c>
+      <c r="M263" t="n">
+        <v>-310</v>
+      </c>
+      <c r="N263" t="n">
+        <v>-0.04078947368421049</v>
+      </c>
+      <c r="O263" t="n">
+        <v>96.09807540205641</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>7736</v>
+      </c>
+      <c r="R263" t="n">
+        <v>7870</v>
+      </c>
+      <c r="S263" t="n">
+        <v>7586</v>
+      </c>
+      <c r="T263" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U263" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X263" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>백신/진단시약/방역(신종플루, AI 등)</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>7290</v>
+      </c>
+      <c r="J264" t="n">
+        <v>177187</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1286611750</v>
+      </c>
+      <c r="L264" t="n">
+        <v>80190</v>
+      </c>
+      <c r="M264" t="n">
+        <v>-310</v>
+      </c>
+      <c r="N264" t="n">
+        <v>-0.04078947368421049</v>
+      </c>
+      <c r="O264" t="n">
+        <v>96.09807540205641</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>7736</v>
+      </c>
+      <c r="R264" t="n">
+        <v>7870</v>
+      </c>
+      <c r="S264" t="n">
+        <v>7586</v>
+      </c>
+      <c r="T264" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U264" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X264" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>제약업체</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>7290</v>
+      </c>
+      <c r="J265" t="n">
+        <v>177187</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1286611750</v>
+      </c>
+      <c r="L265" t="n">
+        <v>80190</v>
+      </c>
+      <c r="M265" t="n">
+        <v>-310</v>
+      </c>
+      <c r="N265" t="n">
+        <v>-0.04078947368421049</v>
+      </c>
+      <c r="O265" t="n">
+        <v>96.09807540205641</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>7736</v>
+      </c>
+      <c r="R265" t="n">
+        <v>7870</v>
+      </c>
+      <c r="S265" t="n">
+        <v>7586</v>
+      </c>
+      <c r="T265" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U265" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X265" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>메르스 코로나 바이러스</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>하벤(종합감기약),뉴로메드(치매치료제)등</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>7290</v>
+      </c>
+      <c r="J266" t="n">
+        <v>177187</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1286611750</v>
+      </c>
+      <c r="L266" t="n">
+        <v>80190</v>
+      </c>
+      <c r="M266" t="n">
+        <v>-310</v>
+      </c>
+      <c r="N266" t="n">
+        <v>-0.04078947368421049</v>
+      </c>
+      <c r="O266" t="n">
+        <v>96.09807540205641</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>7736</v>
+      </c>
+      <c r="R266" t="n">
+        <v>7870</v>
+      </c>
+      <c r="S266" t="n">
+        <v>7586</v>
+      </c>
+      <c r="T266" t="n">
+        <v>8860</v>
+      </c>
+      <c r="U266" t="n">
+        <v>6630</v>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X266" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>보안주(정보)</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>6560</v>
+      </c>
+      <c r="J267" t="n">
+        <v>4645044</v>
+      </c>
+      <c r="K267" t="n">
+        <v>30944556210</v>
+      </c>
+      <c r="L267" t="n">
+        <v>63369.6</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.2354048964218456</v>
+      </c>
+      <c r="O267" t="n">
+        <v>115.5947136563877</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>5578</v>
+      </c>
+      <c r="R267" t="n">
+        <v>5374</v>
+      </c>
+      <c r="S267" t="n">
+        <v>5675</v>
+      </c>
+      <c r="T267" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U267" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X267" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>6560</v>
+      </c>
+      <c r="J268" t="n">
+        <v>4645044</v>
+      </c>
+      <c r="K268" t="n">
+        <v>30944556210</v>
+      </c>
+      <c r="L268" t="n">
+        <v>63369.6</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.2354048964218456</v>
+      </c>
+      <c r="O268" t="n">
+        <v>115.5947136563877</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>5578</v>
+      </c>
+      <c r="R268" t="n">
+        <v>5374</v>
+      </c>
+      <c r="S268" t="n">
+        <v>5675</v>
+      </c>
+      <c r="T268" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U268" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X268" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>시스템반도체</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>6560</v>
+      </c>
+      <c r="J269" t="n">
+        <v>4645044</v>
+      </c>
+      <c r="K269" t="n">
+        <v>30944556210</v>
+      </c>
+      <c r="L269" t="n">
+        <v>63369.6</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.2354048964218456</v>
+      </c>
+      <c r="O269" t="n">
+        <v>115.5947136563877</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>5578</v>
+      </c>
+      <c r="R269" t="n">
+        <v>5374</v>
+      </c>
+      <c r="S269" t="n">
+        <v>5675</v>
+      </c>
+      <c r="T269" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U269" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X269" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>자동차 및 IoT 통신, 보안솔루션</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>6560</v>
+      </c>
+      <c r="J270" t="n">
+        <v>4645044</v>
+      </c>
+      <c r="K270" t="n">
+        <v>30944556210</v>
+      </c>
+      <c r="L270" t="n">
+        <v>63369.6</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.2354048964218456</v>
+      </c>
+      <c r="O270" t="n">
+        <v>115.5947136563877</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>5578</v>
+      </c>
+      <c r="R270" t="n">
+        <v>5374</v>
+      </c>
+      <c r="S270" t="n">
+        <v>5675</v>
+      </c>
+      <c r="T270" t="n">
+        <v>7200</v>
+      </c>
+      <c r="U270" t="n">
+        <v>4660</v>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X270" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>228850</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>레이언스</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>TFT Detector, CMOS Detector, I/O Sensor</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>12360</v>
+      </c>
+      <c r="J271" t="n">
+        <v>631578</v>
+      </c>
+      <c r="K271" t="n">
+        <v>8091688760</v>
+      </c>
+      <c r="L271" t="n">
+        <v>205064.93304</v>
+      </c>
+      <c r="M271" t="n">
+        <v>500</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.04215851602023601</v>
+      </c>
+      <c r="O271" t="n">
+        <v>114.5505097312326</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>12394</v>
+      </c>
+      <c r="R271" t="n">
+        <v>11647</v>
+      </c>
+      <c r="S271" t="n">
+        <v>10790</v>
+      </c>
+      <c r="T271" t="n">
+        <v>14220</v>
+      </c>
+      <c r="U271" t="n">
+        <v>9190</v>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X271" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>072870</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>메가스터디</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>서적, 잡지 및 기타 인쇄물 출판업</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>온라인강의,교재판매</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>11500</v>
+      </c>
+      <c r="J272" t="n">
+        <v>228506</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2599299990</v>
+      </c>
+      <c r="L272" t="n">
+        <v>137091.0285</v>
+      </c>
+      <c r="M272" t="n">
+        <v>770</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.07176141658900281</v>
+      </c>
+      <c r="O272" t="n">
+        <v>103.1852848811126</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>10894</v>
+      </c>
+      <c r="R272" t="n">
+        <v>11082</v>
+      </c>
+      <c r="S272" t="n">
+        <v>11145</v>
+      </c>
+      <c r="T272" t="n">
+        <v>11800</v>
+      </c>
+      <c r="U272" t="n">
+        <v>10150</v>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X272" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>스마트카(SMART CAR)</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>3245</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3319928</v>
+      </c>
+      <c r="K273" t="n">
+        <v>10858863140</v>
+      </c>
+      <c r="L273" t="n">
+        <v>105634.033945</v>
+      </c>
+      <c r="M273" t="n">
+        <v>210</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.06919275123558477</v>
+      </c>
+      <c r="O273" t="n">
+        <v>99.38744257274119</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R273" t="n">
+        <v>3046</v>
+      </c>
+      <c r="S273" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T273" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X273" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>3245</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3319928</v>
+      </c>
+      <c r="K274" t="n">
+        <v>10858863140</v>
+      </c>
+      <c r="L274" t="n">
+        <v>105634.033945</v>
+      </c>
+      <c r="M274" t="n">
+        <v>210</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.06919275123558477</v>
+      </c>
+      <c r="O274" t="n">
+        <v>99.38744257274119</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R274" t="n">
+        <v>3046</v>
+      </c>
+      <c r="S274" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T274" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X274" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>4차산업 수혜주</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>3245</v>
+      </c>
+      <c r="J275" t="n">
+        <v>3319928</v>
+      </c>
+      <c r="K275" t="n">
+        <v>10858863140</v>
+      </c>
+      <c r="L275" t="n">
+        <v>105634.033945</v>
+      </c>
+      <c r="M275" t="n">
+        <v>210</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.06919275123558477</v>
+      </c>
+      <c r="O275" t="n">
+        <v>99.38744257274119</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R275" t="n">
+        <v>3046</v>
+      </c>
+      <c r="S275" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T275" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X275" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>087260</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>모바일어플라이언스</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>차량용블랙박스</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>블랙박스, 내비게이션, HUD, ADAS</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>3245</v>
+      </c>
+      <c r="J276" t="n">
+        <v>3319928</v>
+      </c>
+      <c r="K276" t="n">
+        <v>10858863140</v>
+      </c>
+      <c r="L276" t="n">
+        <v>105634.033945</v>
+      </c>
+      <c r="M276" t="n">
+        <v>210</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.06919275123558477</v>
+      </c>
+      <c r="O276" t="n">
+        <v>99.38744257274119</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>3126</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3046</v>
+      </c>
+      <c r="S276" t="n">
+        <v>3265</v>
+      </c>
+      <c r="T276" t="n">
+        <v>4125</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2610</v>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X276" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>118990</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>모트렉스</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>스마트카(SMART CAR)</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>차량용 인포테인먼트</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>17900</v>
+      </c>
+      <c r="J277" t="n">
+        <v>7478689</v>
+      </c>
+      <c r="K277" t="n">
+        <v>135075526450</v>
+      </c>
+      <c r="L277" t="n">
+        <v>438469.45</v>
+      </c>
+      <c r="M277" t="n">
+        <v>690</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.04009296920395111</v>
+      </c>
+      <c r="O277" t="n">
+        <v>113.7808288838037</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>16414</v>
+      </c>
+      <c r="R277" t="n">
+        <v>15938</v>
+      </c>
+      <c r="S277" t="n">
+        <v>15732</v>
+      </c>
+      <c r="T277" t="n">
+        <v>20050</v>
+      </c>
+      <c r="U277" t="n">
+        <v>13100</v>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X277" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>118990</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>모트렉스</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>차량용 인포테인먼트</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>17900</v>
+      </c>
+      <c r="J278" t="n">
+        <v>7478689</v>
+      </c>
+      <c r="K278" t="n">
+        <v>135075526450</v>
+      </c>
+      <c r="L278" t="n">
+        <v>438469.45</v>
+      </c>
+      <c r="M278" t="n">
+        <v>690</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.04009296920395111</v>
+      </c>
+      <c r="O278" t="n">
+        <v>113.7808288838037</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>16414</v>
+      </c>
+      <c r="R278" t="n">
+        <v>15938</v>
+      </c>
+      <c r="S278" t="n">
+        <v>15732</v>
+      </c>
+      <c r="T278" t="n">
+        <v>20050</v>
+      </c>
+      <c r="U278" t="n">
+        <v>13100</v>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X278" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>118990</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>모트렉스</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>차량용 인포테인먼트</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>17900</v>
+      </c>
+      <c r="J279" t="n">
+        <v>7478689</v>
+      </c>
+      <c r="K279" t="n">
+        <v>135075526450</v>
+      </c>
+      <c r="L279" t="n">
+        <v>438469.45</v>
+      </c>
+      <c r="M279" t="n">
+        <v>690</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.04009296920395111</v>
+      </c>
+      <c r="O279" t="n">
+        <v>113.7808288838037</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>16414</v>
+      </c>
+      <c r="R279" t="n">
+        <v>15938</v>
+      </c>
+      <c r="S279" t="n">
+        <v>15732</v>
+      </c>
+      <c r="T279" t="n">
+        <v>20050</v>
+      </c>
+      <c r="U279" t="n">
+        <v>13100</v>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X279" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>338220</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>뷰노</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>뷰노메드 음성솔루션, 뷰노메드 영상솔루션, 기타 솔루션 등</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>11760</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2115566</v>
+      </c>
+      <c r="K280" t="n">
+        <v>25217914360</v>
+      </c>
+      <c r="L280" t="n">
+        <v>134076.41856</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O280" t="n">
+        <v>166.9032074936134</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>10379</v>
+      </c>
+      <c r="R280" t="n">
+        <v>8079</v>
+      </c>
+      <c r="S280" t="n">
+        <v>7046</v>
+      </c>
+      <c r="T280" t="n">
+        <v>12940</v>
+      </c>
+      <c r="U280" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X280" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>338220</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>뷰노</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>뷰노메드 음성솔루션, 뷰노메드 영상솔루션, 기타 솔루션 등</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>11760</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2115566</v>
+      </c>
+      <c r="K281" t="n">
+        <v>25217914360</v>
+      </c>
+      <c r="L281" t="n">
+        <v>134076.41856</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O281" t="n">
+        <v>166.9032074936134</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>10379</v>
+      </c>
+      <c r="R281" t="n">
+        <v>8079</v>
+      </c>
+      <c r="S281" t="n">
+        <v>7046</v>
+      </c>
+      <c r="T281" t="n">
+        <v>12940</v>
+      </c>
+      <c r="U281" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X281" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>338220</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>뷰노</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2021 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>뷰노메드 음성솔루션, 뷰노메드 영상솔루션, 기타 솔루션 등</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>11760</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2115566</v>
+      </c>
+      <c r="K282" t="n">
+        <v>25217914360</v>
+      </c>
+      <c r="L282" t="n">
+        <v>134076.41856</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O282" t="n">
+        <v>166.9032074936134</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>10379</v>
+      </c>
+      <c r="R282" t="n">
+        <v>8079</v>
+      </c>
+      <c r="S282" t="n">
+        <v>7046</v>
+      </c>
+      <c r="T282" t="n">
+        <v>12940</v>
+      </c>
+      <c r="U282" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X282" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J283" t="n">
+        <v>2617845</v>
+      </c>
+      <c r="K283" t="n">
+        <v>19233255370</v>
+      </c>
+      <c r="L283" t="n">
+        <v>114866.95463</v>
+      </c>
+      <c r="M283" t="n">
+        <v>300</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.0453857791225416</v>
+      </c>
+      <c r="O283" t="n">
+        <v>112.4308493328994</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>7192</v>
+      </c>
+      <c r="R283" t="n">
+        <v>6544</v>
+      </c>
+      <c r="S283" t="n">
+        <v>6146</v>
+      </c>
+      <c r="T283" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U283" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X283" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J284" t="n">
+        <v>2617845</v>
+      </c>
+      <c r="K284" t="n">
+        <v>19233255370</v>
+      </c>
+      <c r="L284" t="n">
+        <v>114866.95463</v>
+      </c>
+      <c r="M284" t="n">
+        <v>300</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.0453857791225416</v>
+      </c>
+      <c r="O284" t="n">
+        <v>112.4308493328994</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>7192</v>
+      </c>
+      <c r="R284" t="n">
+        <v>6544</v>
+      </c>
+      <c r="S284" t="n">
+        <v>6146</v>
+      </c>
+      <c r="T284" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U284" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X284" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>4차산업 수혜주</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2617845</v>
+      </c>
+      <c r="K285" t="n">
+        <v>19233255370</v>
+      </c>
+      <c r="L285" t="n">
+        <v>114866.95463</v>
+      </c>
+      <c r="M285" t="n">
+        <v>300</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.0453857791225416</v>
+      </c>
+      <c r="O285" t="n">
+        <v>112.4308493328994</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>7192</v>
+      </c>
+      <c r="R285" t="n">
+        <v>6544</v>
+      </c>
+      <c r="S285" t="n">
+        <v>6146</v>
+      </c>
+      <c r="T285" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U285" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X285" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>SI(시스템통합)</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J286" t="n">
+        <v>2617845</v>
+      </c>
+      <c r="K286" t="n">
+        <v>19233255370</v>
+      </c>
+      <c r="L286" t="n">
+        <v>114866.95463</v>
+      </c>
+      <c r="M286" t="n">
+        <v>300</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.0453857791225416</v>
+      </c>
+      <c r="O286" t="n">
+        <v>112.4308493328994</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>7192</v>
+      </c>
+      <c r="R286" t="n">
+        <v>6544</v>
+      </c>
+      <c r="S286" t="n">
+        <v>6146</v>
+      </c>
+      <c r="T286" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U286" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X286" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>032850</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>비트컴퓨터</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>의료정보시스템</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>6910</v>
+      </c>
+      <c r="J287" t="n">
+        <v>2617845</v>
+      </c>
+      <c r="K287" t="n">
+        <v>19233255370</v>
+      </c>
+      <c r="L287" t="n">
+        <v>114866.95463</v>
+      </c>
+      <c r="M287" t="n">
+        <v>300</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.0453857791225416</v>
+      </c>
+      <c r="O287" t="n">
+        <v>112.4308493328994</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>7192</v>
+      </c>
+      <c r="R287" t="n">
+        <v>6544</v>
+      </c>
+      <c r="S287" t="n">
+        <v>6146</v>
+      </c>
+      <c r="T287" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U287" t="n">
+        <v>4825</v>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X287" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>053060</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>세동</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2415</v>
+      </c>
+      <c r="J288" t="n">
+        <v>9914511</v>
+      </c>
+      <c r="K288" t="n">
+        <v>24290163015</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>365</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.1780487804878048</v>
+      </c>
+      <c r="O288" t="n">
+        <v>173.9913544668588</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>1673</v>
+      </c>
+      <c r="R288" t="n">
+        <v>1556</v>
+      </c>
+      <c r="S288" t="n">
+        <v>1388</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2665</v>
+      </c>
+      <c r="U288" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X288" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>032680</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>소프트센</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>전산기기 및 정보통신공사</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>2095</v>
+      </c>
+      <c r="J289" t="n">
+        <v>42279715</v>
+      </c>
+      <c r="K289" t="n">
+        <v>93441955685</v>
+      </c>
+      <c r="L289" t="n">
+        <v>80128.937785</v>
+      </c>
+      <c r="M289" t="n">
+        <v>192</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.1008933263268523</v>
+      </c>
+      <c r="O289" t="n">
+        <v>128.5276073619632</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R289" t="n">
+        <v>1718</v>
+      </c>
+      <c r="S289" t="n">
+        <v>1630</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2440</v>
+      </c>
+      <c r="U289" t="n">
+        <v>1345</v>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X289" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2021 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>4375</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1624839</v>
+      </c>
+      <c r="K290" t="n">
+        <v>7439936560</v>
+      </c>
+      <c r="L290" t="n">
+        <v>123711.433125</v>
+      </c>
+      <c r="M290" t="n">
+        <v>125</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.02941176470588225</v>
+      </c>
+      <c r="O290" t="n">
+        <v>94.73798181030749</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>4345</v>
+      </c>
+      <c r="R290" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S290" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T290" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U290" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X290" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>공기청정기</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>4375</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1624839</v>
+      </c>
+      <c r="K291" t="n">
+        <v>7439936560</v>
+      </c>
+      <c r="L291" t="n">
+        <v>123711.433125</v>
+      </c>
+      <c r="M291" t="n">
+        <v>125</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.02941176470588225</v>
+      </c>
+      <c r="O291" t="n">
+        <v>94.73798181030749</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>4345</v>
+      </c>
+      <c r="R291" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S291" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T291" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U291" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X291" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>마스크</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>4375</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1624839</v>
+      </c>
+      <c r="K292" t="n">
+        <v>7439936560</v>
+      </c>
+      <c r="L292" t="n">
+        <v>123711.433125</v>
+      </c>
+      <c r="M292" t="n">
+        <v>125</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.02941176470588225</v>
+      </c>
+      <c r="O292" t="n">
+        <v>94.73798181030749</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>4345</v>
+      </c>
+      <c r="R292" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S292" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T292" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U292" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X292" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>352700</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>씨앤투스</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>황사/미세먼지</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>기타 섬유제품 제조업</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>에어필터, 산업용 및 보건용 마스크</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>4375</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1624839</v>
+      </c>
+      <c r="K293" t="n">
+        <v>7439936560</v>
+      </c>
+      <c r="L293" t="n">
+        <v>123711.433125</v>
+      </c>
+      <c r="M293" t="n">
+        <v>125</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.02941176470588225</v>
+      </c>
+      <c r="O293" t="n">
+        <v>94.73798181030749</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>4345</v>
+      </c>
+      <c r="R293" t="n">
+        <v>4439</v>
+      </c>
+      <c r="S293" t="n">
+        <v>4618</v>
+      </c>
+      <c r="T293" t="n">
+        <v>5210</v>
+      </c>
+      <c r="U293" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X293" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>289010</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>아이스크림에듀</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>서적, 잡지 및 기타 인쇄물 출판업</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>아이스크림홈런</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J294" t="n">
+        <v>5483225</v>
+      </c>
+      <c r="K294" t="n">
+        <v>30789700610</v>
+      </c>
+      <c r="L294" t="n">
+        <v>71009.48424000001</v>
+      </c>
+      <c r="M294" t="n">
+        <v>370</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.07184466019417468</v>
+      </c>
+      <c r="O294" t="n">
+        <v>123.989218328841</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>5044</v>
+      </c>
+      <c r="R294" t="n">
+        <v>4587</v>
+      </c>
+      <c r="S294" t="n">
+        <v>4452</v>
+      </c>
+      <c r="T294" t="n">
+        <v>5940</v>
+      </c>
+      <c r="U294" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X294" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>289010</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>아이스크림에듀</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>서적, 잡지 및 기타 인쇄물 출판업</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>아이스크림홈런</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J295" t="n">
+        <v>5483225</v>
+      </c>
+      <c r="K295" t="n">
+        <v>30789700610</v>
+      </c>
+      <c r="L295" t="n">
+        <v>71009.48424000001</v>
+      </c>
+      <c r="M295" t="n">
+        <v>370</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.07184466019417468</v>
+      </c>
+      <c r="O295" t="n">
+        <v>123.989218328841</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>5044</v>
+      </c>
+      <c r="R295" t="n">
+        <v>4587</v>
+      </c>
+      <c r="S295" t="n">
+        <v>4452</v>
+      </c>
+      <c r="T295" t="n">
+        <v>5940</v>
+      </c>
+      <c r="U295" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="W295" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X295" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>289010</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>아이스크림에듀</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>쿠팡 관련주</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>서적, 잡지 및 기타 인쇄물 출판업</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>아이스크림홈런</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J296" t="n">
+        <v>5483225</v>
+      </c>
+      <c r="K296" t="n">
+        <v>30789700610</v>
+      </c>
+      <c r="L296" t="n">
+        <v>71009.48424000001</v>
+      </c>
+      <c r="M296" t="n">
+        <v>370</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.07184466019417468</v>
+      </c>
+      <c r="O296" t="n">
+        <v>123.989218328841</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>5044</v>
+      </c>
+      <c r="R296" t="n">
+        <v>4587</v>
+      </c>
+      <c r="S296" t="n">
+        <v>4452</v>
+      </c>
+      <c r="T296" t="n">
+        <v>5940</v>
+      </c>
+      <c r="U296" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X296" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>058630</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>엠게임</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>메타버스(Metaverse)</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>온라인 게임 개발 및 퍼블리싱(열혈강호온라인,홀릭2,영웅)</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J297" t="n">
+        <v>9765754</v>
+      </c>
+      <c r="K297" t="n">
+        <v>88194190220</v>
+      </c>
+      <c r="L297" t="n">
+        <v>178826.47455</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.1310259579728059</v>
+      </c>
+      <c r="O297" t="n">
+        <v>127.1186440677966</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>8307</v>
+      </c>
+      <c r="R297" t="n">
+        <v>7959</v>
+      </c>
+      <c r="S297" t="n">
+        <v>7198</v>
+      </c>
+      <c r="T297" t="n">
+        <v>9560</v>
+      </c>
+      <c r="U297" t="n">
+        <v>5310</v>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X297" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>058630</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>엠게임</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>증강현실(AR)</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>온라인 게임 개발 및 퍼블리싱(열혈강호온라인,홀릭2,영웅)</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J298" t="n">
+        <v>9765754</v>
+      </c>
+      <c r="K298" t="n">
+        <v>88194190220</v>
+      </c>
+      <c r="L298" t="n">
+        <v>178826.47455</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.1310259579728059</v>
+      </c>
+      <c r="O298" t="n">
+        <v>127.1186440677966</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>8307</v>
+      </c>
+      <c r="R298" t="n">
+        <v>7959</v>
+      </c>
+      <c r="S298" t="n">
+        <v>7198</v>
+      </c>
+      <c r="T298" t="n">
+        <v>9560</v>
+      </c>
+      <c r="U298" t="n">
+        <v>5310</v>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X298" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>058630</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>엠게임</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>NFT(대체불가토큰)</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>온라인 게임 개발 및 퍼블리싱(열혈강호온라인,홀릭2,영웅)</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J299" t="n">
+        <v>9765754</v>
+      </c>
+      <c r="K299" t="n">
+        <v>88194190220</v>
+      </c>
+      <c r="L299" t="n">
+        <v>178826.47455</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.1310259579728059</v>
+      </c>
+      <c r="O299" t="n">
+        <v>127.1186440677966</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>8307</v>
+      </c>
+      <c r="R299" t="n">
+        <v>7959</v>
+      </c>
+      <c r="S299" t="n">
+        <v>7198</v>
+      </c>
+      <c r="T299" t="n">
+        <v>9560</v>
+      </c>
+      <c r="U299" t="n">
+        <v>5310</v>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X299" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>058630</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>엠게임</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>가상화폐(비트코인 등)</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>온라인 게임 개발 및 퍼블리싱(열혈강호온라인,홀릭2,영웅)</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J300" t="n">
+        <v>9765754</v>
+      </c>
+      <c r="K300" t="n">
+        <v>88194190220</v>
+      </c>
+      <c r="L300" t="n">
+        <v>178826.47455</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.1310259579728059</v>
+      </c>
+      <c r="O300" t="n">
+        <v>127.1186440677966</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>8307</v>
+      </c>
+      <c r="R300" t="n">
+        <v>7959</v>
+      </c>
+      <c r="S300" t="n">
+        <v>7198</v>
+      </c>
+      <c r="T300" t="n">
+        <v>9560</v>
+      </c>
+      <c r="U300" t="n">
+        <v>5310</v>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X300" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>058630</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>엠게임</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>게임</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>온라인 게임 개발 및 퍼블리싱(열혈강호온라인,홀릭2,영웅)</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J301" t="n">
+        <v>9765754</v>
+      </c>
+      <c r="K301" t="n">
+        <v>88194190220</v>
+      </c>
+      <c r="L301" t="n">
+        <v>178826.47455</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.1310259579728059</v>
+      </c>
+      <c r="O301" t="n">
+        <v>127.1186440677966</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>8307</v>
+      </c>
+      <c r="R301" t="n">
+        <v>7959</v>
+      </c>
+      <c r="S301" t="n">
+        <v>7198</v>
+      </c>
+      <c r="T301" t="n">
+        <v>9560</v>
+      </c>
+      <c r="U301" t="n">
+        <v>5310</v>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X301" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>058630</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>엠게임</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>모바일게임(스마트폰)</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>온라인 게임 개발 및 퍼블리싱(열혈강호온라인,홀릭2,영웅)</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J302" t="n">
+        <v>9765754</v>
+      </c>
+      <c r="K302" t="n">
+        <v>88194190220</v>
+      </c>
+      <c r="L302" t="n">
+        <v>178826.47455</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.1310259579728059</v>
+      </c>
+      <c r="O302" t="n">
+        <v>127.1186440677966</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>8307</v>
+      </c>
+      <c r="R302" t="n">
+        <v>7959</v>
+      </c>
+      <c r="S302" t="n">
+        <v>7198</v>
+      </c>
+      <c r="T302" t="n">
+        <v>9560</v>
+      </c>
+      <c r="U302" t="n">
+        <v>5310</v>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X302" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>169330</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>엠브레인</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>3660</v>
+      </c>
+      <c r="J303" t="n">
+        <v>7532929</v>
+      </c>
+      <c r="K303" t="n">
+        <v>28209216295</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="n">
+        <v>285</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.08444444444444454</v>
+      </c>
+      <c r="O303" t="n">
+        <v>116.8955605237943</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>3255</v>
+      </c>
+      <c r="R303" t="n">
+        <v>3050</v>
+      </c>
+      <c r="S303" t="n">
+        <v>3131</v>
+      </c>
+      <c r="T303" t="n">
+        <v>3965</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2685</v>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W303" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="X303" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>052420</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>오성첨단소재</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>마리화나(대마)</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>보호, 기능성 필름</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J304" t="n">
+        <v>5678999</v>
+      </c>
+      <c r="K304" t="n">
+        <v>10231898474</v>
+      </c>
+      <c r="L304" t="n">
+        <v>120265.69712</v>
+      </c>
+      <c r="M304" t="n">
+        <v>115</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.07120743034055721</v>
+      </c>
+      <c r="O304" t="n">
+        <v>88.40061318344404</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>1697</v>
+      </c>
+      <c r="R304" t="n">
+        <v>1712</v>
+      </c>
+      <c r="S304" t="n">
+        <v>1957</v>
+      </c>
+      <c r="T304" t="n">
+        <v>2890</v>
+      </c>
+      <c r="U304" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="W304" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X304" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>052420</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>오성첨단소재</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>LCD 부품/소재</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>보호, 기능성 필름</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J305" t="n">
+        <v>5678999</v>
+      </c>
+      <c r="K305" t="n">
+        <v>10231898474</v>
+      </c>
+      <c r="L305" t="n">
+        <v>120265.69712</v>
+      </c>
+      <c r="M305" t="n">
+        <v>115</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.07120743034055721</v>
+      </c>
+      <c r="O305" t="n">
+        <v>88.40061318344404</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>1697</v>
+      </c>
+      <c r="R305" t="n">
+        <v>1712</v>
+      </c>
+      <c r="S305" t="n">
+        <v>1957</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2890</v>
+      </c>
+      <c r="U305" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X305" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>17150</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1732381</v>
+      </c>
+      <c r="K306" t="n">
+        <v>29703028350</v>
+      </c>
+      <c r="L306" t="n">
+        <v>119375.5591</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0.1253280839895012</v>
+      </c>
+      <c r="O306" t="n">
+        <v>139.1706564959831</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>16161</v>
+      </c>
+      <c r="R306" t="n">
+        <v>13297</v>
+      </c>
+      <c r="S306" t="n">
+        <v>12323</v>
+      </c>
+      <c r="T306" t="n">
+        <v>18750</v>
+      </c>
+      <c r="U306" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X306" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>모바일솔루션(스마트폰)</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>17150</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1732381</v>
+      </c>
+      <c r="K307" t="n">
+        <v>29703028350</v>
+      </c>
+      <c r="L307" t="n">
+        <v>119375.5591</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.1253280839895012</v>
+      </c>
+      <c r="O307" t="n">
+        <v>139.1706564959831</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>16161</v>
+      </c>
+      <c r="R307" t="n">
+        <v>13297</v>
+      </c>
+      <c r="S307" t="n">
+        <v>12323</v>
+      </c>
+      <c r="T307" t="n">
+        <v>18750</v>
+      </c>
+      <c r="U307" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X307" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>메타버스(Metaverse)</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>17150</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1732381</v>
+      </c>
+      <c r="K308" t="n">
+        <v>29703028350</v>
+      </c>
+      <c r="L308" t="n">
+        <v>119375.5591</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.1253280839895012</v>
+      </c>
+      <c r="O308" t="n">
+        <v>139.1706564959831</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>16161</v>
+      </c>
+      <c r="R308" t="n">
+        <v>13297</v>
+      </c>
+      <c r="S308" t="n">
+        <v>12323</v>
+      </c>
+      <c r="T308" t="n">
+        <v>18750</v>
+      </c>
+      <c r="U308" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X308" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2020 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>가을2</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>17150</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1732381</v>
+      </c>
+      <c r="K309" t="n">
+        <v>29703028350</v>
+      </c>
+      <c r="L309" t="n">
+        <v>119375.5591</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.1253280839895012</v>
+      </c>
+      <c r="O309" t="n">
+        <v>139.1706564959831</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>16161</v>
+      </c>
+      <c r="R309" t="n">
+        <v>13297</v>
+      </c>
+      <c r="S309" t="n">
+        <v>12323</v>
+      </c>
+      <c r="T309" t="n">
+        <v>18750</v>
+      </c>
+      <c r="U309" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X309" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>033230</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>인성정보</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>NI(네트워크통합)</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>넷트워크 관련 장비 및 솔루션</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>2370</v>
+      </c>
+      <c r="J310" t="n">
+        <v>21684232</v>
+      </c>
+      <c r="K310" t="n">
+        <v>55584860120</v>
+      </c>
+      <c r="L310" t="n">
+        <v>92940.4506</v>
+      </c>
+      <c r="M310" t="n">
+        <v>150</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0.06756756756756754</v>
+      </c>
+      <c r="O310" t="n">
+        <v>113.9423076923077</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>2340</v>
+      </c>
+      <c r="R310" t="n">
+        <v>2187</v>
+      </c>
+      <c r="S310" t="n">
+        <v>2080</v>
+      </c>
+      <c r="T310" t="n">
+        <v>2790</v>
+      </c>
+      <c r="U310" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X310" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>033230</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>인성정보</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>넷트워크 관련 장비 및 솔루션</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>2370</v>
+      </c>
+      <c r="J311" t="n">
+        <v>21684232</v>
+      </c>
+      <c r="K311" t="n">
+        <v>55584860120</v>
+      </c>
+      <c r="L311" t="n">
+        <v>92940.4506</v>
+      </c>
+      <c r="M311" t="n">
+        <v>150</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.06756756756756754</v>
+      </c>
+      <c r="O311" t="n">
+        <v>113.9423076923077</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>2340</v>
+      </c>
+      <c r="R311" t="n">
+        <v>2187</v>
+      </c>
+      <c r="S311" t="n">
+        <v>2080</v>
+      </c>
+      <c r="T311" t="n">
+        <v>2790</v>
+      </c>
+      <c r="U311" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X311" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>033230</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>인성정보</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>넷트워크 관련 장비 및 솔루션</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>2370</v>
+      </c>
+      <c r="J312" t="n">
+        <v>21684232</v>
+      </c>
+      <c r="K312" t="n">
+        <v>55584860120</v>
+      </c>
+      <c r="L312" t="n">
+        <v>92940.4506</v>
+      </c>
+      <c r="M312" t="n">
+        <v>150</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.06756756756756754</v>
+      </c>
+      <c r="O312" t="n">
+        <v>113.9423076923077</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>2340</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2187</v>
+      </c>
+      <c r="S312" t="n">
+        <v>2080</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2790</v>
+      </c>
+      <c r="U312" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X312" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>322510</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>제이엘케이</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>인공지능 기반 의료영상 진단 플랫폼, 인공지능 기반 산업용 X-ray 판독시스템</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>4840</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1594783</v>
+      </c>
+      <c r="K313" t="n">
+        <v>8224517475</v>
+      </c>
+      <c r="L313" t="n">
+        <v>74208.61272</v>
+      </c>
+      <c r="M313" t="n">
+        <v>350</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.07795100222717144</v>
+      </c>
+      <c r="O313" t="n">
+        <v>129.898013955985</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>4506</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3891</v>
+      </c>
+      <c r="S313" t="n">
+        <v>3726</v>
+      </c>
+      <c r="T313" t="n">
+        <v>5490</v>
+      </c>
+      <c r="U313" t="n">
+        <v>3100</v>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="X313" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>322510</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>제이엘케이</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>인공지능 기반 의료영상 진단 플랫폼, 인공지능 기반 산업용 X-ray 판독시스템</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>4840</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1594783</v>
+      </c>
+      <c r="K314" t="n">
+        <v>8224517475</v>
+      </c>
+      <c r="L314" t="n">
+        <v>74208.61272</v>
+      </c>
+      <c r="M314" t="n">
+        <v>350</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0.07795100222717144</v>
+      </c>
+      <c r="O314" t="n">
+        <v>129.898013955985</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>4506</v>
+      </c>
+      <c r="R314" t="n">
+        <v>3891</v>
+      </c>
+      <c r="S314" t="n">
+        <v>3726</v>
+      </c>
+      <c r="T314" t="n">
+        <v>5490</v>
+      </c>
+      <c r="U314" t="n">
+        <v>3100</v>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="X314" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>322510</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>제이엘케이</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2019 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>인공지능 기반 의료영상 진단 플랫폼, 인공지능 기반 산업용 X-ray 판독시스템</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>4840</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1594783</v>
+      </c>
+      <c r="K315" t="n">
+        <v>8224517475</v>
+      </c>
+      <c r="L315" t="n">
+        <v>74208.61272</v>
+      </c>
+      <c r="M315" t="n">
+        <v>350</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0.07795100222717144</v>
+      </c>
+      <c r="O315" t="n">
+        <v>129.898013955985</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>4506</v>
+      </c>
+      <c r="R315" t="n">
+        <v>3891</v>
+      </c>
+      <c r="S315" t="n">
+        <v>3726</v>
+      </c>
+      <c r="T315" t="n">
+        <v>5490</v>
+      </c>
+      <c r="U315" t="n">
+        <v>3100</v>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="X315" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>024880</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>케이피에프</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>볼트류</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>7320</v>
+      </c>
+      <c r="J316" t="n">
+        <v>12774812</v>
+      </c>
+      <c r="K316" t="n">
+        <v>93017626200</v>
+      </c>
+      <c r="L316" t="n">
+        <v>145863.68556</v>
+      </c>
+      <c r="M316" t="n">
+        <v>170</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.02377622377622379</v>
+      </c>
+      <c r="O316" t="n">
+        <v>113.1200741770978</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>5834</v>
+      </c>
+      <c r="R316" t="n">
+        <v>5680</v>
+      </c>
+      <c r="S316" t="n">
+        <v>6471</v>
+      </c>
+      <c r="T316" t="n">
+        <v>8200</v>
+      </c>
+      <c r="U316" t="n">
+        <v>4770</v>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X316" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>024880</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>케이피에프</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>풍력에너지</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>볼트류</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>7320</v>
+      </c>
+      <c r="J317" t="n">
+        <v>12774812</v>
+      </c>
+      <c r="K317" t="n">
+        <v>93017626200</v>
+      </c>
+      <c r="L317" t="n">
+        <v>145863.68556</v>
+      </c>
+      <c r="M317" t="n">
+        <v>170</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.02377622377622379</v>
+      </c>
+      <c r="O317" t="n">
+        <v>113.1200741770978</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>5834</v>
+      </c>
+      <c r="R317" t="n">
+        <v>5680</v>
+      </c>
+      <c r="S317" t="n">
+        <v>6471</v>
+      </c>
+      <c r="T317" t="n">
+        <v>8200</v>
+      </c>
+      <c r="U317" t="n">
+        <v>4770</v>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X317" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>096240</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>크레버스</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>메타버스(Metaverse)</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>일반 교습 학원</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>청담어학원</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>19220</v>
+      </c>
+      <c r="J318" t="n">
+        <v>979955</v>
+      </c>
+      <c r="K318" t="n">
+        <v>19183580540</v>
+      </c>
+      <c r="L318" t="n">
+        <v>221871.14408</v>
+      </c>
+      <c r="M318" t="n">
+        <v>1320</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.07374301675977657</v>
+      </c>
+      <c r="O318" t="n">
+        <v>96.32636696236155</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>18370</v>
+      </c>
+      <c r="R318" t="n">
+        <v>18786</v>
+      </c>
+      <c r="S318" t="n">
+        <v>19953</v>
+      </c>
+      <c r="T318" t="n">
+        <v>21250</v>
+      </c>
+      <c r="U318" t="n">
+        <v>16600</v>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X318" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>096240</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>크레버스</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>교육/온라인 교육</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>일반 교습 학원</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>청담어학원</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>19220</v>
+      </c>
+      <c r="J319" t="n">
+        <v>979955</v>
+      </c>
+      <c r="K319" t="n">
+        <v>19183580540</v>
+      </c>
+      <c r="L319" t="n">
+        <v>221871.14408</v>
+      </c>
+      <c r="M319" t="n">
+        <v>1320</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0.07374301675977657</v>
+      </c>
+      <c r="O319" t="n">
+        <v>96.32636696236155</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>18370</v>
+      </c>
+      <c r="R319" t="n">
+        <v>18786</v>
+      </c>
+      <c r="S319" t="n">
+        <v>19953</v>
+      </c>
+      <c r="T319" t="n">
+        <v>21250</v>
+      </c>
+      <c r="U319" t="n">
+        <v>16600</v>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X319" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>4695</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1409563</v>
+      </c>
+      <c r="K320" t="n">
+        <v>7008906060</v>
+      </c>
+      <c r="L320" t="n">
+        <v>152467.472325</v>
+      </c>
+      <c r="M320" t="n">
+        <v>-150</v>
+      </c>
+      <c r="N320" t="n">
+        <v>-0.03095975232198145</v>
+      </c>
+      <c r="O320" t="n">
+        <v>107.6094430437772</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>4752</v>
+      </c>
+      <c r="R320" t="n">
+        <v>4583</v>
+      </c>
+      <c r="S320" t="n">
+        <v>4363</v>
+      </c>
+      <c r="T320" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U320" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X320" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>4695</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1409563</v>
+      </c>
+      <c r="K321" t="n">
+        <v>7008906060</v>
+      </c>
+      <c r="L321" t="n">
+        <v>152467.472325</v>
+      </c>
+      <c r="M321" t="n">
+        <v>-150</v>
+      </c>
+      <c r="N321" t="n">
+        <v>-0.03095975232198145</v>
+      </c>
+      <c r="O321" t="n">
+        <v>107.6094430437772</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>4752</v>
+      </c>
+      <c r="R321" t="n">
+        <v>4583</v>
+      </c>
+      <c r="S321" t="n">
+        <v>4363</v>
+      </c>
+      <c r="T321" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U321" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X321" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>제약업체</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>4695</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1409563</v>
+      </c>
+      <c r="K322" t="n">
+        <v>7008906060</v>
+      </c>
+      <c r="L322" t="n">
+        <v>152467.472325</v>
+      </c>
+      <c r="M322" t="n">
+        <v>-150</v>
+      </c>
+      <c r="N322" t="n">
+        <v>-0.03095975232198145</v>
+      </c>
+      <c r="O322" t="n">
+        <v>107.6094430437772</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>4752</v>
+      </c>
+      <c r="R322" t="n">
+        <v>4583</v>
+      </c>
+      <c r="S322" t="n">
+        <v>4363</v>
+      </c>
+      <c r="T322" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U322" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X322" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>066700</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>테라젠이텍스</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>유전자 치료제/분석</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Loading/Unloading System, PCB Bonding System</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>4695</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1409563</v>
+      </c>
+      <c r="K323" t="n">
+        <v>7008906060</v>
+      </c>
+      <c r="L323" t="n">
+        <v>152467.472325</v>
+      </c>
+      <c r="M323" t="n">
+        <v>-150</v>
+      </c>
+      <c r="N323" t="n">
+        <v>-0.03095975232198145</v>
+      </c>
+      <c r="O323" t="n">
+        <v>107.6094430437772</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>4752</v>
+      </c>
+      <c r="R323" t="n">
+        <v>4583</v>
+      </c>
+      <c r="S323" t="n">
+        <v>4363</v>
+      </c>
+      <c r="T323" t="n">
+        <v>5230</v>
+      </c>
+      <c r="U323" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X323" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>089030</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>테크윙</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>시스템반도체</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>반도체테스트핸들러,C.O.K(Change Over Kit)</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>6600</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1219369</v>
+      </c>
+      <c r="K324" t="n">
+        <v>8036503420</v>
+      </c>
+      <c r="L324" t="n">
+        <v>246534.057</v>
+      </c>
+      <c r="M324" t="n">
+        <v>410</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0.06623586429725359</v>
+      </c>
+      <c r="O324" t="n">
+        <v>106.4516129032258</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>6425</v>
+      </c>
+      <c r="R324" t="n">
+        <v>6173</v>
+      </c>
+      <c r="S324" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T324" t="n">
+        <v>7000</v>
+      </c>
+      <c r="U324" t="n">
+        <v>5250</v>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X324" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>089030</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>테크윙</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>3D 낸드(NAND)</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>반도체테스트핸들러,C.O.K(Change Over Kit)</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>6600</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1219369</v>
+      </c>
+      <c r="K325" t="n">
+        <v>8036503420</v>
+      </c>
+      <c r="L325" t="n">
+        <v>246534.057</v>
+      </c>
+      <c r="M325" t="n">
+        <v>410</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.06623586429725359</v>
+      </c>
+      <c r="O325" t="n">
+        <v>106.4516129032258</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>6425</v>
+      </c>
+      <c r="R325" t="n">
+        <v>6173</v>
+      </c>
+      <c r="S325" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T325" t="n">
+        <v>7000</v>
+      </c>
+      <c r="U325" t="n">
+        <v>5250</v>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="W325" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X325" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>089030</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>테크윙</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>반도체 장비</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>반도체테스트핸들러,C.O.K(Change Over Kit)</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>6600</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1219369</v>
+      </c>
+      <c r="K326" t="n">
+        <v>8036503420</v>
+      </c>
+      <c r="L326" t="n">
+        <v>246534.057</v>
+      </c>
+      <c r="M326" t="n">
+        <v>410</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0.06623586429725359</v>
+      </c>
+      <c r="O326" t="n">
+        <v>106.4516129032258</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>6425</v>
+      </c>
+      <c r="R326" t="n">
+        <v>6173</v>
+      </c>
+      <c r="S326" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T326" t="n">
+        <v>7000</v>
+      </c>
+      <c r="U326" t="n">
+        <v>5250</v>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X326" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>089030</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>테크윙</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>반도체 재료/부품</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>반도체테스트핸들러,C.O.K(Change Over Kit)</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>6600</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1219369</v>
+      </c>
+      <c r="K327" t="n">
+        <v>8036503420</v>
+      </c>
+      <c r="L327" t="n">
+        <v>246534.057</v>
+      </c>
+      <c r="M327" t="n">
+        <v>410</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0.06623586429725359</v>
+      </c>
+      <c r="O327" t="n">
+        <v>106.4516129032258</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>6425</v>
+      </c>
+      <c r="R327" t="n">
+        <v>6173</v>
+      </c>
+      <c r="S327" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T327" t="n">
+        <v>7000</v>
+      </c>
+      <c r="U327" t="n">
+        <v>5250</v>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X327" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>089030</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>테크윙</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>LCD장비</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>반도체테스트핸들러,C.O.K(Change Over Kit)</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>6600</v>
+      </c>
+      <c r="J328" t="n">
+        <v>1219369</v>
+      </c>
+      <c r="K328" t="n">
+        <v>8036503420</v>
+      </c>
+      <c r="L328" t="n">
+        <v>246534.057</v>
+      </c>
+      <c r="M328" t="n">
+        <v>410</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0.06623586429725359</v>
+      </c>
+      <c r="O328" t="n">
+        <v>106.4516129032258</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>6425</v>
+      </c>
+      <c r="R328" t="n">
+        <v>6173</v>
+      </c>
+      <c r="S328" t="n">
+        <v>6200</v>
+      </c>
+      <c r="T328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="U328" t="n">
+        <v>5250</v>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X328" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>티로보틱스</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>중대형 시스템, 중대형 로봇</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>8540</v>
+      </c>
+      <c r="J329" t="n">
+        <v>7430274</v>
+      </c>
+      <c r="K329" t="n">
+        <v>63716694680</v>
+      </c>
+      <c r="L329" t="n">
+        <v>121528.44438</v>
+      </c>
+      <c r="M329" t="n">
+        <v>900</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0.1178010471204189</v>
+      </c>
+      <c r="O329" t="n">
+        <v>126.1633919338159</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>7703</v>
+      </c>
+      <c r="R329" t="n">
+        <v>6877</v>
+      </c>
+      <c r="S329" t="n">
+        <v>6769</v>
+      </c>
+      <c r="T329" t="n">
+        <v>8990</v>
+      </c>
+      <c r="U329" t="n">
+        <v>5530</v>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X329" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>티로보틱스</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>중대형 시스템, 중대형 로봇</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>8540</v>
+      </c>
+      <c r="J330" t="n">
+        <v>7430274</v>
+      </c>
+      <c r="K330" t="n">
+        <v>63716694680</v>
+      </c>
+      <c r="L330" t="n">
+        <v>121528.44438</v>
+      </c>
+      <c r="M330" t="n">
+        <v>900</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0.1178010471204189</v>
+      </c>
+      <c r="O330" t="n">
+        <v>126.1633919338159</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>7703</v>
+      </c>
+      <c r="R330" t="n">
+        <v>6877</v>
+      </c>
+      <c r="S330" t="n">
+        <v>6769</v>
+      </c>
+      <c r="T330" t="n">
+        <v>8990</v>
+      </c>
+      <c r="U330" t="n">
+        <v>5530</v>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X330" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>티로보틱스</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>LCD장비</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>중대형 시스템, 중대형 로봇</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>8540</v>
+      </c>
+      <c r="J331" t="n">
+        <v>7430274</v>
+      </c>
+      <c r="K331" t="n">
+        <v>63716694680</v>
+      </c>
+      <c r="L331" t="n">
+        <v>121528.44438</v>
+      </c>
+      <c r="M331" t="n">
+        <v>900</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0.1178010471204189</v>
+      </c>
+      <c r="O331" t="n">
+        <v>126.1633919338159</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>7703</v>
+      </c>
+      <c r="R331" t="n">
+        <v>6877</v>
+      </c>
+      <c r="S331" t="n">
+        <v>6769</v>
+      </c>
+      <c r="T331" t="n">
+        <v>8990</v>
+      </c>
+      <c r="U331" t="n">
+        <v>5530</v>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X331" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>티로보틱스</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>OLED(유기 발광 다이오드)</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>중대형 시스템, 중대형 로봇</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>8540</v>
+      </c>
+      <c r="J332" t="n">
+        <v>7430274</v>
+      </c>
+      <c r="K332" t="n">
+        <v>63716694680</v>
+      </c>
+      <c r="L332" t="n">
+        <v>121528.44438</v>
+      </c>
+      <c r="M332" t="n">
+        <v>900</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0.1178010471204189</v>
+      </c>
+      <c r="O332" t="n">
+        <v>126.1633919338159</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>7703</v>
+      </c>
+      <c r="R332" t="n">
+        <v>6877</v>
+      </c>
+      <c r="S332" t="n">
+        <v>6769</v>
+      </c>
+      <c r="T332" t="n">
+        <v>8990</v>
+      </c>
+      <c r="U332" t="n">
+        <v>5530</v>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X332" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>038950</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>파인디지털</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>음성인식</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>원격 RF 감시장치, 디지털 광 중계기, 노드분배기</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>5960</v>
+      </c>
+      <c r="J333" t="n">
+        <v>6276325</v>
+      </c>
+      <c r="K333" t="n">
+        <v>39737696440</v>
+      </c>
+      <c r="L333" t="n">
+        <v>60856.1594</v>
+      </c>
+      <c r="M333" t="n">
+        <v>380</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0.06810035842293916</v>
+      </c>
+      <c r="O333" t="n">
+        <v>119.1523390643743</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>5594</v>
+      </c>
+      <c r="R333" t="n">
+        <v>5154</v>
+      </c>
+      <c r="S333" t="n">
+        <v>5002</v>
+      </c>
+      <c r="T333" t="n">
+        <v>6730</v>
+      </c>
+      <c r="U333" t="n">
+        <v>4180</v>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X333" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>038950</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>파인디지털</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>원격 RF 감시장치, 디지털 광 중계기, 노드분배기</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>5960</v>
+      </c>
+      <c r="J334" t="n">
+        <v>6276325</v>
+      </c>
+      <c r="K334" t="n">
+        <v>39737696440</v>
+      </c>
+      <c r="L334" t="n">
+        <v>60856.1594</v>
+      </c>
+      <c r="M334" t="n">
+        <v>380</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0.06810035842293916</v>
+      </c>
+      <c r="O334" t="n">
+        <v>119.1523390643743</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>5594</v>
+      </c>
+      <c r="R334" t="n">
+        <v>5154</v>
+      </c>
+      <c r="S334" t="n">
+        <v>5002</v>
+      </c>
+      <c r="T334" t="n">
+        <v>6730</v>
+      </c>
+      <c r="U334" t="n">
+        <v>4180</v>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X334" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>038950</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>파인디지털</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>차량용블랙박스</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>원격 RF 감시장치, 디지털 광 중계기, 노드분배기</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>5960</v>
+      </c>
+      <c r="J335" t="n">
+        <v>6276325</v>
+      </c>
+      <c r="K335" t="n">
+        <v>39737696440</v>
+      </c>
+      <c r="L335" t="n">
+        <v>60856.1594</v>
+      </c>
+      <c r="M335" t="n">
+        <v>380</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0.06810035842293916</v>
+      </c>
+      <c r="O335" t="n">
+        <v>119.1523390643743</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>5594</v>
+      </c>
+      <c r="R335" t="n">
+        <v>5154</v>
+      </c>
+      <c r="S335" t="n">
+        <v>5002</v>
+      </c>
+      <c r="T335" t="n">
+        <v>6730</v>
+      </c>
+      <c r="U335" t="n">
+        <v>4180</v>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X335" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>028080</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>휴맥스홀딩스</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>지주사</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>지주사업, IT서비스사업</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>4850</v>
+      </c>
+      <c r="J336" t="n">
+        <v>5728114</v>
+      </c>
+      <c r="K336" t="n">
+        <v>28931194780</v>
+      </c>
+      <c r="L336" t="n">
+        <v>61000.9041</v>
+      </c>
+      <c r="M336" t="n">
+        <v>-230</v>
+      </c>
+      <c r="N336" t="n">
+        <v>-0.04527559055118113</v>
+      </c>
+      <c r="O336" t="n">
+        <v>143.6611374407583</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>3668</v>
+      </c>
+      <c r="R336" t="n">
+        <v>3508</v>
+      </c>
+      <c r="S336" t="n">
+        <v>3376</v>
+      </c>
+      <c r="T336" t="n">
+        <v>5680</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2750</v>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X336" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>028080</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>휴맥스홀딩스</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>전기차(충전소/충전기)</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>지주사업, IT서비스사업</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>4850</v>
+      </c>
+      <c r="J337" t="n">
+        <v>5728114</v>
+      </c>
+      <c r="K337" t="n">
+        <v>28931194780</v>
+      </c>
+      <c r="L337" t="n">
+        <v>61000.9041</v>
+      </c>
+      <c r="M337" t="n">
+        <v>-230</v>
+      </c>
+      <c r="N337" t="n">
+        <v>-0.04527559055118113</v>
+      </c>
+      <c r="O337" t="n">
+        <v>143.6611374407583</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>3668</v>
+      </c>
+      <c r="R337" t="n">
+        <v>3508</v>
+      </c>
+      <c r="S337" t="n">
+        <v>3376</v>
+      </c>
+      <c r="T337" t="n">
+        <v>5680</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2750</v>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X337" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>8.32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/거래량폭증종목.xlsx
+++ b/Data/거래량폭증종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y337"/>
+  <dimension ref="A1:Y372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -24408,10 +24408,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>004140</t>
-        </is>
+      <c r="B255" t="n">
+        <v>4140</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -24505,10 +24503,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>004140</t>
-        </is>
+      <c r="B256" t="n">
+        <v>4140</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -24602,10 +24598,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>200880</t>
-        </is>
+      <c r="B257" t="n">
+        <v>200880</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -24699,10 +24693,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>200880</t>
-        </is>
+      <c r="B258" t="n">
+        <v>200880</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -24796,10 +24788,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>088260</t>
-        </is>
+      <c r="B259" t="n">
+        <v>88260</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -24879,10 +24869,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>088350</t>
-        </is>
+      <c r="B260" t="n">
+        <v>88350</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -24962,10 +24950,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
+      <c r="B261" t="n">
+        <v>850</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -25059,10 +25045,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>000540</t>
-        </is>
+      <c r="B262" t="n">
+        <v>540</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -25142,10 +25126,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B263" t="n">
+        <v>14570</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -25239,10 +25221,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B264" t="n">
+        <v>14570</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -25336,10 +25316,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B265" t="n">
+        <v>14570</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -25433,10 +25411,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>014570</t>
-        </is>
+      <c r="B266" t="n">
+        <v>14570</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -25530,10 +25506,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B267" t="n">
+        <v>317120</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -25627,10 +25601,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B268" t="n">
+        <v>317120</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -25724,10 +25696,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B269" t="n">
+        <v>317120</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -25821,10 +25791,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>317120</t>
-        </is>
+      <c r="B270" t="n">
+        <v>317120</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -25918,10 +25886,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>228850</t>
-        </is>
+      <c r="B271" t="n">
+        <v>228850</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -26015,10 +25981,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>072870</t>
-        </is>
+      <c r="B272" t="n">
+        <v>72870</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -26112,10 +26076,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B273" t="n">
+        <v>87260</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -26209,10 +26171,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B274" t="n">
+        <v>87260</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -26306,10 +26266,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B275" t="n">
+        <v>87260</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -26403,10 +26361,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>087260</t>
-        </is>
+      <c r="B276" t="n">
+        <v>87260</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -26500,10 +26456,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>118990</t>
-        </is>
+      <c r="B277" t="n">
+        <v>118990</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -26597,10 +26551,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>118990</t>
-        </is>
+      <c r="B278" t="n">
+        <v>118990</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -26694,10 +26646,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>118990</t>
-        </is>
+      <c r="B279" t="n">
+        <v>118990</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -26791,10 +26741,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>338220</t>
-        </is>
+      <c r="B280" t="n">
+        <v>338220</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -26888,10 +26836,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>338220</t>
-        </is>
+      <c r="B281" t="n">
+        <v>338220</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -26985,10 +26931,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>338220</t>
-        </is>
+      <c r="B282" t="n">
+        <v>338220</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -27082,10 +27026,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B283" t="n">
+        <v>32850</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -27179,10 +27121,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B284" t="n">
+        <v>32850</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -27276,10 +27216,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B285" t="n">
+        <v>32850</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -27373,10 +27311,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B286" t="n">
+        <v>32850</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -27470,10 +27406,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>032850</t>
-        </is>
+      <c r="B287" t="n">
+        <v>32850</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -27567,10 +27501,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>053060</t>
-        </is>
+      <c r="B288" t="n">
+        <v>53060</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -27650,10 +27582,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>032680</t>
-        </is>
+      <c r="B289" t="n">
+        <v>32680</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -27747,10 +27677,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B290" t="n">
+        <v>352700</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -27844,10 +27772,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B291" t="n">
+        <v>352700</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -27941,10 +27867,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B292" t="n">
+        <v>352700</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -28038,10 +27962,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>352700</t>
-        </is>
+      <c r="B293" t="n">
+        <v>352700</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -28135,10 +28057,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>289010</t>
-        </is>
+      <c r="B294" t="n">
+        <v>289010</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -28232,10 +28152,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>289010</t>
-        </is>
+      <c r="B295" t="n">
+        <v>289010</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -28329,10 +28247,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>289010</t>
-        </is>
+      <c r="B296" t="n">
+        <v>289010</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -28426,10 +28342,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>058630</t>
-        </is>
+      <c r="B297" t="n">
+        <v>58630</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -28523,10 +28437,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>058630</t>
-        </is>
+      <c r="B298" t="n">
+        <v>58630</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -28620,10 +28532,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>058630</t>
-        </is>
+      <c r="B299" t="n">
+        <v>58630</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -28717,10 +28627,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>058630</t>
-        </is>
+      <c r="B300" t="n">
+        <v>58630</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -28814,10 +28722,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>058630</t>
-        </is>
+      <c r="B301" t="n">
+        <v>58630</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -28911,10 +28817,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>058630</t>
-        </is>
+      <c r="B302" t="n">
+        <v>58630</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -29008,10 +28912,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>169330</t>
-        </is>
+      <c r="B303" t="n">
+        <v>169330</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -29091,10 +28993,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>052420</t>
-        </is>
+      <c r="B304" t="n">
+        <v>52420</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -29188,10 +29088,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>052420</t>
-        </is>
+      <c r="B305" t="n">
+        <v>52420</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -29285,10 +29183,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>065370</t>
-        </is>
+      <c r="B306" t="n">
+        <v>65370</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -29382,10 +29278,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>065370</t>
-        </is>
+      <c r="B307" t="n">
+        <v>65370</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -29479,10 +29373,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>065370</t>
-        </is>
+      <c r="B308" t="n">
+        <v>65370</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -29576,10 +29468,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>065370</t>
-        </is>
+      <c r="B309" t="n">
+        <v>65370</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -29673,10 +29563,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>033230</t>
-        </is>
+      <c r="B310" t="n">
+        <v>33230</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -29770,10 +29658,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>033230</t>
-        </is>
+      <c r="B311" t="n">
+        <v>33230</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -29867,10 +29753,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>033230</t>
-        </is>
+      <c r="B312" t="n">
+        <v>33230</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -29964,10 +29848,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>322510</t>
-        </is>
+      <c r="B313" t="n">
+        <v>322510</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -30061,10 +29943,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>322510</t>
-        </is>
+      <c r="B314" t="n">
+        <v>322510</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -30158,10 +30038,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>322510</t>
-        </is>
+      <c r="B315" t="n">
+        <v>322510</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -30255,10 +30133,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>024880</t>
-        </is>
+      <c r="B316" t="n">
+        <v>24880</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -30352,10 +30228,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>024880</t>
-        </is>
+      <c r="B317" t="n">
+        <v>24880</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -30449,10 +30323,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>096240</t>
-        </is>
+      <c r="B318" t="n">
+        <v>96240</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -30546,10 +30418,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>096240</t>
-        </is>
+      <c r="B319" t="n">
+        <v>96240</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -30643,10 +30513,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B320" t="n">
+        <v>66700</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -30740,10 +30608,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B321" t="n">
+        <v>66700</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -30837,10 +30703,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B322" t="n">
+        <v>66700</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -30934,10 +30798,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>066700</t>
-        </is>
+      <c r="B323" t="n">
+        <v>66700</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -31031,10 +30893,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>089030</t>
-        </is>
+      <c r="B324" t="n">
+        <v>89030</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -31128,10 +30988,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>089030</t>
-        </is>
+      <c r="B325" t="n">
+        <v>89030</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -31225,10 +31083,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>089030</t>
-        </is>
+      <c r="B326" t="n">
+        <v>89030</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -31322,10 +31178,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>089030</t>
-        </is>
+      <c r="B327" t="n">
+        <v>89030</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -31419,10 +31273,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>089030</t>
-        </is>
+      <c r="B328" t="n">
+        <v>89030</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -31516,10 +31368,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>117730</t>
-        </is>
+      <c r="B329" t="n">
+        <v>117730</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -31613,10 +31463,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>117730</t>
-        </is>
+      <c r="B330" t="n">
+        <v>117730</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -31710,10 +31558,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>117730</t>
-        </is>
+      <c r="B331" t="n">
+        <v>117730</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -31807,10 +31653,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>117730</t>
-        </is>
+      <c r="B332" t="n">
+        <v>117730</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -31904,10 +31748,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>038950</t>
-        </is>
+      <c r="B333" t="n">
+        <v>38950</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -32001,10 +31843,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>038950</t>
-        </is>
+      <c r="B334" t="n">
+        <v>38950</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -32098,10 +31938,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>038950</t>
-        </is>
+      <c r="B335" t="n">
+        <v>38950</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -32195,10 +32033,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>028080</t>
-        </is>
+      <c r="B336" t="n">
+        <v>28080</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -32292,10 +32128,8 @@
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>028080</t>
-        </is>
+      <c r="B337" t="n">
+        <v>28080</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -32381,6 +32215,3401 @@
       </c>
       <c r="Y337" t="n">
         <v>8.32</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>123700</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>자동차및산업용Bellows</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>4690</v>
+      </c>
+      <c r="J338" t="n">
+        <v>389511</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1842593280</v>
+      </c>
+      <c r="L338" t="n">
+        <v>66320.8165</v>
+      </c>
+      <c r="M338" t="n">
+        <v>440</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0.1035294117647059</v>
+      </c>
+      <c r="O338" t="n">
+        <v>115.8596837944664</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>4474</v>
+      </c>
+      <c r="R338" t="n">
+        <v>4433</v>
+      </c>
+      <c r="S338" t="n">
+        <v>4048</v>
+      </c>
+      <c r="T338" t="n">
+        <v>5150</v>
+      </c>
+      <c r="U338" t="n">
+        <v>3170</v>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X338" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>004540</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>깨끗한나라</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>출산장려정책</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>펄프, 종이 및 판지 제조업</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>펄프,판지원지,화장지 제조,수출입</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1012912</v>
+      </c>
+      <c r="K339" t="n">
+        <v>3147545590</v>
+      </c>
+      <c r="L339" t="n">
+        <v>107439.399305</v>
+      </c>
+      <c r="M339" t="n">
+        <v>70</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0.02426343154246102</v>
+      </c>
+      <c r="O339" t="n">
+        <v>98.63150867823765</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>2923</v>
+      </c>
+      <c r="R339" t="n">
+        <v>2939</v>
+      </c>
+      <c r="S339" t="n">
+        <v>2996</v>
+      </c>
+      <c r="T339" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X339" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>004540</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>깨끗한나라</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>日제품 불매운동(수혜)</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>펄프, 종이 및 판지 제조업</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>펄프,판지원지,화장지 제조,수출입</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1012912</v>
+      </c>
+      <c r="K340" t="n">
+        <v>3147545590</v>
+      </c>
+      <c r="L340" t="n">
+        <v>107439.399305</v>
+      </c>
+      <c r="M340" t="n">
+        <v>70</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0.02426343154246102</v>
+      </c>
+      <c r="O340" t="n">
+        <v>98.63150867823765</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>2923</v>
+      </c>
+      <c r="R340" t="n">
+        <v>2939</v>
+      </c>
+      <c r="S340" t="n">
+        <v>2996</v>
+      </c>
+      <c r="T340" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X340" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>004540</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>깨끗한나라</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>마스크</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>펄프, 종이 및 판지 제조업</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>펄프,판지원지,화장지 제조,수출입</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1012912</v>
+      </c>
+      <c r="K341" t="n">
+        <v>3147545590</v>
+      </c>
+      <c r="L341" t="n">
+        <v>107439.399305</v>
+      </c>
+      <c r="M341" t="n">
+        <v>70</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0.02426343154246102</v>
+      </c>
+      <c r="O341" t="n">
+        <v>98.63150867823765</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>2923</v>
+      </c>
+      <c r="R341" t="n">
+        <v>2939</v>
+      </c>
+      <c r="S341" t="n">
+        <v>2996</v>
+      </c>
+      <c r="T341" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X341" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>004540</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>깨끗한나라</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>제지</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>펄프, 종이 및 판지 제조업</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>펄프,판지원지,화장지 제조,수출입</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1012912</v>
+      </c>
+      <c r="K342" t="n">
+        <v>3147545590</v>
+      </c>
+      <c r="L342" t="n">
+        <v>107439.399305</v>
+      </c>
+      <c r="M342" t="n">
+        <v>70</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0.02426343154246102</v>
+      </c>
+      <c r="O342" t="n">
+        <v>98.63150867823765</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>2923</v>
+      </c>
+      <c r="R342" t="n">
+        <v>2939</v>
+      </c>
+      <c r="S342" t="n">
+        <v>2996</v>
+      </c>
+      <c r="T342" t="n">
+        <v>3335</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X342" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>모나리자</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>출산장려정책</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>기타 종이 및 판지 제품 제조업</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>화장지,미용티슈 제조,도매</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>3005</v>
+      </c>
+      <c r="J343" t="n">
+        <v>569941</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1766769480</v>
+      </c>
+      <c r="L343" t="n">
+        <v>111542.32775</v>
+      </c>
+      <c r="M343" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N343" t="n">
+        <v>-0.01475409836065578</v>
+      </c>
+      <c r="O343" t="n">
+        <v>98.97891963109355</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>3012</v>
+      </c>
+      <c r="R343" t="n">
+        <v>2991</v>
+      </c>
+      <c r="S343" t="n">
+        <v>3036</v>
+      </c>
+      <c r="T343" t="n">
+        <v>3295</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X343" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>모나리자</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>日제품 불매운동(수혜)</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>기타 종이 및 판지 제품 제조업</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>화장지,미용티슈 제조,도매</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>3005</v>
+      </c>
+      <c r="J344" t="n">
+        <v>569941</v>
+      </c>
+      <c r="K344" t="n">
+        <v>1766769480</v>
+      </c>
+      <c r="L344" t="n">
+        <v>111542.32775</v>
+      </c>
+      <c r="M344" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N344" t="n">
+        <v>-0.01475409836065578</v>
+      </c>
+      <c r="O344" t="n">
+        <v>98.97891963109355</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>3012</v>
+      </c>
+      <c r="R344" t="n">
+        <v>2991</v>
+      </c>
+      <c r="S344" t="n">
+        <v>3036</v>
+      </c>
+      <c r="T344" t="n">
+        <v>3295</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X344" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>모나리자</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>마스크</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>기타 종이 및 판지 제품 제조업</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>화장지,미용티슈 제조,도매</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>3005</v>
+      </c>
+      <c r="J345" t="n">
+        <v>569941</v>
+      </c>
+      <c r="K345" t="n">
+        <v>1766769480</v>
+      </c>
+      <c r="L345" t="n">
+        <v>111542.32775</v>
+      </c>
+      <c r="M345" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N345" t="n">
+        <v>-0.01475409836065578</v>
+      </c>
+      <c r="O345" t="n">
+        <v>98.97891963109355</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>3012</v>
+      </c>
+      <c r="R345" t="n">
+        <v>2991</v>
+      </c>
+      <c r="S345" t="n">
+        <v>3036</v>
+      </c>
+      <c r="T345" t="n">
+        <v>3295</v>
+      </c>
+      <c r="U345" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X345" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>모나리자</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>치매</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>기타 종이 및 판지 제품 제조업</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>화장지,미용티슈 제조,도매</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>3005</v>
+      </c>
+      <c r="J346" t="n">
+        <v>569941</v>
+      </c>
+      <c r="K346" t="n">
+        <v>1766769480</v>
+      </c>
+      <c r="L346" t="n">
+        <v>111542.32775</v>
+      </c>
+      <c r="M346" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N346" t="n">
+        <v>-0.01475409836065578</v>
+      </c>
+      <c r="O346" t="n">
+        <v>98.97891963109355</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>3012</v>
+      </c>
+      <c r="R346" t="n">
+        <v>2991</v>
+      </c>
+      <c r="S346" t="n">
+        <v>3036</v>
+      </c>
+      <c r="T346" t="n">
+        <v>3295</v>
+      </c>
+      <c r="U346" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X346" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>모나리자</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>황사/미세먼지</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>기타 종이 및 판지 제품 제조업</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>화장지,미용티슈 제조,도매</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>3005</v>
+      </c>
+      <c r="J347" t="n">
+        <v>569941</v>
+      </c>
+      <c r="K347" t="n">
+        <v>1766769480</v>
+      </c>
+      <c r="L347" t="n">
+        <v>111542.32775</v>
+      </c>
+      <c r="M347" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N347" t="n">
+        <v>-0.01475409836065578</v>
+      </c>
+      <c r="O347" t="n">
+        <v>98.97891963109355</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>3012</v>
+      </c>
+      <c r="R347" t="n">
+        <v>2991</v>
+      </c>
+      <c r="S347" t="n">
+        <v>3036</v>
+      </c>
+      <c r="T347" t="n">
+        <v>3295</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X347" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>017810</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>풀무원</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>지주사</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>기타 식품 제조업</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>두부류,생면류,나물류,냉동류,조미류,김치류,묵류,녹즙,과채음료,건강보조식품 판매,제조,생식품 수출</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>11360</v>
+      </c>
+      <c r="J348" t="n">
+        <v>954374</v>
+      </c>
+      <c r="K348" t="n">
+        <v>11699846320</v>
+      </c>
+      <c r="L348" t="n">
+        <v>405221.36146</v>
+      </c>
+      <c r="M348" t="n">
+        <v>730</v>
+      </c>
+      <c r="N348" t="n">
+        <v>0.06867356538099711</v>
+      </c>
+      <c r="O348" t="n">
+        <v>101.4829372878328</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>11001</v>
+      </c>
+      <c r="R348" t="n">
+        <v>11146</v>
+      </c>
+      <c r="S348" t="n">
+        <v>11194</v>
+      </c>
+      <c r="T348" t="n">
+        <v>13600</v>
+      </c>
+      <c r="U348" t="n">
+        <v>10050</v>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="X348" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>017810</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>풀무원</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>음식료업종</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>기타 식품 제조업</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>두부류,생면류,나물류,냉동류,조미류,김치류,묵류,녹즙,과채음료,건강보조식품 판매,제조,생식품 수출</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>11360</v>
+      </c>
+      <c r="J349" t="n">
+        <v>954374</v>
+      </c>
+      <c r="K349" t="n">
+        <v>11699846320</v>
+      </c>
+      <c r="L349" t="n">
+        <v>405221.36146</v>
+      </c>
+      <c r="M349" t="n">
+        <v>730</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0.06867356538099711</v>
+      </c>
+      <c r="O349" t="n">
+        <v>101.4829372878328</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>11001</v>
+      </c>
+      <c r="R349" t="n">
+        <v>11146</v>
+      </c>
+      <c r="S349" t="n">
+        <v>11194</v>
+      </c>
+      <c r="T349" t="n">
+        <v>13600</v>
+      </c>
+      <c r="U349" t="n">
+        <v>10050</v>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="X349" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>212560</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>네오오토</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>피니언 기어, 디프 어셈블리, 대형기어</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>7600</v>
+      </c>
+      <c r="J350" t="n">
+        <v>4942291</v>
+      </c>
+      <c r="K350" t="n">
+        <v>38344521330</v>
+      </c>
+      <c r="L350" t="n">
+        <v>52683.50247</v>
+      </c>
+      <c r="M350" t="n">
+        <v>910</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0.1360239162929746</v>
+      </c>
+      <c r="O350" t="n">
+        <v>110.803324099723</v>
+      </c>
+      <c r="P350" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>6746</v>
+      </c>
+      <c r="R350" t="n">
+        <v>6727</v>
+      </c>
+      <c r="S350" t="n">
+        <v>6859</v>
+      </c>
+      <c r="T350" t="n">
+        <v>8290</v>
+      </c>
+      <c r="U350" t="n">
+        <v>5870</v>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="X350" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>315640</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>딥노이드</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>12610</v>
+      </c>
+      <c r="J351" t="n">
+        <v>6282224</v>
+      </c>
+      <c r="K351" t="n">
+        <v>79190646270</v>
+      </c>
+      <c r="L351" t="n">
+        <v>94755.25278</v>
+      </c>
+      <c r="M351" t="n">
+        <v>2440</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0.2399213372664699</v>
+      </c>
+      <c r="O351" t="n">
+        <v>187.6208897485493</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>9072</v>
+      </c>
+      <c r="R351" t="n">
+        <v>7238</v>
+      </c>
+      <c r="S351" t="n">
+        <v>6721</v>
+      </c>
+      <c r="T351" t="n">
+        <v>13220</v>
+      </c>
+      <c r="U351" t="n">
+        <v>5240</v>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X351" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>315640</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>딥노이드</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2021 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>12610</v>
+      </c>
+      <c r="J352" t="n">
+        <v>6282224</v>
+      </c>
+      <c r="K352" t="n">
+        <v>79190646270</v>
+      </c>
+      <c r="L352" t="n">
+        <v>94755.25278</v>
+      </c>
+      <c r="M352" t="n">
+        <v>2440</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0.2399213372664699</v>
+      </c>
+      <c r="O352" t="n">
+        <v>187.6208897485493</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>9072</v>
+      </c>
+      <c r="R352" t="n">
+        <v>7238</v>
+      </c>
+      <c r="S352" t="n">
+        <v>6721</v>
+      </c>
+      <c r="T352" t="n">
+        <v>13220</v>
+      </c>
+      <c r="U352" t="n">
+        <v>5240</v>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X352" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>315640</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>딥노이드</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>12610</v>
+      </c>
+      <c r="J353" t="n">
+        <v>6282224</v>
+      </c>
+      <c r="K353" t="n">
+        <v>79190646270</v>
+      </c>
+      <c r="L353" t="n">
+        <v>94755.25278</v>
+      </c>
+      <c r="M353" t="n">
+        <v>2440</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0.2399213372664699</v>
+      </c>
+      <c r="O353" t="n">
+        <v>187.6208897485493</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>9072</v>
+      </c>
+      <c r="R353" t="n">
+        <v>7238</v>
+      </c>
+      <c r="S353" t="n">
+        <v>6721</v>
+      </c>
+      <c r="T353" t="n">
+        <v>13220</v>
+      </c>
+      <c r="U353" t="n">
+        <v>5240</v>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X353" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>347700</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>라이프시맨틱스</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>U-Healthcare(원격진료)</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>소프트웨어(개인건강기록 플랫폼,진료기록번역플랫폼,질병분류기호 검색) 개발,공급/의료기기 도매/자문,컨설팅/전자상거래,통신판매</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>6920</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1771522</v>
+      </c>
+      <c r="K354" t="n">
+        <v>11614800340</v>
+      </c>
+      <c r="L354" t="n">
+        <v>56765.1225</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1370</v>
+      </c>
+      <c r="N354" t="n">
+        <v>0.2468468468468468</v>
+      </c>
+      <c r="O354" t="n">
+        <v>144.3772167744628</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>5819</v>
+      </c>
+      <c r="R354" t="n">
+        <v>5014</v>
+      </c>
+      <c r="S354" t="n">
+        <v>4793</v>
+      </c>
+      <c r="T354" t="n">
+        <v>7100</v>
+      </c>
+      <c r="U354" t="n">
+        <v>3870</v>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X354" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>347700</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>라이프시맨틱스</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2021 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>소프트웨어(개인건강기록 플랫폼,진료기록번역플랫폼,질병분류기호 검색) 개발,공급/의료기기 도매/자문,컨설팅/전자상거래,통신판매</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>6920</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1771522</v>
+      </c>
+      <c r="K355" t="n">
+        <v>11614800340</v>
+      </c>
+      <c r="L355" t="n">
+        <v>56765.1225</v>
+      </c>
+      <c r="M355" t="n">
+        <v>1370</v>
+      </c>
+      <c r="N355" t="n">
+        <v>0.2468468468468468</v>
+      </c>
+      <c r="O355" t="n">
+        <v>144.3772167744628</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>5819</v>
+      </c>
+      <c r="R355" t="n">
+        <v>5014</v>
+      </c>
+      <c r="S355" t="n">
+        <v>4793</v>
+      </c>
+      <c r="T355" t="n">
+        <v>7100</v>
+      </c>
+      <c r="U355" t="n">
+        <v>3870</v>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X355" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>014100</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>메디앙스</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>출산장려정책</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J356" t="n">
+        <v>762866</v>
+      </c>
+      <c r="K356" t="n">
+        <v>2650465225</v>
+      </c>
+      <c r="L356" t="n">
+        <v>39058</v>
+      </c>
+      <c r="M356" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N356" t="n">
+        <v>-0.009063444108761365</v>
+      </c>
+      <c r="O356" t="n">
+        <v>102.8213166144201</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>3187</v>
+      </c>
+      <c r="R356" t="n">
+        <v>3165</v>
+      </c>
+      <c r="S356" t="n">
+        <v>3190</v>
+      </c>
+      <c r="T356" t="n">
+        <v>3750</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X356" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>014100</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>메디앙스</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>엔젤산업</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J357" t="n">
+        <v>762866</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2650465225</v>
+      </c>
+      <c r="L357" t="n">
+        <v>39058</v>
+      </c>
+      <c r="M357" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N357" t="n">
+        <v>-0.009063444108761365</v>
+      </c>
+      <c r="O357" t="n">
+        <v>102.8213166144201</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>3187</v>
+      </c>
+      <c r="R357" t="n">
+        <v>3165</v>
+      </c>
+      <c r="S357" t="n">
+        <v>3190</v>
+      </c>
+      <c r="T357" t="n">
+        <v>3750</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V357" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X357" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>014100</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>메디앙스</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>日제품 불매운동(수혜)</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J358" t="n">
+        <v>762866</v>
+      </c>
+      <c r="K358" t="n">
+        <v>2650465225</v>
+      </c>
+      <c r="L358" t="n">
+        <v>39058</v>
+      </c>
+      <c r="M358" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N358" t="n">
+        <v>-0.009063444108761365</v>
+      </c>
+      <c r="O358" t="n">
+        <v>102.8213166144201</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>3187</v>
+      </c>
+      <c r="R358" t="n">
+        <v>3165</v>
+      </c>
+      <c r="S358" t="n">
+        <v>3190</v>
+      </c>
+      <c r="T358" t="n">
+        <v>3750</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X358" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>014100</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>메디앙스</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>마스크</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J359" t="n">
+        <v>762866</v>
+      </c>
+      <c r="K359" t="n">
+        <v>2650465225</v>
+      </c>
+      <c r="L359" t="n">
+        <v>39058</v>
+      </c>
+      <c r="M359" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N359" t="n">
+        <v>-0.009063444108761365</v>
+      </c>
+      <c r="O359" t="n">
+        <v>102.8213166144201</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>3187</v>
+      </c>
+      <c r="R359" t="n">
+        <v>3165</v>
+      </c>
+      <c r="S359" t="n">
+        <v>3190</v>
+      </c>
+      <c r="T359" t="n">
+        <v>3750</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2690</v>
+      </c>
+      <c r="V359" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X359" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>250060</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>모비스</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>기업인수합병</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>2220</v>
+      </c>
+      <c r="J360" t="n">
+        <v>6528544</v>
+      </c>
+      <c r="K360" t="n">
+        <v>13966836015</v>
+      </c>
+      <c r="L360" t="n">
+        <v>57747.50863</v>
+      </c>
+      <c r="M360" t="n">
+        <v>425</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0.2367688022284122</v>
+      </c>
+      <c r="O360" t="n">
+        <v>122.9916897506925</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>1898</v>
+      </c>
+      <c r="R360" t="n">
+        <v>1792</v>
+      </c>
+      <c r="S360" t="n">
+        <v>1805</v>
+      </c>
+      <c r="T360" t="n">
+        <v>2290</v>
+      </c>
+      <c r="U360" t="n">
+        <v>1545</v>
+      </c>
+      <c r="V360" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X360" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>250060</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>모비스</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>4차산업 수혜주</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>기업인수합병</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>2220</v>
+      </c>
+      <c r="J361" t="n">
+        <v>6528544</v>
+      </c>
+      <c r="K361" t="n">
+        <v>13966836015</v>
+      </c>
+      <c r="L361" t="n">
+        <v>57747.50863</v>
+      </c>
+      <c r="M361" t="n">
+        <v>425</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0.2367688022284122</v>
+      </c>
+      <c r="O361" t="n">
+        <v>122.9916897506925</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>1898</v>
+      </c>
+      <c r="R361" t="n">
+        <v>1792</v>
+      </c>
+      <c r="S361" t="n">
+        <v>1805</v>
+      </c>
+      <c r="T361" t="n">
+        <v>2290</v>
+      </c>
+      <c r="U361" t="n">
+        <v>1545</v>
+      </c>
+      <c r="V361" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W361" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X361" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>250060</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>모비스</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>핵융합에너지</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>기업인수합병</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>2220</v>
+      </c>
+      <c r="J362" t="n">
+        <v>6528544</v>
+      </c>
+      <c r="K362" t="n">
+        <v>13966836015</v>
+      </c>
+      <c r="L362" t="n">
+        <v>57747.50863</v>
+      </c>
+      <c r="M362" t="n">
+        <v>425</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0.2367688022284122</v>
+      </c>
+      <c r="O362" t="n">
+        <v>122.9916897506925</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>1898</v>
+      </c>
+      <c r="R362" t="n">
+        <v>1792</v>
+      </c>
+      <c r="S362" t="n">
+        <v>1805</v>
+      </c>
+      <c r="T362" t="n">
+        <v>2290</v>
+      </c>
+      <c r="U362" t="n">
+        <v>1545</v>
+      </c>
+      <c r="V362" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X362" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>050760</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>에스폴리텍</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>태양광에너지</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>유무선 통신용 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>2645</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1913801</v>
+      </c>
+      <c r="K363" t="n">
+        <v>5411335935</v>
+      </c>
+      <c r="L363" t="n">
+        <v>43940.28382</v>
+      </c>
+      <c r="M363" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N363" t="n">
+        <v>-0.01672862453531598</v>
+      </c>
+      <c r="O363" t="n">
+        <v>99.69845457972107</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>2662</v>
+      </c>
+      <c r="R363" t="n">
+        <v>2561</v>
+      </c>
+      <c r="S363" t="n">
+        <v>2653</v>
+      </c>
+      <c r="T363" t="n">
+        <v>3100</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2115</v>
+      </c>
+      <c r="V363" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X363" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>050760</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>에스폴리텍</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>LCD 부품/소재</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>유무선 통신용 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>2645</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1913801</v>
+      </c>
+      <c r="K364" t="n">
+        <v>5411335935</v>
+      </c>
+      <c r="L364" t="n">
+        <v>43940.28382</v>
+      </c>
+      <c r="M364" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N364" t="n">
+        <v>-0.01672862453531598</v>
+      </c>
+      <c r="O364" t="n">
+        <v>99.69845457972107</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>2662</v>
+      </c>
+      <c r="R364" t="n">
+        <v>2561</v>
+      </c>
+      <c r="S364" t="n">
+        <v>2653</v>
+      </c>
+      <c r="T364" t="n">
+        <v>3100</v>
+      </c>
+      <c r="U364" t="n">
+        <v>2115</v>
+      </c>
+      <c r="V364" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X364" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>050760</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>에스폴리텍</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>유무선 통신용 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>2645</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1913801</v>
+      </c>
+      <c r="K365" t="n">
+        <v>5411335935</v>
+      </c>
+      <c r="L365" t="n">
+        <v>43940.28382</v>
+      </c>
+      <c r="M365" t="n">
+        <v>-45</v>
+      </c>
+      <c r="N365" t="n">
+        <v>-0.01672862453531598</v>
+      </c>
+      <c r="O365" t="n">
+        <v>99.69845457972107</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>2662</v>
+      </c>
+      <c r="R365" t="n">
+        <v>2561</v>
+      </c>
+      <c r="S365" t="n">
+        <v>2653</v>
+      </c>
+      <c r="T365" t="n">
+        <v>3100</v>
+      </c>
+      <c r="U365" t="n">
+        <v>2115</v>
+      </c>
+      <c r="V365" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X365" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>제로투세븐</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>출산장려정책</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>유아동복 및 용품</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>8300</v>
+      </c>
+      <c r="J366" t="n">
+        <v>2297139</v>
+      </c>
+      <c r="K366" t="n">
+        <v>20321580280</v>
+      </c>
+      <c r="L366" t="n">
+        <v>164467.94156</v>
+      </c>
+      <c r="M366" t="n">
+        <v>90</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0.01096224116930578</v>
+      </c>
+      <c r="O366" t="n">
+        <v>117.864243112752</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>8025</v>
+      </c>
+      <c r="R366" t="n">
+        <v>7501</v>
+      </c>
+      <c r="S366" t="n">
+        <v>7042</v>
+      </c>
+      <c r="T366" t="n">
+        <v>9500</v>
+      </c>
+      <c r="U366" t="n">
+        <v>5500</v>
+      </c>
+      <c r="V366" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X366" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>제로투세븐</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>엔젤산업</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>유아동복 및 용품</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>8300</v>
+      </c>
+      <c r="J367" t="n">
+        <v>2297139</v>
+      </c>
+      <c r="K367" t="n">
+        <v>20321580280</v>
+      </c>
+      <c r="L367" t="n">
+        <v>164467.94156</v>
+      </c>
+      <c r="M367" t="n">
+        <v>90</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0.01096224116930578</v>
+      </c>
+      <c r="O367" t="n">
+        <v>117.864243112752</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>8025</v>
+      </c>
+      <c r="R367" t="n">
+        <v>7501</v>
+      </c>
+      <c r="S367" t="n">
+        <v>7042</v>
+      </c>
+      <c r="T367" t="n">
+        <v>9500</v>
+      </c>
+      <c r="U367" t="n">
+        <v>5500</v>
+      </c>
+      <c r="V367" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X367" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>제로투세븐</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>유아동복 및 용품</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>8300</v>
+      </c>
+      <c r="J368" t="n">
+        <v>2297139</v>
+      </c>
+      <c r="K368" t="n">
+        <v>20321580280</v>
+      </c>
+      <c r="L368" t="n">
+        <v>164467.94156</v>
+      </c>
+      <c r="M368" t="n">
+        <v>90</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0.01096224116930578</v>
+      </c>
+      <c r="O368" t="n">
+        <v>117.864243112752</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>8025</v>
+      </c>
+      <c r="R368" t="n">
+        <v>7501</v>
+      </c>
+      <c r="S368" t="n">
+        <v>7042</v>
+      </c>
+      <c r="T368" t="n">
+        <v>9500</v>
+      </c>
+      <c r="U368" t="n">
+        <v>5500</v>
+      </c>
+      <c r="V368" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X368" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>6690</v>
+      </c>
+      <c r="J369" t="n">
+        <v>2234088</v>
+      </c>
+      <c r="K369" t="n">
+        <v>14876799580</v>
+      </c>
+      <c r="L369" t="n">
+        <v>95580.58379999999</v>
+      </c>
+      <c r="M369" t="n">
+        <v>890</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0.153448275862069</v>
+      </c>
+      <c r="O369" t="n">
+        <v>122.9101598383244</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>5349</v>
+      </c>
+      <c r="R369" t="n">
+        <v>5060</v>
+      </c>
+      <c r="S369" t="n">
+        <v>5443</v>
+      </c>
+      <c r="T369" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U369" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V369" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W369" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X369" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2020 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>6690</v>
+      </c>
+      <c r="J370" t="n">
+        <v>2234088</v>
+      </c>
+      <c r="K370" t="n">
+        <v>14876799580</v>
+      </c>
+      <c r="L370" t="n">
+        <v>95580.58379999999</v>
+      </c>
+      <c r="M370" t="n">
+        <v>890</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0.153448275862069</v>
+      </c>
+      <c r="O370" t="n">
+        <v>122.9101598383244</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>5349</v>
+      </c>
+      <c r="R370" t="n">
+        <v>5060</v>
+      </c>
+      <c r="S370" t="n">
+        <v>5443</v>
+      </c>
+      <c r="T370" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U370" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V370" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W370" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X370" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>코로나19(진단/치료제/백신 개발 등)</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>6690</v>
+      </c>
+      <c r="J371" t="n">
+        <v>2234088</v>
+      </c>
+      <c r="K371" t="n">
+        <v>14876799580</v>
+      </c>
+      <c r="L371" t="n">
+        <v>95580.58379999999</v>
+      </c>
+      <c r="M371" t="n">
+        <v>890</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0.153448275862069</v>
+      </c>
+      <c r="O371" t="n">
+        <v>122.9101598383244</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>5349</v>
+      </c>
+      <c r="R371" t="n">
+        <v>5060</v>
+      </c>
+      <c r="S371" t="n">
+        <v>5443</v>
+      </c>
+      <c r="T371" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U371" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X371" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>코로나19(진단키트)</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>6690</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2234088</v>
+      </c>
+      <c r="K372" t="n">
+        <v>14876799580</v>
+      </c>
+      <c r="L372" t="n">
+        <v>95580.58379999999</v>
+      </c>
+      <c r="M372" t="n">
+        <v>890</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0.153448275862069</v>
+      </c>
+      <c r="O372" t="n">
+        <v>122.9101598383244</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>5349</v>
+      </c>
+      <c r="R372" t="n">
+        <v>5060</v>
+      </c>
+      <c r="S372" t="n">
+        <v>5443</v>
+      </c>
+      <c r="T372" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U372" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X372" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>6.21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/거래량폭증종목.xlsx
+++ b/Data/거래량폭증종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y372"/>
+  <dimension ref="A1:Y420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -32255,41 +32255,41 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>여름1</t>
+          <t>봄3</t>
         </is>
       </c>
       <c r="I338" t="n">
-        <v>4690</v>
+        <v>4500</v>
       </c>
       <c r="J338" t="n">
-        <v>389511</v>
+        <v>731433</v>
       </c>
       <c r="K338" t="n">
-        <v>1842593280</v>
+        <v>3413827045</v>
       </c>
       <c r="L338" t="n">
-        <v>66320.8165</v>
+        <v>68661.5512</v>
       </c>
       <c r="M338" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N338" t="n">
-        <v>0.1035294117647059</v>
+        <v>0.05882352941176472</v>
       </c>
       <c r="O338" t="n">
-        <v>115.8596837944664</v>
+        <v>111.1934766493699</v>
       </c>
       <c r="P338" t="n">
         <v>0</v>
       </c>
       <c r="Q338" t="n">
-        <v>4474</v>
+        <v>4464</v>
       </c>
       <c r="R338" t="n">
-        <v>4433</v>
+        <v>4430</v>
       </c>
       <c r="S338" t="n">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="T338" t="n">
         <v>5150</v>
@@ -32308,10 +32308,10 @@
         </is>
       </c>
       <c r="X338" t="n">
-        <v>10.73</v>
+        <v>13.7</v>
       </c>
       <c r="Y338" t="n">
-        <v>11.02</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="339">
@@ -32332,7 +32332,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>출산장려정책</t>
+          <t>日제품 불매운동(수혜)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -32356,37 +32356,37 @@
         </is>
       </c>
       <c r="I339" t="n">
-        <v>2955</v>
+        <v>2905</v>
       </c>
       <c r="J339" t="n">
-        <v>1012912</v>
+        <v>1149992</v>
       </c>
       <c r="K339" t="n">
-        <v>3147545590</v>
+        <v>3548185835</v>
       </c>
       <c r="L339" t="n">
-        <v>107439.399305</v>
+        <v>108742.82356</v>
       </c>
       <c r="M339" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N339" t="n">
-        <v>0.02426343154246102</v>
+        <v>0.006932409012131657</v>
       </c>
       <c r="O339" t="n">
-        <v>98.63150867823765</v>
+        <v>96.99499165275459</v>
       </c>
       <c r="P339" t="n">
         <v>0</v>
       </c>
       <c r="Q339" t="n">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="R339" t="n">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="S339" t="n">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="T339" t="n">
         <v>3335</v>
@@ -32405,10 +32405,10 @@
         </is>
       </c>
       <c r="X339" t="n">
-        <v>10.29</v>
+        <v>10.92</v>
       </c>
       <c r="Y339" t="n">
-        <v>10.61</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="340">
@@ -32429,7 +32429,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>日제품 불매운동(수혜)</t>
+          <t>제지</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -32453,37 +32453,37 @@
         </is>
       </c>
       <c r="I340" t="n">
-        <v>2955</v>
+        <v>2905</v>
       </c>
       <c r="J340" t="n">
-        <v>1012912</v>
+        <v>1149992</v>
       </c>
       <c r="K340" t="n">
-        <v>3147545590</v>
+        <v>3548185835</v>
       </c>
       <c r="L340" t="n">
-        <v>107439.399305</v>
+        <v>108742.82356</v>
       </c>
       <c r="M340" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N340" t="n">
-        <v>0.02426343154246102</v>
+        <v>0.006932409012131657</v>
       </c>
       <c r="O340" t="n">
-        <v>98.63150867823765</v>
+        <v>96.99499165275459</v>
       </c>
       <c r="P340" t="n">
         <v>0</v>
       </c>
       <c r="Q340" t="n">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="R340" t="n">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="S340" t="n">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="T340" t="n">
         <v>3335</v>
@@ -32502,10 +32502,10 @@
         </is>
       </c>
       <c r="X340" t="n">
-        <v>10.29</v>
+        <v>10.92</v>
       </c>
       <c r="Y340" t="n">
-        <v>10.61</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="341">
@@ -32550,37 +32550,37 @@
         </is>
       </c>
       <c r="I341" t="n">
-        <v>2955</v>
+        <v>2905</v>
       </c>
       <c r="J341" t="n">
-        <v>1012912</v>
+        <v>1149992</v>
       </c>
       <c r="K341" t="n">
-        <v>3147545590</v>
+        <v>3548185835</v>
       </c>
       <c r="L341" t="n">
-        <v>107439.399305</v>
+        <v>108742.82356</v>
       </c>
       <c r="M341" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N341" t="n">
-        <v>0.02426343154246102</v>
+        <v>0.006932409012131657</v>
       </c>
       <c r="O341" t="n">
-        <v>98.63150867823765</v>
+        <v>96.99499165275459</v>
       </c>
       <c r="P341" t="n">
         <v>0</v>
       </c>
       <c r="Q341" t="n">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="R341" t="n">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="S341" t="n">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="T341" t="n">
         <v>3335</v>
@@ -32599,10 +32599,10 @@
         </is>
       </c>
       <c r="X341" t="n">
-        <v>10.29</v>
+        <v>10.92</v>
       </c>
       <c r="Y341" t="n">
-        <v>10.61</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="342">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>제지</t>
+          <t>출산장려정책</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -32647,37 +32647,37 @@
         </is>
       </c>
       <c r="I342" t="n">
-        <v>2955</v>
+        <v>2905</v>
       </c>
       <c r="J342" t="n">
-        <v>1012912</v>
+        <v>1149992</v>
       </c>
       <c r="K342" t="n">
-        <v>3147545590</v>
+        <v>3548185835</v>
       </c>
       <c r="L342" t="n">
-        <v>107439.399305</v>
+        <v>108742.82356</v>
       </c>
       <c r="M342" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N342" t="n">
-        <v>0.02426343154246102</v>
+        <v>0.006932409012131657</v>
       </c>
       <c r="O342" t="n">
-        <v>98.63150867823765</v>
+        <v>96.99499165275459</v>
       </c>
       <c r="P342" t="n">
         <v>0</v>
       </c>
       <c r="Q342" t="n">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="R342" t="n">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="S342" t="n">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="T342" t="n">
         <v>3335</v>
@@ -32696,10 +32696,10 @@
         </is>
       </c>
       <c r="X342" t="n">
-        <v>10.29</v>
+        <v>10.92</v>
       </c>
       <c r="Y342" t="n">
-        <v>10.61</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="343">
@@ -32720,7 +32720,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>출산장려정책</t>
+          <t>日제품 불매운동(수혜)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -32744,31 +32744,31 @@
         </is>
       </c>
       <c r="I343" t="n">
-        <v>3005</v>
+        <v>2965</v>
       </c>
       <c r="J343" t="n">
-        <v>569941</v>
+        <v>781226</v>
       </c>
       <c r="K343" t="n">
-        <v>1766769480</v>
+        <v>2394863170</v>
       </c>
       <c r="L343" t="n">
-        <v>111542.32775</v>
+        <v>108250.9148</v>
       </c>
       <c r="M343" t="n">
-        <v>-45</v>
+        <v>-85</v>
       </c>
       <c r="N343" t="n">
-        <v>-0.01475409836065578</v>
+        <v>-0.02786885245901638</v>
       </c>
       <c r="O343" t="n">
-        <v>98.97891963109355</v>
+        <v>97.66139657444005</v>
       </c>
       <c r="P343" t="n">
         <v>0</v>
       </c>
       <c r="Q343" t="n">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="R343" t="n">
         <v>2991</v>
@@ -32793,10 +32793,10 @@
         </is>
       </c>
       <c r="X343" t="n">
-        <v>5.19</v>
+        <v>6.48</v>
       </c>
       <c r="Y343" t="n">
-        <v>5.27</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="344">
@@ -32817,7 +32817,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>日제품 불매운동(수혜)</t>
+          <t>마스크</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -32841,31 +32841,31 @@
         </is>
       </c>
       <c r="I344" t="n">
-        <v>3005</v>
+        <v>2965</v>
       </c>
       <c r="J344" t="n">
-        <v>569941</v>
+        <v>781226</v>
       </c>
       <c r="K344" t="n">
-        <v>1766769480</v>
+        <v>2394863170</v>
       </c>
       <c r="L344" t="n">
-        <v>111542.32775</v>
+        <v>108250.9148</v>
       </c>
       <c r="M344" t="n">
-        <v>-45</v>
+        <v>-85</v>
       </c>
       <c r="N344" t="n">
-        <v>-0.01475409836065578</v>
+        <v>-0.02786885245901638</v>
       </c>
       <c r="O344" t="n">
-        <v>98.97891963109355</v>
+        <v>97.66139657444005</v>
       </c>
       <c r="P344" t="n">
         <v>0</v>
       </c>
       <c r="Q344" t="n">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="R344" t="n">
         <v>2991</v>
@@ -32890,10 +32890,10 @@
         </is>
       </c>
       <c r="X344" t="n">
-        <v>5.19</v>
+        <v>6.48</v>
       </c>
       <c r="Y344" t="n">
-        <v>5.27</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="345">
@@ -32914,7 +32914,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>마스크</t>
+          <t>황사/미세먼지</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -32938,31 +32938,31 @@
         </is>
       </c>
       <c r="I345" t="n">
-        <v>3005</v>
+        <v>2965</v>
       </c>
       <c r="J345" t="n">
-        <v>569941</v>
+        <v>781226</v>
       </c>
       <c r="K345" t="n">
-        <v>1766769480</v>
+        <v>2394863170</v>
       </c>
       <c r="L345" t="n">
-        <v>111542.32775</v>
+        <v>108250.9148</v>
       </c>
       <c r="M345" t="n">
-        <v>-45</v>
+        <v>-85</v>
       </c>
       <c r="N345" t="n">
-        <v>-0.01475409836065578</v>
+        <v>-0.02786885245901638</v>
       </c>
       <c r="O345" t="n">
-        <v>98.97891963109355</v>
+        <v>97.66139657444005</v>
       </c>
       <c r="P345" t="n">
         <v>0</v>
       </c>
       <c r="Q345" t="n">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="R345" t="n">
         <v>2991</v>
@@ -32987,10 +32987,10 @@
         </is>
       </c>
       <c r="X345" t="n">
-        <v>5.19</v>
+        <v>6.48</v>
       </c>
       <c r="Y345" t="n">
-        <v>5.27</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="346">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>치매</t>
+          <t>출산장려정책</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -33035,31 +33035,31 @@
         </is>
       </c>
       <c r="I346" t="n">
-        <v>3005</v>
+        <v>2965</v>
       </c>
       <c r="J346" t="n">
-        <v>569941</v>
+        <v>781226</v>
       </c>
       <c r="K346" t="n">
-        <v>1766769480</v>
+        <v>2394863170</v>
       </c>
       <c r="L346" t="n">
-        <v>111542.32775</v>
+        <v>108250.9148</v>
       </c>
       <c r="M346" t="n">
-        <v>-45</v>
+        <v>-85</v>
       </c>
       <c r="N346" t="n">
-        <v>-0.01475409836065578</v>
+        <v>-0.02786885245901638</v>
       </c>
       <c r="O346" t="n">
-        <v>98.97891963109355</v>
+        <v>97.66139657444005</v>
       </c>
       <c r="P346" t="n">
         <v>0</v>
       </c>
       <c r="Q346" t="n">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="R346" t="n">
         <v>2991</v>
@@ -33084,10 +33084,10 @@
         </is>
       </c>
       <c r="X346" t="n">
-        <v>5.19</v>
+        <v>6.48</v>
       </c>
       <c r="Y346" t="n">
-        <v>5.27</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="347">
@@ -33108,7 +33108,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>황사/미세먼지</t>
+          <t>치매</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -33132,31 +33132,31 @@
         </is>
       </c>
       <c r="I347" t="n">
-        <v>3005</v>
+        <v>2965</v>
       </c>
       <c r="J347" t="n">
-        <v>569941</v>
+        <v>781226</v>
       </c>
       <c r="K347" t="n">
-        <v>1766769480</v>
+        <v>2394863170</v>
       </c>
       <c r="L347" t="n">
-        <v>111542.32775</v>
+        <v>108250.9148</v>
       </c>
       <c r="M347" t="n">
-        <v>-45</v>
+        <v>-85</v>
       </c>
       <c r="N347" t="n">
-        <v>-0.01475409836065578</v>
+        <v>-0.02786885245901638</v>
       </c>
       <c r="O347" t="n">
-        <v>98.97891963109355</v>
+        <v>97.66139657444005</v>
       </c>
       <c r="P347" t="n">
         <v>0</v>
       </c>
       <c r="Q347" t="n">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="R347" t="n">
         <v>2991</v>
@@ -33181,10 +33181,10 @@
         </is>
       </c>
       <c r="X347" t="n">
-        <v>5.19</v>
+        <v>6.48</v>
       </c>
       <c r="Y347" t="n">
-        <v>5.27</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="348">
@@ -33195,27 +33195,27 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>017810</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>풀무원</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>지주사</t>
+          <t>AI 챗봇(챗GPT 등)</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>기타 식품 제조업</t>
+          <t>전자부품 제조업</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>두부류,생면류,나물류,냉동류,조미류,김치류,묵류,녹즙,과채음료,건강보조식품 판매,제조,생식품 수출</t>
+          <t>P.C.B(인쇄회로기판),M.L.B 제조</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -33225,47 +33225,47 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>봄1</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I348" t="n">
-        <v>11360</v>
+        <v>9420</v>
       </c>
       <c r="J348" t="n">
-        <v>954374</v>
+        <v>46721854</v>
       </c>
       <c r="K348" t="n">
-        <v>11699846320</v>
+        <v>434792859810</v>
       </c>
       <c r="L348" t="n">
-        <v>405221.36146</v>
+        <v>593251.41022</v>
       </c>
       <c r="M348" t="n">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="N348" t="n">
-        <v>0.06867356538099711</v>
+        <v>0.1586715867158672</v>
       </c>
       <c r="O348" t="n">
-        <v>101.4829372878328</v>
+        <v>150.5513824516541</v>
       </c>
       <c r="P348" t="n">
         <v>0</v>
       </c>
       <c r="Q348" t="n">
-        <v>11001</v>
+        <v>8006</v>
       </c>
       <c r="R348" t="n">
-        <v>11146</v>
+        <v>6747</v>
       </c>
       <c r="S348" t="n">
-        <v>11194</v>
+        <v>6257</v>
       </c>
       <c r="T348" t="n">
-        <v>13600</v>
+        <v>10080</v>
       </c>
       <c r="U348" t="n">
-        <v>10050</v>
+        <v>4655</v>
       </c>
       <c r="V348" t="inlineStr">
         <is>
@@ -33274,14 +33274,14 @@
       </c>
       <c r="W348" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="X348" t="n">
-        <v>11.54</v>
+        <v>6.07</v>
       </c>
       <c r="Y348" t="n">
-        <v>12.05</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="349">
@@ -33292,27 +33292,27 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>017810</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>풀무원</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>음식료업종</t>
+          <t>우주항공산업</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>기타 식품 제조업</t>
+          <t>전자부품 제조업</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>두부류,생면류,나물류,냉동류,조미류,김치류,묵류,녹즙,과채음료,건강보조식품 판매,제조,생식품 수출</t>
+          <t>P.C.B(인쇄회로기판),M.L.B 제조</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -33322,47 +33322,47 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>봄1</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I349" t="n">
-        <v>11360</v>
+        <v>9420</v>
       </c>
       <c r="J349" t="n">
-        <v>954374</v>
+        <v>46721854</v>
       </c>
       <c r="K349" t="n">
-        <v>11699846320</v>
+        <v>434792859810</v>
       </c>
       <c r="L349" t="n">
-        <v>405221.36146</v>
+        <v>593251.41022</v>
       </c>
       <c r="M349" t="n">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="N349" t="n">
-        <v>0.06867356538099711</v>
+        <v>0.1586715867158672</v>
       </c>
       <c r="O349" t="n">
-        <v>101.4829372878328</v>
+        <v>150.5513824516541</v>
       </c>
       <c r="P349" t="n">
         <v>0</v>
       </c>
       <c r="Q349" t="n">
-        <v>11001</v>
+        <v>8006</v>
       </c>
       <c r="R349" t="n">
-        <v>11146</v>
+        <v>6747</v>
       </c>
       <c r="S349" t="n">
-        <v>11194</v>
+        <v>6257</v>
       </c>
       <c r="T349" t="n">
-        <v>13600</v>
+        <v>10080</v>
       </c>
       <c r="U349" t="n">
-        <v>10050</v>
+        <v>4655</v>
       </c>
       <c r="V349" t="inlineStr">
         <is>
@@ -33371,14 +33371,14 @@
       </c>
       <c r="W349" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="X349" t="n">
-        <v>11.54</v>
+        <v>6.07</v>
       </c>
       <c r="Y349" t="n">
-        <v>12.05</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="350">
@@ -33389,77 +33389,77 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>212560</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>네오오토</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>자동차부품</t>
+          <t>PCB(FPCB 등)</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>자동차 신품 부품 제조업</t>
+          <t>전자부품 제조업</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>피니언 기어, 디프 어셈블리, 대형기어</t>
+          <t>P.C.B(인쇄회로기판),M.L.B 제조</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>봄3</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I350" t="n">
-        <v>7600</v>
+        <v>9420</v>
       </c>
       <c r="J350" t="n">
-        <v>4942291</v>
+        <v>46721854</v>
       </c>
       <c r="K350" t="n">
-        <v>38344521330</v>
+        <v>434792859810</v>
       </c>
       <c r="L350" t="n">
-        <v>52683.50247</v>
+        <v>593251.41022</v>
       </c>
       <c r="M350" t="n">
-        <v>910</v>
+        <v>1290</v>
       </c>
       <c r="N350" t="n">
-        <v>0.1360239162929746</v>
+        <v>0.1586715867158672</v>
       </c>
       <c r="O350" t="n">
-        <v>110.803324099723</v>
+        <v>150.5513824516541</v>
       </c>
       <c r="P350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350" t="n">
-        <v>6746</v>
+        <v>8006</v>
       </c>
       <c r="R350" t="n">
-        <v>6727</v>
+        <v>6747</v>
       </c>
       <c r="S350" t="n">
-        <v>6859</v>
+        <v>6257</v>
       </c>
       <c r="T350" t="n">
-        <v>8290</v>
+        <v>10080</v>
       </c>
       <c r="U350" t="n">
-        <v>5870</v>
+        <v>4655</v>
       </c>
       <c r="V350" t="inlineStr">
         <is>
@@ -33468,14 +33468,14 @@
       </c>
       <c r="W350" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="X350" t="n">
-        <v>18.34</v>
+        <v>6.07</v>
       </c>
       <c r="Y350" t="n">
-        <v>18.56</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="351">
@@ -33486,32 +33486,32 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>315640</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>딥노이드</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>지능형로봇/인공지능(AI)</t>
+          <t>갤럭시 부품주</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>소프트웨어 개발 및 공급업</t>
+          <t>전자부품 제조업</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
+          <t>P.C.B(인쇄회로기판),M.L.B 제조</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -33520,43 +33520,43 @@
         </is>
       </c>
       <c r="I351" t="n">
-        <v>12610</v>
+        <v>9420</v>
       </c>
       <c r="J351" t="n">
-        <v>6282224</v>
+        <v>46721854</v>
       </c>
       <c r="K351" t="n">
-        <v>79190646270</v>
+        <v>434792859810</v>
       </c>
       <c r="L351" t="n">
-        <v>94755.25278</v>
+        <v>593251.41022</v>
       </c>
       <c r="M351" t="n">
-        <v>2440</v>
+        <v>1290</v>
       </c>
       <c r="N351" t="n">
-        <v>0.2399213372664699</v>
+        <v>0.1586715867158672</v>
       </c>
       <c r="O351" t="n">
-        <v>187.6208897485493</v>
+        <v>150.5513824516541</v>
       </c>
       <c r="P351" t="n">
         <v>0</v>
       </c>
       <c r="Q351" t="n">
-        <v>9072</v>
+        <v>8006</v>
       </c>
       <c r="R351" t="n">
-        <v>7238</v>
+        <v>6747</v>
       </c>
       <c r="S351" t="n">
-        <v>6721</v>
+        <v>6257</v>
       </c>
       <c r="T351" t="n">
-        <v>13220</v>
+        <v>10080</v>
       </c>
       <c r="U351" t="n">
-        <v>5240</v>
+        <v>4655</v>
       </c>
       <c r="V351" t="inlineStr">
         <is>
@@ -33565,14 +33565,14 @@
       </c>
       <c r="W351" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="X351" t="n">
-        <v>7.25</v>
+        <v>6.07</v>
       </c>
       <c r="Y351" t="n">
-        <v>8.66</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="352">
@@ -33583,32 +33583,32 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>315640</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>딥노이드</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>2021 하반기 신규상장</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>소프트웨어 개발 및 공급업</t>
+          <t>전자부품 제조업</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
+          <t>P.C.B(인쇄회로기판),M.L.B 제조</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -33617,43 +33617,43 @@
         </is>
       </c>
       <c r="I352" t="n">
-        <v>12610</v>
+        <v>9420</v>
       </c>
       <c r="J352" t="n">
-        <v>6282224</v>
+        <v>46721854</v>
       </c>
       <c r="K352" t="n">
-        <v>79190646270</v>
+        <v>434792859810</v>
       </c>
       <c r="L352" t="n">
-        <v>94755.25278</v>
+        <v>593251.41022</v>
       </c>
       <c r="M352" t="n">
-        <v>2440</v>
+        <v>1290</v>
       </c>
       <c r="N352" t="n">
-        <v>0.2399213372664699</v>
+        <v>0.1586715867158672</v>
       </c>
       <c r="O352" t="n">
-        <v>187.6208897485493</v>
+        <v>150.5513824516541</v>
       </c>
       <c r="P352" t="n">
         <v>0</v>
       </c>
       <c r="Q352" t="n">
-        <v>9072</v>
+        <v>8006</v>
       </c>
       <c r="R352" t="n">
-        <v>7238</v>
+        <v>6747</v>
       </c>
       <c r="S352" t="n">
-        <v>6721</v>
+        <v>6257</v>
       </c>
       <c r="T352" t="n">
-        <v>13220</v>
+        <v>10080</v>
       </c>
       <c r="U352" t="n">
-        <v>5240</v>
+        <v>4655</v>
       </c>
       <c r="V352" t="inlineStr">
         <is>
@@ -33662,14 +33662,14 @@
       </c>
       <c r="W352" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="X352" t="n">
-        <v>7.25</v>
+        <v>6.07</v>
       </c>
       <c r="Y352" t="n">
-        <v>8.66</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="353">
@@ -33680,32 +33680,32 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>315640</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>딥노이드</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>의료기기</t>
+          <t>5G(5세대 이동통신)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>소프트웨어 개발 및 공급업</t>
+          <t>전자부품 제조업</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
+          <t>P.C.B(인쇄회로기판),M.L.B 제조</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -33714,43 +33714,43 @@
         </is>
       </c>
       <c r="I353" t="n">
-        <v>12610</v>
+        <v>9420</v>
       </c>
       <c r="J353" t="n">
-        <v>6282224</v>
+        <v>46721854</v>
       </c>
       <c r="K353" t="n">
-        <v>79190646270</v>
+        <v>434792859810</v>
       </c>
       <c r="L353" t="n">
-        <v>94755.25278</v>
+        <v>593251.41022</v>
       </c>
       <c r="M353" t="n">
-        <v>2440</v>
+        <v>1290</v>
       </c>
       <c r="N353" t="n">
-        <v>0.2399213372664699</v>
+        <v>0.1586715867158672</v>
       </c>
       <c r="O353" t="n">
-        <v>187.6208897485493</v>
+        <v>150.5513824516541</v>
       </c>
       <c r="P353" t="n">
         <v>0</v>
       </c>
       <c r="Q353" t="n">
-        <v>9072</v>
+        <v>8006</v>
       </c>
       <c r="R353" t="n">
-        <v>7238</v>
+        <v>6747</v>
       </c>
       <c r="S353" t="n">
-        <v>6721</v>
+        <v>6257</v>
       </c>
       <c r="T353" t="n">
-        <v>13220</v>
+        <v>10080</v>
       </c>
       <c r="U353" t="n">
-        <v>5240</v>
+        <v>4655</v>
       </c>
       <c r="V353" t="inlineStr">
         <is>
@@ -33759,14 +33759,14 @@
       </c>
       <c r="W353" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="X353" t="n">
-        <v>7.25</v>
+        <v>6.07</v>
       </c>
       <c r="Y353" t="n">
-        <v>8.66</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="354">
@@ -33777,77 +33777,77 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>347700</t>
+          <t>017810</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>라이프시맨틱스</t>
+          <t>풀무원</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>U-Healthcare(원격진료)</t>
+          <t>지주사</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>소프트웨어 개발 및 공급업</t>
+          <t>기타 식품 제조업</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>소프트웨어(개인건강기록 플랫폼,진료기록번역플랫폼,질병분류기호 검색) 개발,공급/의료기기 도매/자문,컨설팅/전자상거래,통신판매</t>
+          <t>두부류,생면류,나물류,냉동류,조미류,김치류,묵류,녹즙,과채음료,건강보조식품 판매,제조,생식품 수출</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>가을3</t>
+          <t>겨울1</t>
         </is>
       </c>
       <c r="I354" t="n">
-        <v>6920</v>
+        <v>11090</v>
       </c>
       <c r="J354" t="n">
-        <v>1771522</v>
+        <v>1170088</v>
       </c>
       <c r="K354" t="n">
-        <v>11614800340</v>
+        <v>14117493820</v>
       </c>
       <c r="L354" t="n">
-        <v>56765.1225</v>
+        <v>425425.24872</v>
       </c>
       <c r="M354" t="n">
-        <v>1370</v>
+        <v>460</v>
       </c>
       <c r="N354" t="n">
-        <v>0.2468468468468468</v>
+        <v>0.04327375352775165</v>
       </c>
       <c r="O354" t="n">
-        <v>144.3772167744628</v>
+        <v>99.08863473909936</v>
       </c>
       <c r="P354" t="n">
         <v>0</v>
       </c>
       <c r="Q354" t="n">
-        <v>5819</v>
+        <v>10987</v>
       </c>
       <c r="R354" t="n">
-        <v>5014</v>
+        <v>11142</v>
       </c>
       <c r="S354" t="n">
-        <v>4793</v>
+        <v>11192</v>
       </c>
       <c r="T354" t="n">
-        <v>7100</v>
+        <v>13600</v>
       </c>
       <c r="U354" t="n">
-        <v>3870</v>
+        <v>10050</v>
       </c>
       <c r="V354" t="inlineStr">
         <is>
@@ -33856,14 +33856,14 @@
       </c>
       <c r="W354" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="X354" t="n">
-        <v>5.89</v>
+        <v>12.51</v>
       </c>
       <c r="Y354" t="n">
-        <v>6.34</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="355">
@@ -33874,77 +33874,77 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>347700</t>
+          <t>017810</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>라이프시맨틱스</t>
+          <t>풀무원</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>2021 상반기 신규상장</t>
+          <t>음식료업종</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>소프트웨어 개발 및 공급업</t>
+          <t>기타 식품 제조업</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>소프트웨어(개인건강기록 플랫폼,진료기록번역플랫폼,질병분류기호 검색) 개발,공급/의료기기 도매/자문,컨설팅/전자상거래,통신판매</t>
+          <t>두부류,생면류,나물류,냉동류,조미류,김치류,묵류,녹즙,과채음료,건강보조식품 판매,제조,생식품 수출</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>가을3</t>
+          <t>겨울1</t>
         </is>
       </c>
       <c r="I355" t="n">
-        <v>6920</v>
+        <v>11090</v>
       </c>
       <c r="J355" t="n">
-        <v>1771522</v>
+        <v>1170088</v>
       </c>
       <c r="K355" t="n">
-        <v>11614800340</v>
+        <v>14117493820</v>
       </c>
       <c r="L355" t="n">
-        <v>56765.1225</v>
+        <v>425425.24872</v>
       </c>
       <c r="M355" t="n">
-        <v>1370</v>
+        <v>460</v>
       </c>
       <c r="N355" t="n">
-        <v>0.2468468468468468</v>
+        <v>0.04327375352775165</v>
       </c>
       <c r="O355" t="n">
-        <v>144.3772167744628</v>
+        <v>99.08863473909936</v>
       </c>
       <c r="P355" t="n">
         <v>0</v>
       </c>
       <c r="Q355" t="n">
-        <v>5819</v>
+        <v>10987</v>
       </c>
       <c r="R355" t="n">
-        <v>5014</v>
+        <v>11142</v>
       </c>
       <c r="S355" t="n">
-        <v>4793</v>
+        <v>11192</v>
       </c>
       <c r="T355" t="n">
-        <v>7100</v>
+        <v>13600</v>
       </c>
       <c r="U355" t="n">
-        <v>3870</v>
+        <v>10050</v>
       </c>
       <c r="V355" t="inlineStr">
         <is>
@@ -33953,14 +33953,14 @@
       </c>
       <c r="W355" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="X355" t="n">
-        <v>5.89</v>
+        <v>12.51</v>
       </c>
       <c r="Y355" t="n">
-        <v>6.34</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="356">
@@ -33971,29 +33971,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>014100</t>
+          <t>950110</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>메디앙스</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>출산장려정책</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>기타 화학제품 제조업</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
-        </is>
-      </c>
+          <t>SBI핀테크솔루션즈</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr">
         <is>
           <t>KOSDAQ</t>
@@ -34005,59 +33993,57 @@
         </is>
       </c>
       <c r="I356" t="n">
-        <v>3280</v>
+        <v>4235</v>
       </c>
       <c r="J356" t="n">
-        <v>762866</v>
+        <v>76566</v>
       </c>
       <c r="K356" t="n">
-        <v>2650465225</v>
-      </c>
-      <c r="L356" t="n">
-        <v>39058</v>
-      </c>
+        <v>319140565</v>
+      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
-        <v>-30</v>
+        <v>205</v>
       </c>
       <c r="N356" t="n">
-        <v>-0.009063444108761365</v>
+        <v>0.05086848635235741</v>
       </c>
       <c r="O356" t="n">
-        <v>102.8213166144201</v>
+        <v>103.3935546875</v>
       </c>
       <c r="P356" t="n">
         <v>0</v>
       </c>
       <c r="Q356" t="n">
-        <v>3187</v>
+        <v>4042</v>
       </c>
       <c r="R356" t="n">
-        <v>3165</v>
+        <v>3920</v>
       </c>
       <c r="S356" t="n">
-        <v>3190</v>
+        <v>4096</v>
       </c>
       <c r="T356" t="n">
-        <v>3750</v>
+        <v>5190</v>
       </c>
       <c r="U356" t="n">
-        <v>2690</v>
+        <v>3625</v>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="W356" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="X356" t="n">
-        <v>7.01</v>
+        <v>5.58</v>
       </c>
       <c r="Y356" t="n">
-        <v>7.28</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="357">
@@ -34068,27 +34054,27 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>014100</t>
+          <t>212560</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>메디앙스</t>
+          <t>네오오토</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>엔젤산업</t>
+          <t>자동차부품</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>기타 화학제품 제조업</t>
+          <t>자동차 신품 부품 제조업</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
+          <t>피니언 기어, 디프 어셈블리, 대형기어</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -34098,47 +34084,47 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>봄1</t>
+          <t>봄2</t>
         </is>
       </c>
       <c r="I357" t="n">
-        <v>3280</v>
+        <v>7470</v>
       </c>
       <c r="J357" t="n">
-        <v>762866</v>
+        <v>6090917</v>
       </c>
       <c r="K357" t="n">
-        <v>2650465225</v>
+        <v>47135426240</v>
       </c>
       <c r="L357" t="n">
-        <v>39058</v>
+        <v>58510.97509</v>
       </c>
       <c r="M357" t="n">
-        <v>-30</v>
+        <v>780</v>
       </c>
       <c r="N357" t="n">
-        <v>-0.009063444108761365</v>
+        <v>0.116591928251121</v>
       </c>
       <c r="O357" t="n">
-        <v>102.8213166144201</v>
+        <v>108.9238845144357</v>
       </c>
       <c r="P357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q357" t="n">
-        <v>3187</v>
+        <v>6740</v>
       </c>
       <c r="R357" t="n">
-        <v>3165</v>
+        <v>6725</v>
       </c>
       <c r="S357" t="n">
-        <v>3190</v>
+        <v>6858</v>
       </c>
       <c r="T357" t="n">
-        <v>3750</v>
+        <v>8290</v>
       </c>
       <c r="U357" t="n">
-        <v>2690</v>
+        <v>5870</v>
       </c>
       <c r="V357" t="inlineStr">
         <is>
@@ -34147,14 +34133,14 @@
       </c>
       <c r="W357" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="X357" t="n">
-        <v>7.01</v>
+        <v>18.63</v>
       </c>
       <c r="Y357" t="n">
-        <v>7.28</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="358">
@@ -34165,29 +34151,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>014100</t>
+          <t>263020</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>메디앙스</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>日제품 불매운동(수혜)</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>기타 화학제품 제조업</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
-        </is>
-      </c>
+          <t>디케이앤디</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr">
         <is>
           <t>KOSDAQ</t>
@@ -34199,59 +34173,57 @@
         </is>
       </c>
       <c r="I358" t="n">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="J358" t="n">
-        <v>762866</v>
+        <v>351357</v>
       </c>
       <c r="K358" t="n">
-        <v>2650465225</v>
-      </c>
-      <c r="L358" t="n">
-        <v>39058</v>
-      </c>
+        <v>1143602870</v>
+      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
-        <v>-30</v>
+        <v>185</v>
       </c>
       <c r="N358" t="n">
-        <v>-0.009063444108761365</v>
+        <v>0.0598705501618122</v>
       </c>
       <c r="O358" t="n">
-        <v>102.8213166144201</v>
+        <v>104.1335453100159</v>
       </c>
       <c r="P358" t="n">
         <v>0</v>
       </c>
       <c r="Q358" t="n">
-        <v>3187</v>
+        <v>3192</v>
       </c>
       <c r="R358" t="n">
-        <v>3165</v>
+        <v>3109</v>
       </c>
       <c r="S358" t="n">
-        <v>3190</v>
+        <v>3145</v>
       </c>
       <c r="T358" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="U358" t="n">
-        <v>2690</v>
+        <v>2650</v>
       </c>
       <c r="V358" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="W358" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="X358" t="n">
-        <v>7.01</v>
+        <v>5.35</v>
       </c>
       <c r="Y358" t="n">
-        <v>7.28</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="359">
@@ -34262,27 +34234,27 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>014100</t>
+          <t>315640</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>메디앙스</t>
+          <t>딥노이드</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>마스크</t>
+          <t>지능형로봇/인공지능(AI)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>기타 화학제품 제조업</t>
+          <t>소프트웨어 개발 및 공급업</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
+          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -34292,47 +34264,47 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>봄1</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I359" t="n">
-        <v>3280</v>
+        <v>12610</v>
       </c>
       <c r="J359" t="n">
-        <v>762866</v>
+        <v>7956513</v>
       </c>
       <c r="K359" t="n">
-        <v>2650465225</v>
+        <v>99898707460</v>
       </c>
       <c r="L359" t="n">
-        <v>39058</v>
+        <v>114973.43356</v>
       </c>
       <c r="M359" t="n">
-        <v>-30</v>
+        <v>2440</v>
       </c>
       <c r="N359" t="n">
-        <v>-0.009063444108761365</v>
+        <v>0.2399213372664699</v>
       </c>
       <c r="O359" t="n">
-        <v>102.8213166144201</v>
+        <v>187.6208897485493</v>
       </c>
       <c r="P359" t="n">
         <v>0</v>
       </c>
       <c r="Q359" t="n">
-        <v>3187</v>
+        <v>9072</v>
       </c>
       <c r="R359" t="n">
-        <v>3165</v>
+        <v>7238</v>
       </c>
       <c r="S359" t="n">
-        <v>3190</v>
+        <v>6721</v>
       </c>
       <c r="T359" t="n">
-        <v>3750</v>
+        <v>13220</v>
       </c>
       <c r="U359" t="n">
-        <v>2690</v>
+        <v>5240</v>
       </c>
       <c r="V359" t="inlineStr">
         <is>
@@ -34345,10 +34317,10 @@
         </is>
       </c>
       <c r="X359" t="n">
-        <v>7.01</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Y359" t="n">
-        <v>7.28</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="360">
@@ -34359,27 +34331,27 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>250060</t>
+          <t>315640</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>모비스</t>
+          <t>딥노이드</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>지능형로봇/인공지능(AI)</t>
+          <t>의료기기</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+          <t>소프트웨어 개발 및 공급업</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>기업인수합병</t>
+          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -34389,47 +34361,47 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>여름2</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I360" t="n">
-        <v>2220</v>
+        <v>12610</v>
       </c>
       <c r="J360" t="n">
-        <v>6528544</v>
+        <v>7956513</v>
       </c>
       <c r="K360" t="n">
-        <v>13966836015</v>
+        <v>99898707460</v>
       </c>
       <c r="L360" t="n">
-        <v>57747.50863</v>
+        <v>114973.43356</v>
       </c>
       <c r="M360" t="n">
-        <v>425</v>
+        <v>2440</v>
       </c>
       <c r="N360" t="n">
-        <v>0.2367688022284122</v>
+        <v>0.2399213372664699</v>
       </c>
       <c r="O360" t="n">
-        <v>122.9916897506925</v>
+        <v>187.6208897485493</v>
       </c>
       <c r="P360" t="n">
         <v>0</v>
       </c>
       <c r="Q360" t="n">
-        <v>1898</v>
+        <v>9072</v>
       </c>
       <c r="R360" t="n">
-        <v>1792</v>
+        <v>7238</v>
       </c>
       <c r="S360" t="n">
-        <v>1805</v>
+        <v>6721</v>
       </c>
       <c r="T360" t="n">
-        <v>2290</v>
+        <v>13220</v>
       </c>
       <c r="U360" t="n">
-        <v>1545</v>
+        <v>5240</v>
       </c>
       <c r="V360" t="inlineStr">
         <is>
@@ -34442,10 +34414,10 @@
         </is>
       </c>
       <c r="X360" t="n">
-        <v>13.87</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Y360" t="n">
-        <v>14.37</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="361">
@@ -34456,27 +34428,27 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>250060</t>
+          <t>315640</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>모비스</t>
+          <t>딥노이드</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>4차산업 수혜주</t>
+          <t>2021 하반기 신규상장</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+          <t>소프트웨어 개발 및 공급업</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>기업인수합병</t>
+          <t>의료 인공지능플랫폼, 인공지능 임상의사결정 시스템</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -34486,47 +34458,47 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>여름2</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I361" t="n">
-        <v>2220</v>
+        <v>12610</v>
       </c>
       <c r="J361" t="n">
-        <v>6528544</v>
+        <v>7956513</v>
       </c>
       <c r="K361" t="n">
-        <v>13966836015</v>
+        <v>99898707460</v>
       </c>
       <c r="L361" t="n">
-        <v>57747.50863</v>
+        <v>114973.43356</v>
       </c>
       <c r="M361" t="n">
-        <v>425</v>
+        <v>2440</v>
       </c>
       <c r="N361" t="n">
-        <v>0.2367688022284122</v>
+        <v>0.2399213372664699</v>
       </c>
       <c r="O361" t="n">
-        <v>122.9916897506925</v>
+        <v>187.6208897485493</v>
       </c>
       <c r="P361" t="n">
         <v>0</v>
       </c>
       <c r="Q361" t="n">
-        <v>1898</v>
+        <v>9072</v>
       </c>
       <c r="R361" t="n">
-        <v>1792</v>
+        <v>7238</v>
       </c>
       <c r="S361" t="n">
-        <v>1805</v>
+        <v>6721</v>
       </c>
       <c r="T361" t="n">
-        <v>2290</v>
+        <v>13220</v>
       </c>
       <c r="U361" t="n">
-        <v>1545</v>
+        <v>5240</v>
       </c>
       <c r="V361" t="inlineStr">
         <is>
@@ -34539,10 +34511,10 @@
         </is>
       </c>
       <c r="X361" t="n">
-        <v>13.87</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Y361" t="n">
-        <v>14.37</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="362">
@@ -34553,27 +34525,27 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>250060</t>
+          <t>347700</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>모비스</t>
+          <t>라이프시맨틱스</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>핵융합에너지</t>
+          <t>2021 상반기 신규상장</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+          <t>소프트웨어 개발 및 공급업</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>기업인수합병</t>
+          <t>소프트웨어(개인건강기록 플랫폼,진료기록번역플랫폼,질병분류기호 검색) 개발,공급/의료기기 도매/자문,컨설팅/전자상거래,통신판매</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -34583,47 +34555,47 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>여름2</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I362" t="n">
-        <v>2220</v>
+        <v>6860</v>
       </c>
       <c r="J362" t="n">
-        <v>6528544</v>
+        <v>3144153</v>
       </c>
       <c r="K362" t="n">
-        <v>13966836015</v>
+        <v>21007695940</v>
       </c>
       <c r="L362" t="n">
-        <v>57747.50863</v>
+        <v>68629.5445</v>
       </c>
       <c r="M362" t="n">
-        <v>425</v>
+        <v>1310</v>
       </c>
       <c r="N362" t="n">
-        <v>0.2367688022284122</v>
+        <v>0.2360360360360361</v>
       </c>
       <c r="O362" t="n">
-        <v>122.9916897506925</v>
+        <v>143.1552587646077</v>
       </c>
       <c r="P362" t="n">
         <v>0</v>
       </c>
       <c r="Q362" t="n">
-        <v>1898</v>
+        <v>5816</v>
       </c>
       <c r="R362" t="n">
-        <v>1792</v>
+        <v>5013</v>
       </c>
       <c r="S362" t="n">
-        <v>1805</v>
+        <v>4792</v>
       </c>
       <c r="T362" t="n">
-        <v>2290</v>
+        <v>7200</v>
       </c>
       <c r="U362" t="n">
-        <v>1545</v>
+        <v>3870</v>
       </c>
       <c r="V362" t="inlineStr">
         <is>
@@ -34632,14 +34604,14 @@
       </c>
       <c r="W362" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="X362" t="n">
-        <v>13.87</v>
+        <v>8.51</v>
       </c>
       <c r="Y362" t="n">
-        <v>14.37</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -34650,27 +34622,27 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>050760</t>
+          <t>347700</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>에스폴리텍</t>
+          <t>라이프시맨틱스</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>태양광에너지</t>
+          <t>U-Healthcare(원격진료)</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>플라스틱제품 제조업</t>
+          <t>소프트웨어 개발 및 공급업</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>유무선 통신용 소프트웨어</t>
+          <t>소프트웨어(개인건강기록 플랫폼,진료기록번역플랫폼,질병분류기호 검색) 개발,공급/의료기기 도매/자문,컨설팅/전자상거래,통신판매</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -34680,63 +34652,63 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>겨울1</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I363" t="n">
-        <v>2645</v>
+        <v>6860</v>
       </c>
       <c r="J363" t="n">
-        <v>1913801</v>
+        <v>3144153</v>
       </c>
       <c r="K363" t="n">
-        <v>5411335935</v>
+        <v>21007695940</v>
       </c>
       <c r="L363" t="n">
-        <v>43940.28382</v>
+        <v>68629.5445</v>
       </c>
       <c r="M363" t="n">
-        <v>-45</v>
+        <v>1310</v>
       </c>
       <c r="N363" t="n">
-        <v>-0.01672862453531598</v>
+        <v>0.2360360360360361</v>
       </c>
       <c r="O363" t="n">
-        <v>99.69845457972107</v>
+        <v>143.1552587646077</v>
       </c>
       <c r="P363" t="n">
         <v>0</v>
       </c>
       <c r="Q363" t="n">
-        <v>2662</v>
+        <v>5816</v>
       </c>
       <c r="R363" t="n">
-        <v>2561</v>
+        <v>5013</v>
       </c>
       <c r="S363" t="n">
-        <v>2653</v>
+        <v>4792</v>
       </c>
       <c r="T363" t="n">
-        <v>3100</v>
+        <v>7200</v>
       </c>
       <c r="U363" t="n">
-        <v>2115</v>
+        <v>3870</v>
       </c>
       <c r="V363" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="W363" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="X363" t="n">
-        <v>7.79</v>
+        <v>8.51</v>
       </c>
       <c r="Y363" t="n">
-        <v>7.85</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="364">
@@ -34747,27 +34719,27 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>050760</t>
+          <t>014100</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>에스폴리텍</t>
+          <t>메디앙스</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>LCD 부품/소재</t>
+          <t>日제품 불매운동(수혜)</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>플라스틱제품 제조업</t>
+          <t>기타 화학제품 제조업</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>유무선 통신용 소프트웨어</t>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -34781,59 +34753,59 @@
         </is>
       </c>
       <c r="I364" t="n">
-        <v>2645</v>
+        <v>3170</v>
       </c>
       <c r="J364" t="n">
-        <v>1913801</v>
+        <v>889121</v>
       </c>
       <c r="K364" t="n">
-        <v>5411335935</v>
+        <v>3057370020</v>
       </c>
       <c r="L364" t="n">
-        <v>43940.28382</v>
+        <v>37760</v>
       </c>
       <c r="M364" t="n">
-        <v>-45</v>
+        <v>-140</v>
       </c>
       <c r="N364" t="n">
-        <v>-0.01672862453531598</v>
+        <v>-0.04229607250755285</v>
       </c>
       <c r="O364" t="n">
-        <v>99.69845457972107</v>
+        <v>99.40420194418313</v>
       </c>
       <c r="P364" t="n">
         <v>0</v>
       </c>
       <c r="Q364" t="n">
-        <v>2662</v>
+        <v>3182</v>
       </c>
       <c r="R364" t="n">
-        <v>2561</v>
+        <v>3163</v>
       </c>
       <c r="S364" t="n">
-        <v>2653</v>
+        <v>3189</v>
       </c>
       <c r="T364" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="U364" t="n">
-        <v>2115</v>
+        <v>2690</v>
       </c>
       <c r="V364" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="W364" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X364" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="Y364" t="n">
-        <v>7.85</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="365">
@@ -34844,27 +34816,27 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>050760</t>
+          <t>014100</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>에스폴리텍</t>
+          <t>메디앙스</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>마스크</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>플라스틱제품 제조업</t>
+          <t>기타 화학제품 제조업</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>유무선 통신용 소프트웨어</t>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -34878,59 +34850,59 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>2645</v>
+        <v>3170</v>
       </c>
       <c r="J365" t="n">
-        <v>1913801</v>
+        <v>889121</v>
       </c>
       <c r="K365" t="n">
-        <v>5411335935</v>
+        <v>3057370020</v>
       </c>
       <c r="L365" t="n">
-        <v>43940.28382</v>
+        <v>37760</v>
       </c>
       <c r="M365" t="n">
-        <v>-45</v>
+        <v>-140</v>
       </c>
       <c r="N365" t="n">
-        <v>-0.01672862453531598</v>
+        <v>-0.04229607250755285</v>
       </c>
       <c r="O365" t="n">
-        <v>99.69845457972107</v>
+        <v>99.40420194418313</v>
       </c>
       <c r="P365" t="n">
         <v>0</v>
       </c>
       <c r="Q365" t="n">
-        <v>2662</v>
+        <v>3182</v>
       </c>
       <c r="R365" t="n">
-        <v>2561</v>
+        <v>3163</v>
       </c>
       <c r="S365" t="n">
-        <v>2653</v>
+        <v>3189</v>
       </c>
       <c r="T365" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="U365" t="n">
-        <v>2115</v>
+        <v>2690</v>
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="W365" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X365" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="Y365" t="n">
-        <v>7.85</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="366">
@@ -34941,27 +34913,27 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>159580</t>
+          <t>014100</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>제로투세븐</t>
+          <t>메디앙스</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>출산장려정책</t>
+          <t>엔젤산업</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>생활용품 도매업</t>
+          <t>기타 화학제품 제조업</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>유아동복 및 용품</t>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -34971,47 +34943,47 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>여름1</t>
+          <t>겨울1</t>
         </is>
       </c>
       <c r="I366" t="n">
-        <v>8300</v>
+        <v>3170</v>
       </c>
       <c r="J366" t="n">
-        <v>2297139</v>
+        <v>889121</v>
       </c>
       <c r="K366" t="n">
-        <v>20321580280</v>
+        <v>3057370020</v>
       </c>
       <c r="L366" t="n">
-        <v>164467.94156</v>
+        <v>37760</v>
       </c>
       <c r="M366" t="n">
-        <v>90</v>
+        <v>-140</v>
       </c>
       <c r="N366" t="n">
-        <v>0.01096224116930578</v>
+        <v>-0.04229607250755285</v>
       </c>
       <c r="O366" t="n">
-        <v>117.864243112752</v>
+        <v>99.40420194418313</v>
       </c>
       <c r="P366" t="n">
         <v>0</v>
       </c>
       <c r="Q366" t="n">
-        <v>8025</v>
+        <v>3182</v>
       </c>
       <c r="R366" t="n">
-        <v>7501</v>
+        <v>3163</v>
       </c>
       <c r="S366" t="n">
-        <v>7042</v>
+        <v>3189</v>
       </c>
       <c r="T366" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="U366" t="n">
-        <v>5500</v>
+        <v>2690</v>
       </c>
       <c r="V366" t="inlineStr">
         <is>
@@ -35020,14 +34992,14 @@
       </c>
       <c r="W366" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X366" t="n">
-        <v>8.94</v>
+        <v>7.73</v>
       </c>
       <c r="Y366" t="n">
-        <v>9.35</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="367">
@@ -35038,27 +35010,27 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>159580</t>
+          <t>014100</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>제로투세븐</t>
+          <t>메디앙스</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>엔젤산업</t>
+          <t>출산장려정책</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>생활용품 도매업</t>
+          <t>기타 화학제품 제조업</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>유아동복 및 용품</t>
+          <t>누크, 비비생활용품, 비앙또마망, 지에닉, 닥터 아토피스</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -35068,47 +35040,47 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>여름1</t>
+          <t>겨울1</t>
         </is>
       </c>
       <c r="I367" t="n">
-        <v>8300</v>
+        <v>3170</v>
       </c>
       <c r="J367" t="n">
-        <v>2297139</v>
+        <v>889121</v>
       </c>
       <c r="K367" t="n">
-        <v>20321580280</v>
+        <v>3057370020</v>
       </c>
       <c r="L367" t="n">
-        <v>164467.94156</v>
+        <v>37760</v>
       </c>
       <c r="M367" t="n">
-        <v>90</v>
+        <v>-140</v>
       </c>
       <c r="N367" t="n">
-        <v>0.01096224116930578</v>
+        <v>-0.04229607250755285</v>
       </c>
       <c r="O367" t="n">
-        <v>117.864243112752</v>
+        <v>99.40420194418313</v>
       </c>
       <c r="P367" t="n">
         <v>0</v>
       </c>
       <c r="Q367" t="n">
-        <v>8025</v>
+        <v>3182</v>
       </c>
       <c r="R367" t="n">
-        <v>7501</v>
+        <v>3163</v>
       </c>
       <c r="S367" t="n">
-        <v>7042</v>
+        <v>3189</v>
       </c>
       <c r="T367" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="U367" t="n">
-        <v>5500</v>
+        <v>2690</v>
       </c>
       <c r="V367" t="inlineStr">
         <is>
@@ -35117,14 +35089,14 @@
       </c>
       <c r="W367" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X367" t="n">
-        <v>8.94</v>
+        <v>7.73</v>
       </c>
       <c r="Y367" t="n">
-        <v>9.35</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="368">
@@ -35135,27 +35107,27 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>159580</t>
+          <t>250060</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>제로투세븐</t>
+          <t>모비스</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>화장품</t>
+          <t>지능형로봇/인공지능(AI)</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>생활용품 도매업</t>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>유아동복 및 용품</t>
+          <t>기업인수합병</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -35169,43 +35141,43 @@
         </is>
       </c>
       <c r="I368" t="n">
-        <v>8300</v>
+        <v>2145</v>
       </c>
       <c r="J368" t="n">
-        <v>2297139</v>
+        <v>9163138</v>
       </c>
       <c r="K368" t="n">
-        <v>20321580280</v>
+        <v>19551644960</v>
       </c>
       <c r="L368" t="n">
-        <v>164467.94156</v>
+        <v>67720.61597</v>
       </c>
       <c r="M368" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N368" t="n">
-        <v>0.01096224116930578</v>
+        <v>0.1949860724233983</v>
       </c>
       <c r="O368" t="n">
-        <v>117.864243112752</v>
+        <v>118.9024390243902</v>
       </c>
       <c r="P368" t="n">
         <v>0</v>
       </c>
       <c r="Q368" t="n">
-        <v>8025</v>
+        <v>1894</v>
       </c>
       <c r="R368" t="n">
-        <v>7501</v>
+        <v>1791</v>
       </c>
       <c r="S368" t="n">
-        <v>7042</v>
+        <v>1804</v>
       </c>
       <c r="T368" t="n">
-        <v>9500</v>
+        <v>2290</v>
       </c>
       <c r="U368" t="n">
-        <v>5500</v>
+        <v>1545</v>
       </c>
       <c r="V368" t="inlineStr">
         <is>
@@ -35214,14 +35186,14 @@
       </c>
       <c r="W368" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X368" t="n">
-        <v>8.94</v>
+        <v>15.21</v>
       </c>
       <c r="Y368" t="n">
-        <v>9.35</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="369">
@@ -35232,27 +35204,27 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>317690</t>
+          <t>250060</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>퀀타매트릭스</t>
+          <t>모비스</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>의료기기</t>
+          <t>핵융합에너지</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>의료용 기기 제조업</t>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>신속항균제검사 장비 및 키트</t>
+          <t>기업인수합병</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -35262,47 +35234,47 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>여름2</t>
+          <t>여름1</t>
         </is>
       </c>
       <c r="I369" t="n">
-        <v>6690</v>
+        <v>2145</v>
       </c>
       <c r="J369" t="n">
-        <v>2234088</v>
+        <v>9163138</v>
       </c>
       <c r="K369" t="n">
-        <v>14876799580</v>
+        <v>19551644960</v>
       </c>
       <c r="L369" t="n">
-        <v>95580.58379999999</v>
+        <v>67720.61597</v>
       </c>
       <c r="M369" t="n">
-        <v>890</v>
+        <v>350</v>
       </c>
       <c r="N369" t="n">
-        <v>0.153448275862069</v>
+        <v>0.1949860724233983</v>
       </c>
       <c r="O369" t="n">
-        <v>122.9101598383244</v>
+        <v>118.9024390243902</v>
       </c>
       <c r="P369" t="n">
         <v>0</v>
       </c>
       <c r="Q369" t="n">
-        <v>5349</v>
+        <v>1894</v>
       </c>
       <c r="R369" t="n">
-        <v>5060</v>
+        <v>1791</v>
       </c>
       <c r="S369" t="n">
-        <v>5443</v>
+        <v>1804</v>
       </c>
       <c r="T369" t="n">
-        <v>6960</v>
+        <v>2290</v>
       </c>
       <c r="U369" t="n">
-        <v>4270</v>
+        <v>1545</v>
       </c>
       <c r="V369" t="inlineStr">
         <is>
@@ -35311,14 +35283,14 @@
       </c>
       <c r="W369" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X369" t="n">
-        <v>5.61</v>
+        <v>15.21</v>
       </c>
       <c r="Y369" t="n">
-        <v>6.21</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="370">
@@ -35329,27 +35301,27 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>317690</t>
+          <t>250060</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>퀀타매트릭스</t>
+          <t>모비스</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>2020 하반기 신규상장</t>
+          <t>4차산업 수혜주</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>의료용 기기 제조업</t>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>신속항균제검사 장비 및 키트</t>
+          <t>기업인수합병</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -35359,47 +35331,47 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>여름2</t>
+          <t>여름1</t>
         </is>
       </c>
       <c r="I370" t="n">
-        <v>6690</v>
+        <v>2145</v>
       </c>
       <c r="J370" t="n">
-        <v>2234088</v>
+        <v>9163138</v>
       </c>
       <c r="K370" t="n">
-        <v>14876799580</v>
+        <v>19551644960</v>
       </c>
       <c r="L370" t="n">
-        <v>95580.58379999999</v>
+        <v>67720.61597</v>
       </c>
       <c r="M370" t="n">
-        <v>890</v>
+        <v>350</v>
       </c>
       <c r="N370" t="n">
-        <v>0.153448275862069</v>
+        <v>0.1949860724233983</v>
       </c>
       <c r="O370" t="n">
-        <v>122.9101598383244</v>
+        <v>118.9024390243902</v>
       </c>
       <c r="P370" t="n">
         <v>0</v>
       </c>
       <c r="Q370" t="n">
-        <v>5349</v>
+        <v>1894</v>
       </c>
       <c r="R370" t="n">
-        <v>5060</v>
+        <v>1791</v>
       </c>
       <c r="S370" t="n">
-        <v>5443</v>
+        <v>1804</v>
       </c>
       <c r="T370" t="n">
-        <v>6960</v>
+        <v>2290</v>
       </c>
       <c r="U370" t="n">
-        <v>4270</v>
+        <v>1545</v>
       </c>
       <c r="V370" t="inlineStr">
         <is>
@@ -35408,14 +35380,14 @@
       </c>
       <c r="W370" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X370" t="n">
-        <v>5.61</v>
+        <v>15.21</v>
       </c>
       <c r="Y370" t="n">
-        <v>6.21</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="371">
@@ -35426,27 +35398,27 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>317690</t>
+          <t>338220</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>퀀타매트릭스</t>
+          <t>뷰노</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>코로나19(진단/치료제/백신 개발 등)</t>
+          <t>지능형로봇/인공지능(AI)</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>의료용 기기 제조업</t>
+          <t>소프트웨어 개발 및 공급업</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>신속항균제검사 장비 및 키트</t>
+          <t>뷰노메드 음성솔루션, 뷰노메드 영상솔루션, 기타 솔루션 등</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -35456,47 +35428,47 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>여름2</t>
+          <t>가을3</t>
         </is>
       </c>
       <c r="I371" t="n">
-        <v>6690</v>
+        <v>14770</v>
       </c>
       <c r="J371" t="n">
-        <v>2234088</v>
+        <v>2872160</v>
       </c>
       <c r="K371" t="n">
-        <v>14876799580</v>
+        <v>39307687210</v>
       </c>
       <c r="L371" t="n">
-        <v>95580.58379999999</v>
+        <v>167367.50208</v>
       </c>
       <c r="M371" t="n">
-        <v>890</v>
+        <v>3010</v>
       </c>
       <c r="N371" t="n">
-        <v>0.153448275862069</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="O371" t="n">
-        <v>122.9101598383244</v>
+        <v>207.647968508365</v>
       </c>
       <c r="P371" t="n">
         <v>0</v>
       </c>
       <c r="Q371" t="n">
-        <v>5349</v>
+        <v>10669</v>
       </c>
       <c r="R371" t="n">
-        <v>5060</v>
+        <v>8210</v>
       </c>
       <c r="S371" t="n">
-        <v>5443</v>
+        <v>7113</v>
       </c>
       <c r="T371" t="n">
-        <v>6960</v>
+        <v>14770</v>
       </c>
       <c r="U371" t="n">
-        <v>4270</v>
+        <v>5000</v>
       </c>
       <c r="V371" t="inlineStr">
         <is>
@@ -35505,14 +35477,14 @@
       </c>
       <c r="W371" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="X371" t="n">
-        <v>5.61</v>
+        <v>5.15</v>
       </c>
       <c r="Y371" t="n">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="372">
@@ -35523,93 +35495,4749 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
+          <t>338220</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>뷰노</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2021 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>뷰노메드 음성솔루션, 뷰노메드 영상솔루션, 기타 솔루션 등</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>14770</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2872160</v>
+      </c>
+      <c r="K372" t="n">
+        <v>39307687210</v>
+      </c>
+      <c r="L372" t="n">
+        <v>167367.50208</v>
+      </c>
+      <c r="M372" t="n">
+        <v>3010</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0.2559523809523809</v>
+      </c>
+      <c r="O372" t="n">
+        <v>207.647968508365</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>10669</v>
+      </c>
+      <c r="R372" t="n">
+        <v>8210</v>
+      </c>
+      <c r="S372" t="n">
+        <v>7113</v>
+      </c>
+      <c r="T372" t="n">
+        <v>14770</v>
+      </c>
+      <c r="U372" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X372" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>338220</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>뷰노</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>뷰노메드 음성솔루션, 뷰노메드 영상솔루션, 기타 솔루션 등</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>14770</v>
+      </c>
+      <c r="J373" t="n">
+        <v>2872160</v>
+      </c>
+      <c r="K373" t="n">
+        <v>39307687210</v>
+      </c>
+      <c r="L373" t="n">
+        <v>167367.50208</v>
+      </c>
+      <c r="M373" t="n">
+        <v>3010</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0.2559523809523809</v>
+      </c>
+      <c r="O373" t="n">
+        <v>207.647968508365</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>10669</v>
+      </c>
+      <c r="R373" t="n">
+        <v>8210</v>
+      </c>
+      <c r="S373" t="n">
+        <v>7113</v>
+      </c>
+      <c r="T373" t="n">
+        <v>14770</v>
+      </c>
+      <c r="U373" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X373" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>035890</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>서희건설</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>DMZ 평화공원</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>건물 건설업</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>토목, 건축, 부동산임대업</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>1140</v>
+      </c>
+      <c r="J374" t="n">
+        <v>3104595</v>
+      </c>
+      <c r="K374" t="n">
+        <v>3704298418</v>
+      </c>
+      <c r="L374" t="n">
+        <v>262900.874808</v>
+      </c>
+      <c r="M374" t="n">
+        <v>1</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0.0008779631255486642</v>
+      </c>
+      <c r="O374" t="n">
+        <v>94.13707679603634</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>1159</v>
+      </c>
+      <c r="R374" t="n">
+        <v>1187</v>
+      </c>
+      <c r="S374" t="n">
+        <v>1211</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1395</v>
+      </c>
+      <c r="U374" t="n">
+        <v>1050</v>
+      </c>
+      <c r="V374" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="W374" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X374" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>035890</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>서희건설</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>건설 중소형</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>건물 건설업</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>토목, 건축, 부동산임대업</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>1140</v>
+      </c>
+      <c r="J375" t="n">
+        <v>3104595</v>
+      </c>
+      <c r="K375" t="n">
+        <v>3704298418</v>
+      </c>
+      <c r="L375" t="n">
+        <v>262900.874808</v>
+      </c>
+      <c r="M375" t="n">
+        <v>1</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0.0008779631255486642</v>
+      </c>
+      <c r="O375" t="n">
+        <v>94.13707679603634</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>1159</v>
+      </c>
+      <c r="R375" t="n">
+        <v>1187</v>
+      </c>
+      <c r="S375" t="n">
+        <v>1211</v>
+      </c>
+      <c r="T375" t="n">
+        <v>1395</v>
+      </c>
+      <c r="U375" t="n">
+        <v>1050</v>
+      </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X375" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>372800</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>아이티아이즈</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>마이데이터</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>디지털금융솔루션 제공 및 AI, Big Data 서비스, 클라우드 통합 플랫폼 (GURMWI)</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>13310</v>
+      </c>
+      <c r="J376" t="n">
+        <v>4372019</v>
+      </c>
+      <c r="K376" t="n">
+        <v>56830056240</v>
+      </c>
+      <c r="L376" t="n">
+        <v>78298.569</v>
+      </c>
+      <c r="M376" t="n">
+        <v>2130</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0.1905187835420394</v>
+      </c>
+      <c r="O376" t="n">
+        <v>151.2328144529031</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>10726</v>
+      </c>
+      <c r="R376" t="n">
+        <v>9084</v>
+      </c>
+      <c r="S376" t="n">
+        <v>8801</v>
+      </c>
+      <c r="T376" t="n">
+        <v>14110</v>
+      </c>
+      <c r="U376" t="n">
+        <v>7270</v>
+      </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
+      </c>
+      <c r="X376" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>372800</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>아이티아이즈</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2021 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>디지털금융솔루션 제공 및 AI, Big Data 서비스, 클라우드 통합 플랫폼 (GURMWI)</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>13310</v>
+      </c>
+      <c r="J377" t="n">
+        <v>4372019</v>
+      </c>
+      <c r="K377" t="n">
+        <v>56830056240</v>
+      </c>
+      <c r="L377" t="n">
+        <v>78298.569</v>
+      </c>
+      <c r="M377" t="n">
+        <v>2130</v>
+      </c>
+      <c r="N377" t="n">
+        <v>0.1905187835420394</v>
+      </c>
+      <c r="O377" t="n">
+        <v>151.2328144529031</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>10726</v>
+      </c>
+      <c r="R377" t="n">
+        <v>9084</v>
+      </c>
+      <c r="S377" t="n">
+        <v>8801</v>
+      </c>
+      <c r="T377" t="n">
+        <v>14110</v>
+      </c>
+      <c r="U377" t="n">
+        <v>7270</v>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
+      </c>
+      <c r="X377" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>238120</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>얼라인드</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>코로나19(진단키트)</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>사진장비 및 광학기기 제조업</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>자동세포카운팅시스템, 생체조직투명화시스템, 디지털세포이미징시스템</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>8750</v>
+      </c>
+      <c r="J378" t="n">
+        <v>128638</v>
+      </c>
+      <c r="K378" t="n">
+        <v>1102550920</v>
+      </c>
+      <c r="L378" t="n">
+        <v>62907.67</v>
+      </c>
+      <c r="M378" t="n">
+        <v>520</v>
+      </c>
+      <c r="N378" t="n">
+        <v>0.06318347509112998</v>
+      </c>
+      <c r="O378" t="n">
+        <v>109.5255976968331</v>
+      </c>
+      <c r="P378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>8065</v>
+      </c>
+      <c r="R378" t="n">
+        <v>7950</v>
+      </c>
+      <c r="S378" t="n">
+        <v>7989</v>
+      </c>
+      <c r="T378" t="n">
+        <v>9650</v>
+      </c>
+      <c r="U378" t="n">
+        <v>6900</v>
+      </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X378" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>238120</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>얼라인드</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>코로나19(진단/치료제/백신 개발 등)</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>사진장비 및 광학기기 제조업</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>자동세포카운팅시스템, 생체조직투명화시스템, 디지털세포이미징시스템</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>8750</v>
+      </c>
+      <c r="J379" t="n">
+        <v>128638</v>
+      </c>
+      <c r="K379" t="n">
+        <v>1102550920</v>
+      </c>
+      <c r="L379" t="n">
+        <v>62907.67</v>
+      </c>
+      <c r="M379" t="n">
+        <v>520</v>
+      </c>
+      <c r="N379" t="n">
+        <v>0.06318347509112998</v>
+      </c>
+      <c r="O379" t="n">
+        <v>109.5255976968331</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>8065</v>
+      </c>
+      <c r="R379" t="n">
+        <v>7950</v>
+      </c>
+      <c r="S379" t="n">
+        <v>7989</v>
+      </c>
+      <c r="T379" t="n">
+        <v>9650</v>
+      </c>
+      <c r="U379" t="n">
+        <v>6900</v>
+      </c>
+      <c r="V379" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="W379" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X379" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>050760</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>에스폴리텍</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>LCD 부품/소재</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>유무선 통신용 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J380" t="n">
+        <v>2098357</v>
+      </c>
+      <c r="K380" t="n">
+        <v>5890211310</v>
+      </c>
+      <c r="L380" t="n">
+        <v>42551.83619</v>
+      </c>
+      <c r="M380" t="n">
+        <v>-130</v>
+      </c>
+      <c r="N380" t="n">
+        <v>-0.04832713754646845</v>
+      </c>
+      <c r="O380" t="n">
+        <v>96.53092006033182</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>2658</v>
+      </c>
+      <c r="R380" t="n">
+        <v>2560</v>
+      </c>
+      <c r="S380" t="n">
+        <v>2652</v>
+      </c>
+      <c r="T380" t="n">
+        <v>3100</v>
+      </c>
+      <c r="U380" t="n">
+        <v>2115</v>
+      </c>
+      <c r="V380" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="W380" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X380" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>050760</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>에스폴리텍</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>태양광에너지</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>유무선 통신용 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J381" t="n">
+        <v>2098357</v>
+      </c>
+      <c r="K381" t="n">
+        <v>5890211310</v>
+      </c>
+      <c r="L381" t="n">
+        <v>42551.83619</v>
+      </c>
+      <c r="M381" t="n">
+        <v>-130</v>
+      </c>
+      <c r="N381" t="n">
+        <v>-0.04832713754646845</v>
+      </c>
+      <c r="O381" t="n">
+        <v>96.53092006033182</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>2658</v>
+      </c>
+      <c r="R381" t="n">
+        <v>2560</v>
+      </c>
+      <c r="S381" t="n">
+        <v>2652</v>
+      </c>
+      <c r="T381" t="n">
+        <v>3100</v>
+      </c>
+      <c r="U381" t="n">
+        <v>2115</v>
+      </c>
+      <c r="V381" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="W381" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X381" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>050760</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>에스폴리텍</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>유무선 통신용 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J382" t="n">
+        <v>2098357</v>
+      </c>
+      <c r="K382" t="n">
+        <v>5890211310</v>
+      </c>
+      <c r="L382" t="n">
+        <v>42551.83619</v>
+      </c>
+      <c r="M382" t="n">
+        <v>-130</v>
+      </c>
+      <c r="N382" t="n">
+        <v>-0.04832713754646845</v>
+      </c>
+      <c r="O382" t="n">
+        <v>96.53092006033182</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>2658</v>
+      </c>
+      <c r="R382" t="n">
+        <v>2560</v>
+      </c>
+      <c r="S382" t="n">
+        <v>2652</v>
+      </c>
+      <c r="T382" t="n">
+        <v>3100</v>
+      </c>
+      <c r="U382" t="n">
+        <v>2115</v>
+      </c>
+      <c r="V382" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="W382" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X382" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>039200</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>오스코텍</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>면역항암제</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>뼈이식재,건강식품소재</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>18220</v>
+      </c>
+      <c r="J383" t="n">
+        <v>1767274</v>
+      </c>
+      <c r="K383" t="n">
+        <v>32203420360</v>
+      </c>
+      <c r="L383" t="n">
+        <v>666148.97643</v>
+      </c>
+      <c r="M383" t="n">
+        <v>-2730</v>
+      </c>
+      <c r="N383" t="n">
+        <v>-0.1303102625298329</v>
+      </c>
+      <c r="O383" t="n">
+        <v>97.11118217674021</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>20635</v>
+      </c>
+      <c r="R383" t="n">
+        <v>18949</v>
+      </c>
+      <c r="S383" t="n">
+        <v>18762</v>
+      </c>
+      <c r="T383" t="n">
+        <v>22700</v>
+      </c>
+      <c r="U383" t="n">
+        <v>15850</v>
+      </c>
+      <c r="V383" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="W383" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="X383" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>039200</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>오스코텍</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>고령화 사회(노인복지)</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>뼈이식재,건강식품소재</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>18220</v>
+      </c>
+      <c r="J384" t="n">
+        <v>1767274</v>
+      </c>
+      <c r="K384" t="n">
+        <v>32203420360</v>
+      </c>
+      <c r="L384" t="n">
+        <v>666148.97643</v>
+      </c>
+      <c r="M384" t="n">
+        <v>-2730</v>
+      </c>
+      <c r="N384" t="n">
+        <v>-0.1303102625298329</v>
+      </c>
+      <c r="O384" t="n">
+        <v>97.11118217674021</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>20635</v>
+      </c>
+      <c r="R384" t="n">
+        <v>18949</v>
+      </c>
+      <c r="S384" t="n">
+        <v>18762</v>
+      </c>
+      <c r="T384" t="n">
+        <v>22700</v>
+      </c>
+      <c r="U384" t="n">
+        <v>15850</v>
+      </c>
+      <c r="V384" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="W384" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="X384" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>039200</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>오스코텍</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>치아 치료(임플란트 등)</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>뼈이식재,건강식품소재</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>18220</v>
+      </c>
+      <c r="J385" t="n">
+        <v>1767274</v>
+      </c>
+      <c r="K385" t="n">
+        <v>32203420360</v>
+      </c>
+      <c r="L385" t="n">
+        <v>666148.97643</v>
+      </c>
+      <c r="M385" t="n">
+        <v>-2730</v>
+      </c>
+      <c r="N385" t="n">
+        <v>-0.1303102625298329</v>
+      </c>
+      <c r="O385" t="n">
+        <v>97.11118217674021</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>20635</v>
+      </c>
+      <c r="R385" t="n">
+        <v>18949</v>
+      </c>
+      <c r="S385" t="n">
+        <v>18762</v>
+      </c>
+      <c r="T385" t="n">
+        <v>22700</v>
+      </c>
+      <c r="U385" t="n">
+        <v>15850</v>
+      </c>
+      <c r="V385" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="W385" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="X385" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>모바일솔루션(스마트폰)</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>18500</v>
+      </c>
+      <c r="J386" t="n">
+        <v>2180355</v>
+      </c>
+      <c r="K386" t="n">
+        <v>39807564230</v>
+      </c>
+      <c r="L386" t="n">
+        <v>128006.79486</v>
+      </c>
+      <c r="M386" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.07871720116618075</v>
+      </c>
+      <c r="O386" t="n">
+        <v>149.4345718901454</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>16255</v>
+      </c>
+      <c r="R386" t="n">
+        <v>13419</v>
+      </c>
+      <c r="S386" t="n">
+        <v>12380</v>
+      </c>
+      <c r="T386" t="n">
+        <v>19360</v>
+      </c>
+      <c r="U386" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V386" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W386" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X386" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>지능형로봇/인공지능(AI)</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>18500</v>
+      </c>
+      <c r="J387" t="n">
+        <v>2180355</v>
+      </c>
+      <c r="K387" t="n">
+        <v>39807564230</v>
+      </c>
+      <c r="L387" t="n">
+        <v>128006.79486</v>
+      </c>
+      <c r="M387" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0.07871720116618075</v>
+      </c>
+      <c r="O387" t="n">
+        <v>149.4345718901454</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>16255</v>
+      </c>
+      <c r="R387" t="n">
+        <v>13419</v>
+      </c>
+      <c r="S387" t="n">
+        <v>12380</v>
+      </c>
+      <c r="T387" t="n">
+        <v>19360</v>
+      </c>
+      <c r="U387" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V387" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W387" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X387" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>메타버스(Metaverse)</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>18500</v>
+      </c>
+      <c r="J388" t="n">
+        <v>2180355</v>
+      </c>
+      <c r="K388" t="n">
+        <v>39807564230</v>
+      </c>
+      <c r="L388" t="n">
+        <v>128006.79486</v>
+      </c>
+      <c r="M388" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0.07871720116618075</v>
+      </c>
+      <c r="O388" t="n">
+        <v>149.4345718901454</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>16255</v>
+      </c>
+      <c r="R388" t="n">
+        <v>13419</v>
+      </c>
+      <c r="S388" t="n">
+        <v>12380</v>
+      </c>
+      <c r="T388" t="n">
+        <v>19360</v>
+      </c>
+      <c r="U388" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V388" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W388" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X388" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2020 상반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>빅데이터분석, 인공지능, 데이터품질관리 솔루션</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>18500</v>
+      </c>
+      <c r="J389" t="n">
+        <v>2180355</v>
+      </c>
+      <c r="K389" t="n">
+        <v>39807564230</v>
+      </c>
+      <c r="L389" t="n">
+        <v>128006.79486</v>
+      </c>
+      <c r="M389" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0.07871720116618075</v>
+      </c>
+      <c r="O389" t="n">
+        <v>149.4345718901454</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>16255</v>
+      </c>
+      <c r="R389" t="n">
+        <v>13419</v>
+      </c>
+      <c r="S389" t="n">
+        <v>12380</v>
+      </c>
+      <c r="T389" t="n">
+        <v>19360</v>
+      </c>
+      <c r="U389" t="n">
+        <v>9830</v>
+      </c>
+      <c r="V389" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W389" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="X389" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>100030</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>인지소프트</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>모바일솔루션(스마트폰)</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>금융솔루션,동기화솔루션</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>26700</v>
+      </c>
+      <c r="J390" t="n">
+        <v>281731</v>
+      </c>
+      <c r="K390" t="n">
+        <v>7297633400</v>
+      </c>
+      <c r="L390" t="n">
+        <v>87510.97809999999</v>
+      </c>
+      <c r="M390" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="O390" t="n">
+        <v>132.2633377916481</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>23005</v>
+      </c>
+      <c r="R390" t="n">
+        <v>20000</v>
+      </c>
+      <c r="S390" t="n">
+        <v>20187</v>
+      </c>
+      <c r="T390" t="n">
+        <v>26700</v>
+      </c>
+      <c r="U390" t="n">
+        <v>17250</v>
+      </c>
+      <c r="V390" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="X390" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>100030</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>인지소프트</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>인터넷은행</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>금융솔루션,동기화솔루션</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>26700</v>
+      </c>
+      <c r="J391" t="n">
+        <v>281731</v>
+      </c>
+      <c r="K391" t="n">
+        <v>7297633400</v>
+      </c>
+      <c r="L391" t="n">
+        <v>87510.97809999999</v>
+      </c>
+      <c r="M391" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="O391" t="n">
+        <v>132.2633377916481</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>23005</v>
+      </c>
+      <c r="R391" t="n">
+        <v>20000</v>
+      </c>
+      <c r="S391" t="n">
+        <v>20187</v>
+      </c>
+      <c r="T391" t="n">
+        <v>26700</v>
+      </c>
+      <c r="U391" t="n">
+        <v>17250</v>
+      </c>
+      <c r="V391" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="X391" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>100030</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>인지소프트</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>클라우드 컴퓨팅</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>금융솔루션,동기화솔루션</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>가을1</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>26700</v>
+      </c>
+      <c r="J392" t="n">
+        <v>281731</v>
+      </c>
+      <c r="K392" t="n">
+        <v>7297633400</v>
+      </c>
+      <c r="L392" t="n">
+        <v>87510.97809999999</v>
+      </c>
+      <c r="M392" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="O392" t="n">
+        <v>132.2633377916481</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>23005</v>
+      </c>
+      <c r="R392" t="n">
+        <v>20000</v>
+      </c>
+      <c r="S392" t="n">
+        <v>20187</v>
+      </c>
+      <c r="T392" t="n">
+        <v>26700</v>
+      </c>
+      <c r="U392" t="n">
+        <v>17250</v>
+      </c>
+      <c r="V392" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W392" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="X392" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>제로투세븐</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>유아동복 및 용품</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>8150</v>
+      </c>
+      <c r="J393" t="n">
+        <v>2921008</v>
+      </c>
+      <c r="K393" t="n">
+        <v>25458424670</v>
+      </c>
+      <c r="L393" t="n">
+        <v>165269.247</v>
+      </c>
+      <c r="M393" t="n">
+        <v>-60</v>
+      </c>
+      <c r="N393" t="n">
+        <v>-0.00730816077953711</v>
+      </c>
+      <c r="O393" t="n">
+        <v>115.7506036074421</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>8018</v>
+      </c>
+      <c r="R393" t="n">
+        <v>7499</v>
+      </c>
+      <c r="S393" t="n">
+        <v>7041</v>
+      </c>
+      <c r="T393" t="n">
+        <v>9500</v>
+      </c>
+      <c r="U393" t="n">
+        <v>5500</v>
+      </c>
+      <c r="V393" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X393" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>제로투세븐</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>엔젤산업</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>유아동복 및 용품</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>8150</v>
+      </c>
+      <c r="J394" t="n">
+        <v>2921008</v>
+      </c>
+      <c r="K394" t="n">
+        <v>25458424670</v>
+      </c>
+      <c r="L394" t="n">
+        <v>165269.247</v>
+      </c>
+      <c r="M394" t="n">
+        <v>-60</v>
+      </c>
+      <c r="N394" t="n">
+        <v>-0.00730816077953711</v>
+      </c>
+      <c r="O394" t="n">
+        <v>115.7506036074421</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>8018</v>
+      </c>
+      <c r="R394" t="n">
+        <v>7499</v>
+      </c>
+      <c r="S394" t="n">
+        <v>7041</v>
+      </c>
+      <c r="T394" t="n">
+        <v>9500</v>
+      </c>
+      <c r="U394" t="n">
+        <v>5500</v>
+      </c>
+      <c r="V394" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X394" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>159580</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>제로투세븐</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>출산장려정책</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>유아동복 및 용품</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>8150</v>
+      </c>
+      <c r="J395" t="n">
+        <v>2921008</v>
+      </c>
+      <c r="K395" t="n">
+        <v>25458424670</v>
+      </c>
+      <c r="L395" t="n">
+        <v>165269.247</v>
+      </c>
+      <c r="M395" t="n">
+        <v>-60</v>
+      </c>
+      <c r="N395" t="n">
+        <v>-0.00730816077953711</v>
+      </c>
+      <c r="O395" t="n">
+        <v>115.7506036074421</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>8018</v>
+      </c>
+      <c r="R395" t="n">
+        <v>7499</v>
+      </c>
+      <c r="S395" t="n">
+        <v>7041</v>
+      </c>
+      <c r="T395" t="n">
+        <v>9500</v>
+      </c>
+      <c r="U395" t="n">
+        <v>5500</v>
+      </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X395" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>033320</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>제이씨현시스템</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>재택근무/스마트워크</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>메인보드, 그래픽카드</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J396" t="n">
+        <v>6352081</v>
+      </c>
+      <c r="K396" t="n">
+        <v>36881091770</v>
+      </c>
+      <c r="L396" t="n">
+        <v>109716.83968</v>
+      </c>
+      <c r="M396" t="n">
+        <v>320</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0.05893186003683248</v>
+      </c>
+      <c r="O396" t="n">
+        <v>129.5336787564767</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>5552</v>
+      </c>
+      <c r="R396" t="n">
+        <v>4974</v>
+      </c>
+      <c r="S396" t="n">
+        <v>4439</v>
+      </c>
+      <c r="T396" t="n">
+        <v>6590</v>
+      </c>
+      <c r="U396" t="n">
+        <v>3205</v>
+      </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X396" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>033320</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>제이씨현시스템</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>가상현실(VR)</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>메인보드, 그래픽카드</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J397" t="n">
+        <v>6352081</v>
+      </c>
+      <c r="K397" t="n">
+        <v>36881091770</v>
+      </c>
+      <c r="L397" t="n">
+        <v>109716.83968</v>
+      </c>
+      <c r="M397" t="n">
+        <v>320</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0.05893186003683248</v>
+      </c>
+      <c r="O397" t="n">
+        <v>129.5336787564767</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>5552</v>
+      </c>
+      <c r="R397" t="n">
+        <v>4974</v>
+      </c>
+      <c r="S397" t="n">
+        <v>4439</v>
+      </c>
+      <c r="T397" t="n">
+        <v>6590</v>
+      </c>
+      <c r="U397" t="n">
+        <v>3205</v>
+      </c>
+      <c r="V397" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="W397" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X397" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>033320</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>제이씨현시스템</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>가상화폐(비트코인 등)</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>메인보드, 그래픽카드</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J398" t="n">
+        <v>6352081</v>
+      </c>
+      <c r="K398" t="n">
+        <v>36881091770</v>
+      </c>
+      <c r="L398" t="n">
+        <v>109716.83968</v>
+      </c>
+      <c r="M398" t="n">
+        <v>320</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.05893186003683248</v>
+      </c>
+      <c r="O398" t="n">
+        <v>129.5336787564767</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>5552</v>
+      </c>
+      <c r="R398" t="n">
+        <v>4974</v>
+      </c>
+      <c r="S398" t="n">
+        <v>4439</v>
+      </c>
+      <c r="T398" t="n">
+        <v>6590</v>
+      </c>
+      <c r="U398" t="n">
+        <v>3205</v>
+      </c>
+      <c r="V398" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="W398" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X398" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>033320</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>제이씨현시스템</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>차량용블랙박스</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>메인보드, 그래픽카드</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J399" t="n">
+        <v>6352081</v>
+      </c>
+      <c r="K399" t="n">
+        <v>36881091770</v>
+      </c>
+      <c r="L399" t="n">
+        <v>109716.83968</v>
+      </c>
+      <c r="M399" t="n">
+        <v>320</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.05893186003683248</v>
+      </c>
+      <c r="O399" t="n">
+        <v>129.5336787564767</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>5552</v>
+      </c>
+      <c r="R399" t="n">
+        <v>4974</v>
+      </c>
+      <c r="S399" t="n">
+        <v>4439</v>
+      </c>
+      <c r="T399" t="n">
+        <v>6590</v>
+      </c>
+      <c r="U399" t="n">
+        <v>3205</v>
+      </c>
+      <c r="V399" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="W399" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X399" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>033320</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>제이씨현시스템</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>드론(Drone)</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>메인보드, 그래픽카드</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>5750</v>
+      </c>
+      <c r="J400" t="n">
+        <v>6352081</v>
+      </c>
+      <c r="K400" t="n">
+        <v>36881091770</v>
+      </c>
+      <c r="L400" t="n">
+        <v>109716.83968</v>
+      </c>
+      <c r="M400" t="n">
+        <v>320</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.05893186003683248</v>
+      </c>
+      <c r="O400" t="n">
+        <v>129.5336787564767</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>5552</v>
+      </c>
+      <c r="R400" t="n">
+        <v>4974</v>
+      </c>
+      <c r="S400" t="n">
+        <v>4439</v>
+      </c>
+      <c r="T400" t="n">
+        <v>6590</v>
+      </c>
+      <c r="U400" t="n">
+        <v>3205</v>
+      </c>
+      <c r="V400" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="W400" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="X400" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>태블릿PC</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J401" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K401" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L401" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M401" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O401" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R401" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S401" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T401" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U401" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W401" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X401" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>자율주행차</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J402" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K402" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L402" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M402" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O402" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R402" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S402" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T402" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U402" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W402" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X402" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>갤럭시 부품주</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J403" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K403" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L403" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M403" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O403" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R403" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S403" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T403" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U403" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V403" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W403" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X403" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>스마트폰</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J404" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K404" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L404" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M404" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O404" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R404" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S404" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T404" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U404" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V404" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W404" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X404" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>무선충전기술</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J405" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K405" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L405" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M405" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O405" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R405" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S405" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T405" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U405" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V405" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W405" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X405" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>LCD 부품/소재</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J406" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K406" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L406" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M406" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O406" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R406" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S406" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T406" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U406" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V406" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W406" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X406" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>전자파</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J407" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K407" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L407" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O407" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R407" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S407" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T407" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U407" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V407" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W407" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X407" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>089010</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>켐트로닉스</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>폴더블폰</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Touch IC 및 PBA, TG, EMC</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>봄3</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>18200</v>
+      </c>
+      <c r="J408" t="n">
+        <v>828943</v>
+      </c>
+      <c r="K408" t="n">
+        <v>15057481650</v>
+      </c>
+      <c r="L408" t="n">
+        <v>271607.10996</v>
+      </c>
+      <c r="M408" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0.08721624850657106</v>
+      </c>
+      <c r="O408" t="n">
+        <v>112.6725685631152</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>16326</v>
+      </c>
+      <c r="R408" t="n">
+        <v>15437</v>
+      </c>
+      <c r="S408" t="n">
+        <v>16153</v>
+      </c>
+      <c r="T408" t="n">
+        <v>19100</v>
+      </c>
+      <c r="U408" t="n">
+        <v>12750</v>
+      </c>
+      <c r="V408" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W408" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X408" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
           <t>317690</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="C409" t="inlineStr">
         <is>
           <t>퀀타매트릭스</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr">
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료기기</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>6410</v>
+      </c>
+      <c r="J409" t="n">
+        <v>3062403</v>
+      </c>
+      <c r="K409" t="n">
+        <v>20210094310</v>
+      </c>
+      <c r="L409" t="n">
+        <v>105303.43629</v>
+      </c>
+      <c r="M409" t="n">
+        <v>610</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0.1051724137931034</v>
+      </c>
+      <c r="O409" t="n">
+        <v>117.8308823529412</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>5335</v>
+      </c>
+      <c r="R409" t="n">
+        <v>5056</v>
+      </c>
+      <c r="S409" t="n">
+        <v>5440</v>
+      </c>
+      <c r="T409" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U409" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V409" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W409" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X409" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2020 하반기 신규상장</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I410" t="n">
+        <v>6410</v>
+      </c>
+      <c r="J410" t="n">
+        <v>3062403</v>
+      </c>
+      <c r="K410" t="n">
+        <v>20210094310</v>
+      </c>
+      <c r="L410" t="n">
+        <v>105303.43629</v>
+      </c>
+      <c r="M410" t="n">
+        <v>610</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.1051724137931034</v>
+      </c>
+      <c r="O410" t="n">
+        <v>117.8308823529412</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>5335</v>
+      </c>
+      <c r="R410" t="n">
+        <v>5056</v>
+      </c>
+      <c r="S410" t="n">
+        <v>5440</v>
+      </c>
+      <c r="T410" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U410" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V410" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W410" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X410" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
         <is>
           <t>코로나19(진단키트)</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
+      <c r="E411" t="inlineStr">
         <is>
           <t>의료용 기기 제조업</t>
         </is>
       </c>
-      <c r="F372" t="inlineStr">
+      <c r="F411" t="inlineStr">
         <is>
           <t>신속항균제검사 장비 및 키트</t>
         </is>
       </c>
-      <c r="G372" t="inlineStr">
+      <c r="G411" t="inlineStr">
         <is>
           <t>KOSDAQ</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>여름2</t>
-        </is>
-      </c>
-      <c r="I372" t="n">
-        <v>6690</v>
-      </c>
-      <c r="J372" t="n">
-        <v>2234088</v>
-      </c>
-      <c r="K372" t="n">
-        <v>14876799580</v>
-      </c>
-      <c r="L372" t="n">
-        <v>95580.58379999999</v>
-      </c>
-      <c r="M372" t="n">
-        <v>890</v>
-      </c>
-      <c r="N372" t="n">
-        <v>0.153448275862069</v>
-      </c>
-      <c r="O372" t="n">
-        <v>122.9101598383244</v>
-      </c>
-      <c r="P372" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q372" t="n">
-        <v>5349</v>
-      </c>
-      <c r="R372" t="n">
-        <v>5060</v>
-      </c>
-      <c r="S372" t="n">
-        <v>5443</v>
-      </c>
-      <c r="T372" t="n">
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I411" t="n">
+        <v>6410</v>
+      </c>
+      <c r="J411" t="n">
+        <v>3062403</v>
+      </c>
+      <c r="K411" t="n">
+        <v>20210094310</v>
+      </c>
+      <c r="L411" t="n">
+        <v>105303.43629</v>
+      </c>
+      <c r="M411" t="n">
+        <v>610</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.1051724137931034</v>
+      </c>
+      <c r="O411" t="n">
+        <v>117.8308823529412</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>5335</v>
+      </c>
+      <c r="R411" t="n">
+        <v>5056</v>
+      </c>
+      <c r="S411" t="n">
+        <v>5440</v>
+      </c>
+      <c r="T411" t="n">
         <v>6960</v>
       </c>
-      <c r="U372" t="n">
+      <c r="U411" t="n">
         <v>4270</v>
       </c>
-      <c r="V372" t="inlineStr">
+      <c r="V411" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="W372" t="inlineStr">
+      <c r="W411" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="X372" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="Y372" t="n">
-        <v>6.21</v>
+      <c r="X411" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>317690</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>퀀타매트릭스</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>코로나19(진단/치료제/백신 개발 등)</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>신속항균제검사 장비 및 키트</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>6410</v>
+      </c>
+      <c r="J412" t="n">
+        <v>3062403</v>
+      </c>
+      <c r="K412" t="n">
+        <v>20210094310</v>
+      </c>
+      <c r="L412" t="n">
+        <v>105303.43629</v>
+      </c>
+      <c r="M412" t="n">
+        <v>610</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.1051724137931034</v>
+      </c>
+      <c r="O412" t="n">
+        <v>117.8308823529412</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>5335</v>
+      </c>
+      <c r="R412" t="n">
+        <v>5056</v>
+      </c>
+      <c r="S412" t="n">
+        <v>5440</v>
+      </c>
+      <c r="T412" t="n">
+        <v>6960</v>
+      </c>
+      <c r="U412" t="n">
+        <v>4270</v>
+      </c>
+      <c r="V412" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W412" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X412" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>215480</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>토박스코리아</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>패션/의류</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>섬유, 의복, 신발 및 가죽제품 소매업</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>유아동 신발</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>4445</v>
+      </c>
+      <c r="J413" t="n">
+        <v>360338</v>
+      </c>
+      <c r="K413" t="n">
+        <v>1654899135</v>
+      </c>
+      <c r="L413" t="n">
+        <v>43171.15693</v>
+      </c>
+      <c r="M413" t="n">
+        <v>-135</v>
+      </c>
+      <c r="N413" t="n">
+        <v>-0.02947598253275108</v>
+      </c>
+      <c r="O413" t="n">
+        <v>94.97863247863248</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>4442</v>
+      </c>
+      <c r="R413" t="n">
+        <v>4400</v>
+      </c>
+      <c r="S413" t="n">
+        <v>4680</v>
+      </c>
+      <c r="T413" t="n">
+        <v>5580</v>
+      </c>
+      <c r="U413" t="n">
+        <v>3945</v>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X413" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y413" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>215480</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>토박스코리아</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>엔젤산업</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>섬유, 의복, 신발 및 가죽제품 소매업</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>유아동 신발</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>4445</v>
+      </c>
+      <c r="J414" t="n">
+        <v>360338</v>
+      </c>
+      <c r="K414" t="n">
+        <v>1654899135</v>
+      </c>
+      <c r="L414" t="n">
+        <v>43171.15693</v>
+      </c>
+      <c r="M414" t="n">
+        <v>-135</v>
+      </c>
+      <c r="N414" t="n">
+        <v>-0.02947598253275108</v>
+      </c>
+      <c r="O414" t="n">
+        <v>94.97863247863248</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>4442</v>
+      </c>
+      <c r="R414" t="n">
+        <v>4400</v>
+      </c>
+      <c r="S414" t="n">
+        <v>4680</v>
+      </c>
+      <c r="T414" t="n">
+        <v>5580</v>
+      </c>
+      <c r="U414" t="n">
+        <v>3945</v>
+      </c>
+      <c r="V414" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W414" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X414" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y414" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>215480</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>토박스코리아</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>출산장려정책</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>섬유, 의복, 신발 및 가죽제품 소매업</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>유아동 신발</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>겨울1</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>4445</v>
+      </c>
+      <c r="J415" t="n">
+        <v>360338</v>
+      </c>
+      <c r="K415" t="n">
+        <v>1654899135</v>
+      </c>
+      <c r="L415" t="n">
+        <v>43171.15693</v>
+      </c>
+      <c r="M415" t="n">
+        <v>-135</v>
+      </c>
+      <c r="N415" t="n">
+        <v>-0.02947598253275108</v>
+      </c>
+      <c r="O415" t="n">
+        <v>94.97863247863248</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>4442</v>
+      </c>
+      <c r="R415" t="n">
+        <v>4400</v>
+      </c>
+      <c r="S415" t="n">
+        <v>4680</v>
+      </c>
+      <c r="T415" t="n">
+        <v>5580</v>
+      </c>
+      <c r="U415" t="n">
+        <v>3945</v>
+      </c>
+      <c r="V415" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="W415" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
+      </c>
+      <c r="X415" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>재택근무/스마트워크</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>시스템 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J416" t="n">
+        <v>13384385</v>
+      </c>
+      <c r="K416" t="n">
+        <v>28492858701</v>
+      </c>
+      <c r="L416" t="n">
+        <v>102814.5951</v>
+      </c>
+      <c r="M416" t="n">
+        <v>175</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0.09067357512953378</v>
+      </c>
+      <c r="O416" t="n">
+        <v>151.0043041606887</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R416" t="n">
+        <v>1494</v>
+      </c>
+      <c r="S416" t="n">
+        <v>1394</v>
+      </c>
+      <c r="T416" t="n">
+        <v>2270</v>
+      </c>
+      <c r="U416" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V416" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W416" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X416" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>모바일솔루션(스마트폰)</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>시스템 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J417" t="n">
+        <v>13384385</v>
+      </c>
+      <c r="K417" t="n">
+        <v>28492858701</v>
+      </c>
+      <c r="L417" t="n">
+        <v>102814.5951</v>
+      </c>
+      <c r="M417" t="n">
+        <v>175</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.09067357512953378</v>
+      </c>
+      <c r="O417" t="n">
+        <v>151.0043041606887</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R417" t="n">
+        <v>1494</v>
+      </c>
+      <c r="S417" t="n">
+        <v>1394</v>
+      </c>
+      <c r="T417" t="n">
+        <v>2270</v>
+      </c>
+      <c r="U417" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V417" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W417" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X417" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>클라우드 컴퓨팅</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>시스템 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J418" t="n">
+        <v>13384385</v>
+      </c>
+      <c r="K418" t="n">
+        <v>28492858701</v>
+      </c>
+      <c r="L418" t="n">
+        <v>102814.5951</v>
+      </c>
+      <c r="M418" t="n">
+        <v>175</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.09067357512953378</v>
+      </c>
+      <c r="O418" t="n">
+        <v>151.0043041606887</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R418" t="n">
+        <v>1494</v>
+      </c>
+      <c r="S418" t="n">
+        <v>1394</v>
+      </c>
+      <c r="T418" t="n">
+        <v>2270</v>
+      </c>
+      <c r="U418" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V418" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W418" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X418" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>NFT(대체불가토큰)</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>시스템 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J419" t="n">
+        <v>13384385</v>
+      </c>
+      <c r="K419" t="n">
+        <v>28492858701</v>
+      </c>
+      <c r="L419" t="n">
+        <v>102814.5951</v>
+      </c>
+      <c r="M419" t="n">
+        <v>175</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0.09067357512953378</v>
+      </c>
+      <c r="O419" t="n">
+        <v>151.0043041606887</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R419" t="n">
+        <v>1494</v>
+      </c>
+      <c r="S419" t="n">
+        <v>1394</v>
+      </c>
+      <c r="T419" t="n">
+        <v>2270</v>
+      </c>
+      <c r="U419" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V419" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W419" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X419" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y419" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>모바일콘텐츠(스마트폰/태블릿PC)</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>시스템 소프트웨어</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>가을3</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J420" t="n">
+        <v>13384385</v>
+      </c>
+      <c r="K420" t="n">
+        <v>28492858701</v>
+      </c>
+      <c r="L420" t="n">
+        <v>102814.5951</v>
+      </c>
+      <c r="M420" t="n">
+        <v>175</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0.09067357512953378</v>
+      </c>
+      <c r="O420" t="n">
+        <v>151.0043041606887</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R420" t="n">
+        <v>1494</v>
+      </c>
+      <c r="S420" t="n">
+        <v>1394</v>
+      </c>
+      <c r="T420" t="n">
+        <v>2270</v>
+      </c>
+      <c r="U420" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V420" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="W420" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="X420" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>
